--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926874D6-1194-436D-93D6-B1B202175747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE79CADC-19D6-4D8D-A861-C1B9E1A06350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4740,7 +4740,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4762,12 +4762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4799,7 +4793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4953,13 +4947,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4974,13 +4962,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5266,9 +5251,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2053" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2004" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="J2069" sqref="J2069:U2069"/>
+      <selection pane="bottomLeft" activeCell="J2020" sqref="J2020:V2020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12937,7 +12922,7 @@
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="N181" s="37" t="s">
+      <c r="N181" s="50" t="s">
         <v>247</v>
       </c>
       <c r="O181" s="5"/>
@@ -12982,7 +12967,7 @@
         <f t="shared" si="9"/>
         <v>181</v>
       </c>
-      <c r="N182" s="37" t="s">
+      <c r="N182" s="50" t="s">
         <v>248</v>
       </c>
       <c r="O182" s="5"/>
@@ -34572,32 +34557,32 @@
       <c r="I819" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J819" s="7">
+      <c r="J819" s="54">
         <v>17</v>
       </c>
-      <c r="K819" s="39">
+      <c r="K819" s="55">
         <f t="shared" si="37"/>
         <v>818</v>
       </c>
-      <c r="L819" s="39">
+      <c r="L819" s="55">
         <v>1</v>
       </c>
-      <c r="M819" s="39">
+      <c r="M819" s="55">
         <f t="shared" si="39"/>
         <v>101</v>
       </c>
-      <c r="N819" s="37" t="s">
+      <c r="N819" s="56" t="s">
         <v>518</v>
       </c>
-      <c r="O819" s="6" t="s">
+      <c r="O819" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="P819" s="6"/>
-      <c r="Q819" s="6"/>
-      <c r="R819" s="6"/>
-      <c r="S819" s="6"/>
-      <c r="T819" s="6"/>
-      <c r="U819" s="6"/>
+      <c r="P819" s="57"/>
+      <c r="Q819" s="57"/>
+      <c r="R819" s="57"/>
+      <c r="S819" s="57"/>
+      <c r="T819" s="57"/>
+      <c r="U819" s="57"/>
       <c r="V819" s="37" t="s">
         <v>1226</v>
       </c>
@@ -41969,32 +41954,32 @@
       <c r="I1050" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J1050" s="56">
+      <c r="J1050" s="7">
         <v>21</v>
       </c>
-      <c r="K1050" s="57">
+      <c r="K1050" s="39">
         <f t="shared" si="49"/>
         <v>1049</v>
       </c>
-      <c r="L1050" s="57">
+      <c r="L1050" s="39">
         <f t="shared" si="50"/>
         <v>50</v>
       </c>
-      <c r="M1050" s="57">
+      <c r="M1050" s="39">
         <f t="shared" si="51"/>
         <v>100</v>
       </c>
-      <c r="N1050" s="58" t="s">
+      <c r="N1050" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="O1050" s="59"/>
-      <c r="P1050" s="59"/>
-      <c r="Q1050" s="59"/>
-      <c r="R1050" s="59"/>
-      <c r="S1050" s="59"/>
-      <c r="T1050" s="59"/>
-      <c r="U1050" s="59"/>
-      <c r="V1050" s="58"/>
+      <c r="O1050" s="6"/>
+      <c r="P1050" s="6"/>
+      <c r="Q1050" s="6"/>
+      <c r="R1050" s="6"/>
+      <c r="S1050" s="6"/>
+      <c r="T1050" s="6"/>
+      <c r="U1050" s="6"/>
+      <c r="V1050" s="37"/>
     </row>
     <row r="1051" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1051" s="39" t="s">
@@ -47234,7 +47219,7 @@
         <f t="shared" si="57"/>
         <v>106</v>
       </c>
-      <c r="N1210" s="52" t="s">
+      <c r="N1210" s="56" t="s">
         <v>1522</v>
       </c>
       <c r="O1210" s="5"/>
@@ -48831,7 +48816,7 @@
         <f t="shared" si="60"/>
         <v>156</v>
       </c>
-      <c r="N1260" s="60" t="s">
+      <c r="N1260" s="53" t="s">
         <v>270</v>
       </c>
       <c r="O1260" s="6" t="s">
@@ -48866,7 +48851,7 @@
         <f t="shared" si="60"/>
         <v>157</v>
       </c>
-      <c r="N1261" s="60" t="s">
+      <c r="N1261" s="53" t="s">
         <v>668</v>
       </c>
       <c r="O1261" s="5"/>
@@ -70434,24 +70419,31 @@
       <c r="I2020" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J2020" s="7">
+      <c r="J2020" s="43">
         <v>40</v>
       </c>
-      <c r="K2020" s="39">
+      <c r="K2020" s="42">
         <f t="shared" si="94"/>
         <v>2019</v>
       </c>
-      <c r="L2020" s="39">
+      <c r="L2020" s="42">
         <v>1</v>
       </c>
-      <c r="M2020" s="39">
+      <c r="M2020" s="42">
         <f t="shared" si="96"/>
         <v>51</v>
       </c>
-      <c r="N2020" s="37" t="s">
+      <c r="N2020" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="V2020" s="37"/>
+      <c r="O2020" s="58"/>
+      <c r="P2020" s="59"/>
+      <c r="Q2020" s="59"/>
+      <c r="R2020" s="59"/>
+      <c r="S2020" s="59"/>
+      <c r="T2020" s="59"/>
+      <c r="U2020" s="59"/>
+      <c r="V2020" s="52"/>
     </row>
     <row r="2021" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2021" s="39" t="s">
@@ -71635,31 +71627,24 @@
       <c r="I2069" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J2069" s="53">
+      <c r="J2069" s="7">
         <v>40</v>
       </c>
-      <c r="K2069" s="54">
+      <c r="K2069" s="39">
         <f t="shared" si="97"/>
         <v>2068</v>
       </c>
-      <c r="L2069" s="54">
+      <c r="L2069" s="39">
         <f t="shared" si="98"/>
         <v>50</v>
       </c>
-      <c r="M2069" s="54">
+      <c r="M2069" s="39">
         <f t="shared" si="99"/>
         <v>100</v>
       </c>
-      <c r="N2069" s="55" t="s">
+      <c r="N2069" s="37" t="s">
         <v>954</v>
       </c>
-      <c r="O2069" s="61"/>
-      <c r="P2069" s="62"/>
-      <c r="Q2069" s="62"/>
-      <c r="R2069" s="62"/>
-      <c r="S2069" s="62"/>
-      <c r="T2069" s="62"/>
-      <c r="U2069" s="62"/>
       <c r="V2069" s="37"/>
     </row>
     <row r="2070" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73320,9 +73305,6 @@
       </c>
       <c r="P2134" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="S2134" s="1">
-        <v>35.32</v>
       </c>
       <c r="V2134" s="37" t="s">
         <v>1496</v>

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A49B4-3CD4-4B8E-9C14-5737FD2F5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BF724-F18C-4431-8664-7A73952AB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6487" uniqueCount="1523">
   <si>
     <t>Passage</t>
   </si>
@@ -2868,9 +2868,6 @@
     <t>paq~jcaqmI</t>
   </si>
   <si>
-    <t>trici#tIkaqm</t>
-  </si>
-  <si>
     <t>ciqnvIqta</t>
   </si>
   <si>
@@ -3012,9 +3009,6 @@
     <t>pRuSha#tI</t>
   </si>
   <si>
-    <t>kShuqdrapRu#ShaqtI</t>
-  </si>
-  <si>
     <t>vaiqSvaqdeqvya#H</t>
   </si>
   <si>
@@ -4597,6 +4591,12 @@
   </si>
   <si>
     <t>aqrddhaqmAqsasyetya#rddha - mAqsasya#</t>
+  </si>
+  <si>
+    <t>trici#tIkam</t>
+  </si>
+  <si>
+    <t>kShuqdrapRu#ShatI</t>
   </si>
 </sst>
 </file>
@@ -4799,7 +4799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4955,6 +4955,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5238,10 +5241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1366" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1377" sqref="V1377"/>
+      <selection pane="bottomLeft" activeCell="U177" sqref="U177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5818,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="36" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6101,7 +6104,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="36" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6304,7 +6307,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="36" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6536,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -6548,7 +6551,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6792,7 +6795,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="36" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6835,10 +6838,10 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V27" s="36" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6870,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -6882,7 +6885,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="36" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6926,7 +6929,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="36" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7278,7 +7281,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="9" t="s">
@@ -7290,7 +7293,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7566,8 +7569,8 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="9" t="s">
-        <v>1508</v>
+      <c r="U45" s="54" t="s">
+        <v>1499</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7612,7 +7615,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="36" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7644,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="9" t="s">
@@ -7656,7 +7659,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="36" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8083,7 +8086,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
@@ -8095,7 +8098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8533,7 +8536,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8620,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8668,11 +8671,11 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
-      <c r="U72" s="9" t="s">
-        <v>1501</v>
+      <c r="U72" s="54" t="s">
+        <v>1506</v>
       </c>
       <c r="V72" s="36" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8982,7 +8985,7 @@
         <v>79</v>
       </c>
       <c r="N80" s="36" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="9" t="s">
@@ -8994,7 +8997,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9115,7 +9118,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="36" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9226,7 +9229,7 @@
         <v>85</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="9" t="s">
@@ -9238,7 +9241,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9592,7 +9595,7 @@
         <v>94</v>
       </c>
       <c r="N95" s="36" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="9" t="s">
@@ -9604,7 +9607,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9680,7 +9683,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="36" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="98" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9816,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="N101" s="36" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>74</v>
@@ -9830,7 +9833,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10130,7 +10133,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10159,7 +10162,7 @@
         <v>109</v>
       </c>
       <c r="N110" s="36" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="9" t="s">
@@ -10171,7 +10174,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10211,7 +10214,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="36" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="112" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10361,7 +10364,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="9" t="s">
@@ -10373,7 +10376,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10494,7 +10497,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="36" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="119" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10728,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="9" t="s">
@@ -10740,7 +10743,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10852,7 +10855,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10956,7 +10959,7 @@
         <v>129</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="O130" s="6" t="s">
         <v>74</v>
@@ -10970,7 +10973,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11217,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="9" t="s">
@@ -11229,7 +11232,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11485,7 +11488,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="36" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11633,7 +11636,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11747,7 +11750,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="36" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="152" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11788,10 +11791,10 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V152" s="36" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="153" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11914,7 +11917,7 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="36" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="156" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12023,7 +12026,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="9" t="s">
@@ -12035,7 +12038,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12533,7 +12536,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12642,7 +12645,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12721,7 +12724,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="36" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="177" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12759,9 +12762,7 @@
       <c r="R177" s="6"/>
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
-      <c r="U177" s="6" t="s">
-        <v>1502</v>
-      </c>
+      <c r="U177" s="6"/>
       <c r="V177" s="36"/>
     </row>
     <row r="178" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12839,7 +12840,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12963,10 +12964,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="T182" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13015,7 +13016,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="36" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="184" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13155,7 +13156,7 @@
         <v>186</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="O187" s="5"/>
       <c r="P187" s="9" t="s">
@@ -13167,7 +13168,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13267,7 +13268,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="O190" s="5"/>
       <c r="P190" s="9" t="s">
@@ -13279,7 +13280,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13391,7 +13392,7 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="36" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13575,7 +13576,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13676,7 +13677,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="O201" s="5"/>
       <c r="P201" s="9" t="s">
@@ -13688,7 +13689,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13939,7 +13940,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O208" s="5"/>
       <c r="P208" s="9" t="s">
@@ -13951,7 +13952,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14105,7 +14106,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="36" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14214,7 +14215,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14401,7 +14402,7 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="221" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14477,7 +14478,7 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="36" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="223" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14519,7 +14520,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14719,7 +14720,7 @@
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="230" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14921,7 +14922,7 @@
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="236" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14958,7 +14959,7 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="237" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14995,7 +14996,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="36" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15167,7 +15168,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="243" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15440,7 +15441,7 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="36" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="251" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15576,7 +15577,7 @@
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="36" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15966,7 +15967,7 @@
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="266" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16004,7 +16005,7 @@
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="267" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16382,7 +16383,7 @@
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="278" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16422,7 +16423,7 @@
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="36" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="279" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16842,7 +16843,7 @@
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="291" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17317,7 +17318,7 @@
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
       <c r="V304" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="305" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17354,7 +17355,7 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="37" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17491,7 +17492,7 @@
       <c r="T309" s="6"/>
       <c r="U309" s="6"/>
       <c r="V309" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="310" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17858,7 +17859,7 @@
       <c r="T320" s="6"/>
       <c r="U320" s="6"/>
       <c r="V320" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17895,7 +17896,7 @@
       <c r="T321" s="6"/>
       <c r="U321" s="6"/>
       <c r="V321" s="36" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18296,7 +18297,7 @@
       <c r="T333" s="6"/>
       <c r="U333" s="6"/>
       <c r="V333" s="36" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="334" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18634,7 +18635,7 @@
       <c r="T343" s="6"/>
       <c r="U343" s="6"/>
       <c r="V343" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="344" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18836,7 +18837,7 @@
       <c r="T349" s="6"/>
       <c r="U349" s="6"/>
       <c r="V349" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19311,7 +19312,7 @@
       <c r="T363" s="6"/>
       <c r="U363" s="6"/>
       <c r="V363" s="36" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19385,7 +19386,7 @@
       <c r="T365" s="6"/>
       <c r="U365" s="6"/>
       <c r="V365" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="366" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19423,7 +19424,7 @@
       <c r="T366" s="6"/>
       <c r="U366" s="6"/>
       <c r="V366" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="367" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19597,7 +19598,7 @@
       <c r="T371" s="6"/>
       <c r="U371" s="6"/>
       <c r="V371" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20054,7 +20055,7 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
       <c r="V384" s="36" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="385" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20223,7 +20224,7 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
       <c r="V389" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="390" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20658,7 +20659,7 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
       <c r="V402" s="36" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20761,7 +20762,7 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
       <c r="V405" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="406" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21128,7 +21129,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="417" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21529,7 +21530,7 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
       <c r="V428" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21632,7 +21633,7 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
       <c r="V431" s="36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21769,7 +21770,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="36" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="436" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21974,7 +21975,7 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
       <c r="V441" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="442" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22176,7 +22177,7 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
       <c r="V447" s="36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="448" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22312,7 +22313,7 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
       <c r="V451" s="36" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="452" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22750,7 +22751,7 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
       <c r="V464" s="36" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="465" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23024,7 +23025,7 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
       <c r="V472" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="473" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23061,7 +23062,7 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
       <c r="V473" s="36" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="474" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24072,7 +24073,7 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
       <c r="V503" s="36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="504" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24142,7 +24143,7 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
       <c r="V505" s="36" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="506" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24311,7 +24312,7 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
       <c r="V510" s="36" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="511" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24435,7 +24436,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24447,7 +24448,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
       <c r="V514" s="36" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="515" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24651,7 +24652,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24686,7 +24687,7 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
       <c r="V521" s="36" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="522" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24791,7 +24792,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="36" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="525" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24927,7 +24928,7 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
       <c r="V528" s="36" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="529" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25263,7 +25264,7 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
       <c r="V538" s="36" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="539" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25531,7 +25532,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="36" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25601,7 +25602,7 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
       <c r="V548" s="36" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="549" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25671,7 +25672,7 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
       <c r="V550" s="36" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="551" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25774,7 +25775,7 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
       <c r="V553" s="36" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="554" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26046,7 +26047,7 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
       <c r="V561" s="36" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="562" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26678,7 +26679,7 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
       <c r="V580" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="581" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26715,7 +26716,7 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
       <c r="V581" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="582" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26752,7 +26753,7 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
       <c r="V582" s="36" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26921,7 +26922,7 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
       <c r="V587" s="36" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27024,7 +27025,7 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
       <c r="V590" s="36" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="591" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27268,7 +27269,7 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
       <c r="V597" s="36" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="598" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27386,7 +27387,7 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
       <c r="V600" s="36" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="601" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27423,7 +27424,7 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
       <c r="V601" s="36" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="602" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28085,7 +28086,7 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
       <c r="V620" s="36" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28220,7 +28221,7 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
       <c r="V624" s="36" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="625" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28344,7 +28345,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28356,7 +28357,7 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
       <c r="V628" s="36" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="629" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28907,7 +28908,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -28919,7 +28920,7 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
       <c r="V644" s="36" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="645" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29457,7 +29458,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -29469,7 +29470,7 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="36" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29862,7 +29863,7 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
       <c r="V672" s="36" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="673" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30302,7 +30303,7 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
       <c r="V686" s="36" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="687" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30430,7 +30431,7 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
       <c r="V690" s="36" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="691" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30527,7 +30528,7 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
       <c r="V693" s="36" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="694" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31248,7 +31249,7 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
       <c r="V716" s="36" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="717" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31285,7 +31286,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31318,7 +31319,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31351,7 +31352,7 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
       <c r="V719" s="36" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="720" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31417,7 +31418,7 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
       <c r="V721" s="36" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31452,7 +31453,7 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
       <c r="V722" s="36" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="723" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31549,7 +31550,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="36" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31646,7 +31647,7 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
       <c r="V728" s="36" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="729" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31714,7 +31715,7 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
       <c r="V730" s="36" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="731" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31750,7 +31751,7 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
       <c r="V731" s="36" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="732" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31943,7 +31944,7 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
       <c r="V737" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="738" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32226,7 +32227,7 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
       <c r="V746" s="36" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="747" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32292,7 +32293,7 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
       <c r="V748" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="749" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32513,7 +32514,7 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
       <c r="V755" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="756" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32549,7 +32550,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -32685,7 +32686,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="36" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32881,7 +32882,7 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
       <c r="V766" s="36" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="767" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33367,7 +33368,7 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
       <c r="V781" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="782" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33650,7 +33651,7 @@
       <c r="S790" s="6"/>
       <c r="T790" s="6"/>
       <c r="V790" s="36" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="791" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33778,7 +33779,7 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
       <c r="V794" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34379,7 +34380,7 @@
       <c r="T813" s="6"/>
       <c r="U813" s="6"/>
       <c r="V813" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="814" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34414,7 +34415,7 @@
       <c r="T814" s="6"/>
       <c r="U814" s="6"/>
       <c r="V814" s="36" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="815" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34572,7 +34573,7 @@
       <c r="T819" s="6"/>
       <c r="U819" s="6"/>
       <c r="V819" s="36" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="820" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35233,7 +35234,7 @@
       <c r="T840" s="6"/>
       <c r="U840" s="6"/>
       <c r="V840" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35521,7 +35522,7 @@
       <c r="T849" s="6"/>
       <c r="U849" s="6"/>
       <c r="V849" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="850" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35835,7 +35836,7 @@
       <c r="T859" s="6"/>
       <c r="U859" s="6"/>
       <c r="V859" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="860" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36087,7 +36088,7 @@
       <c r="T867" s="6"/>
       <c r="U867" s="6"/>
       <c r="V867" s="36" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="868" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36122,7 +36123,7 @@
       <c r="T868" s="6"/>
       <c r="U868" s="6"/>
       <c r="V868" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="869" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36187,7 +36188,7 @@
       <c r="T870" s="6"/>
       <c r="U870" s="6"/>
       <c r="V870" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="871" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36440,7 +36441,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36754,7 +36755,7 @@
       <c r="T888" s="6"/>
       <c r="U888" s="6"/>
       <c r="V888" s="36" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="889" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37166,7 +37167,7 @@
       <c r="T901" s="6"/>
       <c r="U901" s="6"/>
       <c r="V901" s="36" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="902" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37774,7 +37775,7 @@
       <c r="S920" s="6"/>
       <c r="T920" s="6"/>
       <c r="U920" s="6" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="V920" s="36"/>
     </row>
@@ -38683,7 +38684,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38704,7 +38705,7 @@
         <v>232</v>
       </c>
       <c r="N950" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="O950" s="5"/>
       <c r="P950" s="9" t="s">
@@ -38716,7 +38717,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38749,7 +38750,7 @@
       <c r="T951" s="6"/>
       <c r="U951" s="6"/>
       <c r="V951" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="952" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38877,7 +38878,7 @@
       <c r="T955" s="6"/>
       <c r="U955" s="6"/>
       <c r="V955" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="956" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38943,7 +38944,7 @@
       <c r="T957" s="6"/>
       <c r="U957" s="6"/>
       <c r="V957" s="36" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="958" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38978,7 +38979,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -39077,7 +39078,7 @@
       <c r="T961" s="6"/>
       <c r="U961" s="6"/>
       <c r="V961" s="36" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39112,7 +39113,7 @@
       <c r="T962" s="6"/>
       <c r="U962" s="6"/>
       <c r="V962" s="36" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39147,7 +39148,7 @@
       <c r="T963" s="6"/>
       <c r="U963" s="6"/>
       <c r="V963" s="36" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="964" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39275,7 +39276,7 @@
       <c r="T967" s="6"/>
       <c r="U967" s="6"/>
       <c r="V967" s="36" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="968" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39341,7 +39342,7 @@
       <c r="T969" s="6"/>
       <c r="U969" s="6"/>
       <c r="V969" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39376,7 +39377,7 @@
       <c r="T970" s="6"/>
       <c r="U970" s="6"/>
       <c r="V970" s="36" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="971" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39473,7 +39474,7 @@
       <c r="T973" s="6"/>
       <c r="U973" s="6"/>
       <c r="V973" s="36" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="974" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39539,7 +39540,7 @@
       <c r="T975" s="6"/>
       <c r="U975" s="6"/>
       <c r="V975" s="36" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="976" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39671,7 +39672,7 @@
       <c r="T979" s="6"/>
       <c r="U979" s="6"/>
       <c r="V979" s="36" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="980" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39706,7 +39707,7 @@
       <c r="T980" s="6"/>
       <c r="U980" s="6"/>
       <c r="V980" s="36" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="981" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39932,7 +39933,7 @@
       <c r="T987" s="6"/>
       <c r="U987" s="6"/>
       <c r="V987" s="36" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="988" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39998,7 +39999,7 @@
       <c r="T989" s="6"/>
       <c r="U989" s="6"/>
       <c r="V989" s="36" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="990" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40440,7 +40441,7 @@
       <c r="T1003" s="6"/>
       <c r="U1003" s="6"/>
       <c r="V1003" s="36" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1004" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40511,7 +40512,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="36" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40577,7 +40578,7 @@
       <c r="T1007" s="6"/>
       <c r="U1007" s="6"/>
       <c r="V1007" s="36" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40647,7 +40648,7 @@
       <c r="T1009" s="6"/>
       <c r="U1009" s="6"/>
       <c r="V1009" s="36" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1010" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40683,7 +40684,7 @@
       <c r="T1010" s="6"/>
       <c r="U1010" s="6"/>
       <c r="V1010" s="36" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1011" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41326,7 +41327,7 @@
       <c r="T1030" s="6"/>
       <c r="U1030" s="6"/>
       <c r="V1030" s="36" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41675,7 +41676,7 @@
       <c r="T1041" s="6"/>
       <c r="U1041" s="6"/>
       <c r="V1041" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41710,7 +41711,7 @@
       <c r="T1042" s="6"/>
       <c r="U1042" s="6"/>
       <c r="V1042" s="36" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1043" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41776,7 +41777,7 @@
       <c r="T1044" s="6"/>
       <c r="U1044" s="6"/>
       <c r="V1044" s="36" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41842,7 +41843,7 @@
       <c r="T1046" s="6"/>
       <c r="U1046" s="6"/>
       <c r="V1046" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1047" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42155,7 +42156,7 @@
       <c r="T1056" s="6"/>
       <c r="U1056" s="6"/>
       <c r="V1056" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1057" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42438,7 +42439,7 @@
       <c r="T1065" s="6"/>
       <c r="U1065" s="6"/>
       <c r="V1065" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1066" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42796,7 +42797,7 @@
       </c>
       <c r="U1076" s="6"/>
       <c r="V1076" s="36" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1077" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42865,7 +42866,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="36" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42963,7 +42964,7 @@
       <c r="T1081" s="6"/>
       <c r="U1081" s="6"/>
       <c r="V1081" s="36" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1082" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42999,7 +43000,7 @@
       <c r="T1082" s="6"/>
       <c r="U1082" s="6"/>
       <c r="V1082" s="36" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1083" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43163,7 +43164,7 @@
       <c r="T1087" s="6"/>
       <c r="U1087" s="6"/>
       <c r="V1087" s="36" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1088" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43295,7 +43296,7 @@
       <c r="T1091" s="6"/>
       <c r="U1091" s="6"/>
       <c r="V1091" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1092" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43331,7 +43332,7 @@
       <c r="T1092" s="6"/>
       <c r="U1092" s="6"/>
       <c r="V1092" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1093" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43684,7 +43685,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43718,7 +43719,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43752,7 +43753,7 @@
       <c r="T1105" s="6"/>
       <c r="U1105" s="6"/>
       <c r="V1105" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1106" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43882,7 +43883,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="36" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44198,7 +44199,7 @@
       <c r="T1119" s="6"/>
       <c r="U1119" s="6"/>
       <c r="V1119" s="36" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1120" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44446,7 +44447,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="36" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1127" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44700,7 +44701,7 @@
       <c r="T1134" s="6"/>
       <c r="U1134" s="6"/>
       <c r="V1134" s="36" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1135" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44736,7 +44737,7 @@
       <c r="T1135" s="6"/>
       <c r="U1135" s="6"/>
       <c r="V1135" s="36" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1136" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44868,7 +44869,7 @@
       <c r="T1139" s="6"/>
       <c r="U1139" s="6"/>
       <c r="V1139" s="36" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45154,7 +45155,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="36" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1149" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45515,7 +45516,7 @@
       <c r="T1158" s="6"/>
       <c r="U1158" s="6"/>
       <c r="V1158" s="36" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1159" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45950,7 +45951,7 @@
       <c r="T1171" s="6"/>
       <c r="U1171" s="6"/>
       <c r="V1171" s="36" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1172" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46047,7 +46048,7 @@
       <c r="T1174" s="6"/>
       <c r="U1174" s="6"/>
       <c r="V1174" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1175" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46178,7 +46179,7 @@
       <c r="T1178" s="6"/>
       <c r="U1178" s="6"/>
       <c r="V1178" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1179" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46250,7 +46251,7 @@
       <c r="T1180" s="6"/>
       <c r="U1180" s="6"/>
       <c r="V1180" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46356,7 +46357,7 @@
       <c r="T1183" s="6"/>
       <c r="U1183" s="6"/>
       <c r="V1183" s="36" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1184" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46391,7 +46392,7 @@
       <c r="T1184" s="6"/>
       <c r="U1184" s="6"/>
       <c r="V1184" s="36" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1185" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46583,7 +46584,7 @@
       <c r="T1190" s="6"/>
       <c r="U1190" s="6"/>
       <c r="V1190" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46606,7 +46607,7 @@
         <v>87</v>
       </c>
       <c r="N1191" s="36" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O1191" s="6" t="s">
         <v>74</v>
@@ -46618,7 +46619,7 @@
       <c r="T1191" s="6"/>
       <c r="U1191" s="6"/>
       <c r="V1191" s="36" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1192" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46748,7 +46749,7 @@
       <c r="T1195" s="6"/>
       <c r="U1195" s="6"/>
       <c r="V1195" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1196" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47061,7 +47062,7 @@
       <c r="T1205" s="6"/>
       <c r="U1205" s="6"/>
       <c r="V1205" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47208,7 +47209,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47548,7 +47549,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="36" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47647,10 +47648,10 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V1223" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47842,7 +47843,7 @@
       <c r="T1229" s="6"/>
       <c r="U1229" s="6"/>
       <c r="V1229" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1230" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47973,7 +47974,7 @@
       <c r="T1233" s="6"/>
       <c r="U1233" s="6"/>
       <c r="V1233" s="36" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48658,7 +48659,7 @@
       <c r="T1255" s="6"/>
       <c r="U1255" s="6"/>
       <c r="V1255" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1256" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48819,7 +48820,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -49229,7 +49230,7 @@
       <c r="T1273" s="6"/>
       <c r="U1273" s="6"/>
       <c r="V1273" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50512,7 +50513,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50546,7 +50547,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50708,7 +50709,7 @@
       <c r="T1319" s="6"/>
       <c r="U1319" s="6"/>
       <c r="V1319" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50905,7 +50906,7 @@
       <c r="T1325" s="6"/>
       <c r="U1325" s="6"/>
       <c r="V1325" s="36" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50942,7 +50943,7 @@
       <c r="T1326" s="6"/>
       <c r="U1326" s="6"/>
       <c r="V1326" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50979,7 +50980,7 @@
       <c r="T1327" s="6"/>
       <c r="U1327" s="6"/>
       <c r="V1327" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51278,7 +51279,7 @@
       <c r="T1336" s="6"/>
       <c r="U1336" s="6"/>
       <c r="V1336" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51314,7 +51315,7 @@
       <c r="T1337" s="6"/>
       <c r="U1337" s="6"/>
       <c r="V1337" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1338" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51350,7 +51351,7 @@
       <c r="T1338" s="6"/>
       <c r="U1338" s="6"/>
       <c r="V1338" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1339" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51386,7 +51387,7 @@
       <c r="T1339" s="6"/>
       <c r="U1339" s="6"/>
       <c r="V1339" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51582,7 +51583,7 @@
       <c r="T1345" s="6"/>
       <c r="U1345" s="6"/>
       <c r="V1345" s="36" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51618,7 +51619,7 @@
       <c r="T1346" s="6"/>
       <c r="U1346" s="6"/>
       <c r="V1346" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1347" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51654,7 +51655,7 @@
       <c r="T1347" s="6"/>
       <c r="U1347" s="6"/>
       <c r="V1347" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51918,7 +51919,7 @@
       <c r="T1355" s="6"/>
       <c r="U1355" s="6"/>
       <c r="V1355" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1356" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51954,7 +51955,7 @@
       <c r="T1356" s="6"/>
       <c r="U1356" s="6"/>
       <c r="V1356" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51990,7 +51991,7 @@
       <c r="T1357" s="6"/>
       <c r="U1357" s="6"/>
       <c r="V1357" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1358" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52027,7 +52028,7 @@
       <c r="T1358" s="6"/>
       <c r="U1358" s="6"/>
       <c r="V1358" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1359" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52097,7 +52098,7 @@
       <c r="T1360" s="6"/>
       <c r="U1360" s="6"/>
       <c r="V1360" s="36" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52231,7 +52232,7 @@
       <c r="T1364" s="6"/>
       <c r="U1364" s="6"/>
       <c r="V1364" s="36" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52302,7 +52303,7 @@
       <c r="T1366" s="6"/>
       <c r="U1366" s="6"/>
       <c r="V1366" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52338,7 +52339,7 @@
       <c r="T1367" s="6"/>
       <c r="U1367" s="6"/>
       <c r="V1367" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1368" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52375,7 +52376,7 @@
       <c r="T1368" s="6"/>
       <c r="U1368" s="6"/>
       <c r="V1368" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52413,7 +52414,7 @@
       <c r="T1369" s="6"/>
       <c r="U1369" s="6"/>
       <c r="V1369" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1370" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52483,7 +52484,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="36" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52617,7 +52618,7 @@
       <c r="T1375" s="6"/>
       <c r="U1375" s="6"/>
       <c r="V1375" s="36" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52685,7 +52686,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52754,7 +52755,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="36" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52791,7 +52792,7 @@
       <c r="T1380" s="6"/>
       <c r="U1380" s="6"/>
       <c r="V1380" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52861,7 +52862,7 @@
       <c r="T1382" s="6"/>
       <c r="U1382" s="6"/>
       <c r="V1382" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1383" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52898,7 +52899,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52934,7 +52935,7 @@
       <c r="T1384" s="6"/>
       <c r="U1384" s="6"/>
       <c r="V1384" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1385" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53002,7 +53003,7 @@
       <c r="T1386" s="6"/>
       <c r="U1386" s="6"/>
       <c r="V1386" s="36" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1387" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53298,7 +53299,7 @@
       <c r="T1395" s="6"/>
       <c r="U1395" s="6"/>
       <c r="V1395" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1396" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53334,7 +53335,7 @@
       <c r="T1396" s="6"/>
       <c r="U1396" s="6"/>
       <c r="V1396" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1397" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53370,7 +53371,7 @@
       <c r="T1397" s="6"/>
       <c r="U1397" s="6"/>
       <c r="V1397" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53406,7 +53407,7 @@
       <c r="T1398" s="6"/>
       <c r="U1398" s="6"/>
       <c r="V1398" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53474,7 +53475,7 @@
       <c r="T1400" s="6"/>
       <c r="U1400" s="6"/>
       <c r="V1400" s="36" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1401" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53609,7 +53610,7 @@
       <c r="T1404" s="6"/>
       <c r="U1404" s="6"/>
       <c r="V1404" s="36" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53646,7 +53647,7 @@
       <c r="T1405" s="6"/>
       <c r="U1405" s="6"/>
       <c r="V1405" s="36" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53687,7 +53688,7 @@
       <c r="T1406" s="6"/>
       <c r="U1406" s="6"/>
       <c r="V1406" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53724,7 +53725,7 @@
       <c r="T1407" s="6"/>
       <c r="U1407" s="6"/>
       <c r="V1407" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1408" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53760,7 +53761,7 @@
       <c r="T1408" s="6"/>
       <c r="U1408" s="6"/>
       <c r="V1408" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53796,7 +53797,7 @@
       <c r="T1409" s="6"/>
       <c r="U1409" s="6"/>
       <c r="V1409" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1410" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53991,7 +53992,7 @@
       <c r="T1415" s="6"/>
       <c r="U1415" s="6"/>
       <c r="V1415" s="36" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54027,7 +54028,7 @@
       <c r="T1416" s="6"/>
       <c r="U1416" s="6"/>
       <c r="V1416" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54063,7 +54064,7 @@
       <c r="T1417" s="6"/>
       <c r="U1417" s="6"/>
       <c r="V1417" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54327,7 +54328,7 @@
       <c r="T1425" s="6"/>
       <c r="U1425" s="6"/>
       <c r="V1425" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54363,7 +54364,7 @@
       <c r="T1426" s="6"/>
       <c r="U1426" s="6"/>
       <c r="V1426" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54399,7 +54400,7 @@
       <c r="T1427" s="6"/>
       <c r="U1427" s="6"/>
       <c r="V1427" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1428" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54435,7 +54436,7 @@
       <c r="T1428" s="6"/>
       <c r="U1428" s="6"/>
       <c r="V1428" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1429" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55639,7 +55640,7 @@
       <c r="T1465" s="6"/>
       <c r="U1465" s="6"/>
       <c r="V1465" s="36" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56035,7 +56036,7 @@
       <c r="T1477" s="6"/>
       <c r="U1477" s="6"/>
       <c r="V1477" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1478" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56072,7 +56073,7 @@
       <c r="T1478" s="6"/>
       <c r="U1478" s="6"/>
       <c r="V1478" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56206,7 +56207,7 @@
       <c r="T1482" s="6"/>
       <c r="U1482" s="6"/>
       <c r="V1482" s="36" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56274,7 +56275,7 @@
       <c r="S1484" s="6"/>
       <c r="T1484" s="6"/>
       <c r="V1484" s="36" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56374,7 +56375,7 @@
       <c r="T1487" s="6"/>
       <c r="U1487" s="6"/>
       <c r="V1487" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1488" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56410,7 +56411,7 @@
       <c r="T1488" s="6"/>
       <c r="U1488" s="6"/>
       <c r="V1488" s="36" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56530,7 +56531,7 @@
         <v>178</v>
       </c>
       <c r="N1492" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="O1492" s="5"/>
       <c r="P1492" s="9" t="s">
@@ -56542,7 +56543,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56576,7 +56577,7 @@
       <c r="T1493" s="6"/>
       <c r="U1493" s="6"/>
       <c r="V1493" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56901,7 +56902,7 @@
       <c r="T1503" s="6"/>
       <c r="U1503" s="6"/>
       <c r="V1503" s="36" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56937,7 +56938,7 @@
       <c r="T1504" s="6"/>
       <c r="U1504" s="6"/>
       <c r="V1504" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57170,7 +57171,7 @@
       <c r="T1511" s="6"/>
       <c r="U1511" s="6"/>
       <c r="V1511" s="36" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1512" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57416,7 +57417,7 @@
       <c r="T1518" s="6"/>
       <c r="U1518" s="6"/>
       <c r="V1518" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57881,7 +57882,7 @@
       <c r="T1532" s="6"/>
       <c r="U1532" s="6"/>
       <c r="V1532" s="36" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58009,7 +58010,7 @@
       <c r="T1536" s="6"/>
       <c r="U1536" s="6"/>
       <c r="V1536" s="36" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1537" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58044,7 +58045,7 @@
       <c r="T1537" s="6"/>
       <c r="U1537" s="6"/>
       <c r="V1537" s="36" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1538" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58110,7 +58111,7 @@
       <c r="T1539" s="6"/>
       <c r="U1539" s="6"/>
       <c r="V1539" s="36" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1540" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58176,7 +58177,7 @@
       <c r="T1541" s="6"/>
       <c r="U1541" s="6"/>
       <c r="V1541" s="36" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1542" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58272,7 +58273,7 @@
       <c r="T1544" s="6"/>
       <c r="U1544" s="6"/>
       <c r="V1544" s="36" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1545" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58464,7 +58465,7 @@
       <c r="T1550" s="6"/>
       <c r="U1550" s="6"/>
       <c r="V1550" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1551" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58530,7 +58531,7 @@
       <c r="T1552" s="6"/>
       <c r="U1552" s="6"/>
       <c r="V1552" s="36" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58658,7 +58659,7 @@
       <c r="T1556" s="6"/>
       <c r="U1556" s="6"/>
       <c r="V1556" s="36" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1557" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58881,7 +58882,7 @@
       <c r="T1563" s="6"/>
       <c r="U1563" s="6"/>
       <c r="V1563" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1564" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59072,7 +59073,7 @@
       <c r="T1569" s="6"/>
       <c r="U1569" s="6"/>
       <c r="V1569" s="36" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1570" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59357,7 +59358,7 @@
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
       <c r="V1578" s="36" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59465,7 +59466,7 @@
         <v>74</v>
       </c>
       <c r="V1582" s="36" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59647,7 +59648,7 @@
         <v>74</v>
       </c>
       <c r="V1589" s="36" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59747,7 +59748,7 @@
         <v>74</v>
       </c>
       <c r="V1593" s="36" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1594" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59971,7 +59972,7 @@
         <v>74</v>
       </c>
       <c r="V1602" s="36" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1603" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60168,7 +60169,7 @@
         <v>74</v>
       </c>
       <c r="V1610" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1611" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60197,7 +60198,7 @@
         <v>74</v>
       </c>
       <c r="V1611" s="36" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1612" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60370,7 +60371,7 @@
         <v>74</v>
       </c>
       <c r="V1618" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1619" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60399,7 +60400,7 @@
         <v>74</v>
       </c>
       <c r="V1619" s="36" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60596,7 +60597,7 @@
         <v>74</v>
       </c>
       <c r="V1627" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1628" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61428,7 +61429,7 @@
         <v>74</v>
       </c>
       <c r="V1661" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1662" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61532,7 +61533,7 @@
         <v>76</v>
       </c>
       <c r="V1665" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1666" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61612,7 +61613,7 @@
         <v>74</v>
       </c>
       <c r="V1668" s="36" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1669" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61725,7 +61726,7 @@
         <v>74</v>
       </c>
       <c r="V1672" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1673" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61808,7 +61809,7 @@
         <v>74</v>
       </c>
       <c r="V1675" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1676" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61837,7 +61838,7 @@
         <v>74</v>
       </c>
       <c r="V1676" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1677" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61866,7 +61867,7 @@
         <v>76</v>
       </c>
       <c r="V1677" s="36" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1678" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62281,7 +62282,7 @@
         <v>76</v>
       </c>
       <c r="V1694" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62310,7 +62311,7 @@
         <v>74</v>
       </c>
       <c r="V1695" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1696" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62339,7 +62340,7 @@
         <v>74</v>
       </c>
       <c r="V1696" s="36" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62443,7 +62444,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -62572,7 +62573,7 @@
         <v>74</v>
       </c>
       <c r="V1705" s="36" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1706" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62673,7 +62674,7 @@
         <v>74</v>
       </c>
       <c r="V1709" s="36" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1710" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62966,7 +62967,7 @@
         <v>74</v>
       </c>
       <c r="V1721" s="36" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1722" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63163,7 +63164,7 @@
         <v>74</v>
       </c>
       <c r="V1729" s="36" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1730" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63722,7 +63723,7 @@
         <v>76</v>
       </c>
       <c r="V1752" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63751,7 +63752,7 @@
         <v>74</v>
       </c>
       <c r="V1753" s="36" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1754" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63828,7 +63829,7 @@
         <v>74</v>
       </c>
       <c r="V1756" s="36" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63857,7 +63858,7 @@
         <v>74</v>
       </c>
       <c r="V1757" s="36" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1758" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63886,7 +63887,7 @@
         <v>74</v>
       </c>
       <c r="V1758" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64131,7 +64132,7 @@
         <v>78</v>
       </c>
       <c r="V1768" s="36" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64400,7 +64401,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64502,7 +64503,7 @@
         <v>74</v>
       </c>
       <c r="V1783" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1784" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64603,7 +64604,7 @@
         <v>74</v>
       </c>
       <c r="V1787" s="36" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1788" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64896,13 +64897,13 @@
         <v>307</v>
       </c>
       <c r="N1799" s="36" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="P1799" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65193,7 +65194,7 @@
         <v>74</v>
       </c>
       <c r="V1811" s="36" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65246,7 +65247,7 @@
         <v>76</v>
       </c>
       <c r="V1813" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1814" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65323,7 +65324,7 @@
         <v>74</v>
       </c>
       <c r="V1816" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1817" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65520,7 +65521,7 @@
         <v>74</v>
       </c>
       <c r="V1824" s="36" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65549,7 +65550,7 @@
         <v>76</v>
       </c>
       <c r="V1825" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1826" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65914,7 +65915,7 @@
         <v>74</v>
       </c>
       <c r="V1840" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1841" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65994,7 +65995,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -66048,7 +66049,7 @@
         <v>74</v>
       </c>
       <c r="V1845" s="36" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1846" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66125,7 +66126,7 @@
         <v>74</v>
       </c>
       <c r="V1848" s="36" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1849" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66441,7 +66442,7 @@
         <v>74</v>
       </c>
       <c r="V1861" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1862" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66758,7 +66759,7 @@
         <v>74</v>
       </c>
       <c r="V1874" s="36" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1875" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66958,7 +66959,7 @@
         <v>74</v>
       </c>
       <c r="V1882" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1883" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67155,7 +67156,7 @@
         <v>74</v>
       </c>
       <c r="V1890" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1891" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67304,7 +67305,7 @@
         <v>74</v>
       </c>
       <c r="V1896" s="36" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1897" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67357,7 +67358,7 @@
         <v>74</v>
       </c>
       <c r="V1898" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1899" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67409,7 +67410,7 @@
         <v>74</v>
       </c>
       <c r="V1900" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67438,7 +67439,7 @@
         <v>74</v>
       </c>
       <c r="V1901" s="36" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67515,7 +67516,7 @@
         <v>74</v>
       </c>
       <c r="V1904" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67616,7 +67617,7 @@
         <v>74</v>
       </c>
       <c r="V1908" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1909" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67768,7 +67769,7 @@
         <v>74</v>
       </c>
       <c r="V1914" s="36" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1915" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67797,7 +67798,7 @@
         <v>74</v>
       </c>
       <c r="V1915" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68165,7 +68166,7 @@
         <v>74</v>
       </c>
       <c r="V1930" s="36" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1931" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68194,7 +68195,7 @@
         <v>74</v>
       </c>
       <c r="V1931" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1932" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68370,7 +68371,7 @@
         <v>74</v>
       </c>
       <c r="V1938" s="36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1939" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69149,7 +69150,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69176,7 +69177,7 @@
         <v>74</v>
       </c>
       <c r="V1970" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1971" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69253,7 +69254,7 @@
         <v>74</v>
       </c>
       <c r="V1973" s="36" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1974" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69282,7 +69283,7 @@
         <v>74</v>
       </c>
       <c r="V1974" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1975" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69383,7 +69384,7 @@
         <v>74</v>
       </c>
       <c r="V1978" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1979" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69580,7 +69581,7 @@
         <v>74</v>
       </c>
       <c r="V1986" s="36" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1987" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69777,7 +69778,7 @@
         <v>74</v>
       </c>
       <c r="V1994" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1995" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69902,7 +69903,7 @@
         <v>74</v>
       </c>
       <c r="V1999" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2000" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69979,7 +69980,7 @@
         <v>74</v>
       </c>
       <c r="V2002" s="36" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70200,7 +70201,7 @@
         <v>74</v>
       </c>
       <c r="V2011" s="36" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2012" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70301,7 +70302,7 @@
         <v>76</v>
       </c>
       <c r="V2015" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="2016" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71124,7 +71125,7 @@
         <v>74</v>
       </c>
       <c r="V2049" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2050" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,14 +71195,14 @@
         <f t="shared" ref="M2052:M2115" si="99">+M2051+1</f>
         <v>83</v>
       </c>
-      <c r="N2052" s="36" t="s">
-        <v>946</v>
+      <c r="N2052" s="37" t="s">
+        <v>1521</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2052" s="36" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2053" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71224,7 +71225,7 @@
         <v>84</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V2053" s="36"/>
     </row>
@@ -71272,7 +71273,7 @@
         <v>86</v>
       </c>
       <c r="N2055" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="V2055" s="36"/>
     </row>
@@ -71320,13 +71321,13 @@
         <v>88</v>
       </c>
       <c r="N2057" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O2057" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2057" s="36" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71349,7 +71350,7 @@
         <v>89</v>
       </c>
       <c r="N2058" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="S2058" s="6" t="s">
         <v>90</v>
@@ -71427,13 +71428,13 @@
         <v>92</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O2061" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2061" s="36" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2062" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71456,7 +71457,7 @@
         <v>93</v>
       </c>
       <c r="N2062" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V2062" s="36"/>
     </row>
@@ -71624,7 +71625,7 @@
         <v>100</v>
       </c>
       <c r="N2069" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V2069" s="36"/>
     </row>
@@ -71653,7 +71654,7 @@
         <v>74</v>
       </c>
       <c r="V2070" s="36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71754,7 +71755,7 @@
         <v>76</v>
       </c>
       <c r="V2074" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2075" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71777,13 +71778,13 @@
         <v>106</v>
       </c>
       <c r="N2075" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O2075" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2075" s="36" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2076" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71830,13 +71831,13 @@
         <v>108</v>
       </c>
       <c r="N2077" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O2077" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2077" s="36" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71883,7 +71884,7 @@
         <v>110</v>
       </c>
       <c r="N2079" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V2079" s="36"/>
     </row>
@@ -71931,7 +71932,7 @@
         <v>112</v>
       </c>
       <c r="N2081" s="36" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V2081" s="36"/>
     </row>
@@ -72075,7 +72076,7 @@
         <v>118</v>
       </c>
       <c r="N2087" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V2087" s="36"/>
     </row>
@@ -72123,13 +72124,13 @@
         <v>120</v>
       </c>
       <c r="N2089" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O2089" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2089" s="36" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2090" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72152,7 +72153,7 @@
         <v>121</v>
       </c>
       <c r="N2090" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="V2090" s="36"/>
     </row>
@@ -72209,7 +72210,7 @@
         <v>123</v>
       </c>
       <c r="N2092" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V2092" s="36"/>
     </row>
@@ -72284,7 +72285,7 @@
         <v>126</v>
       </c>
       <c r="N2095" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V2095" s="36"/>
     </row>
@@ -72308,13 +72309,13 @@
         <v>127</v>
       </c>
       <c r="N2096" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O2096" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2096" s="37" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2097" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72385,7 +72386,7 @@
         <v>130</v>
       </c>
       <c r="N2099" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="V2099" s="36"/>
     </row>
@@ -72511,7 +72512,7 @@
         <v>76</v>
       </c>
       <c r="V2104" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="2105" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72540,7 +72541,7 @@
         <v>74</v>
       </c>
       <c r="V2105" s="36" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="2106" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72569,7 +72570,7 @@
         <v>74</v>
       </c>
       <c r="V2106" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2107" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72622,7 +72623,7 @@
         <v>74</v>
       </c>
       <c r="V2108" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72645,13 +72646,13 @@
         <v>140</v>
       </c>
       <c r="N2109" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O2109" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2109" s="36" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72698,13 +72699,13 @@
         <v>142</v>
       </c>
       <c r="N2111" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O2111" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2111" s="36" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72784,7 +72785,7 @@
         <v>74</v>
       </c>
       <c r="V2114" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2115" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72831,7 +72832,7 @@
         <v>147</v>
       </c>
       <c r="N2116" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V2116" s="36"/>
     </row>
@@ -72951,7 +72952,7 @@
         <v>152</v>
       </c>
       <c r="N2121" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V2121" s="36"/>
     </row>
@@ -73023,7 +73024,7 @@
         <v>155</v>
       </c>
       <c r="N2124" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V2124" s="36"/>
     </row>
@@ -73098,7 +73099,7 @@
         <v>158</v>
       </c>
       <c r="N2127" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V2127" s="36"/>
     </row>
@@ -73176,7 +73177,7 @@
         <v>74</v>
       </c>
       <c r="V2130" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2131" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73205,7 +73206,7 @@
         <v>74</v>
       </c>
       <c r="V2131" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="2132" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73261,7 +73262,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73288,7 +73289,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73309,7 +73310,7 @@
         <v>1</v>
       </c>
       <c r="N2135" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V2135" s="36"/>
     </row>
@@ -73333,13 +73334,13 @@
         <v>2</v>
       </c>
       <c r="N2136" s="36" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O2136" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2136" s="36" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73362,13 +73363,13 @@
         <v>3</v>
       </c>
       <c r="N2137" s="36" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O2137" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2137" s="36" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73421,7 +73422,7 @@
         <v>74</v>
       </c>
       <c r="V2139" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73444,7 +73445,7 @@
         <v>6</v>
       </c>
       <c r="N2140" s="36" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V2140" s="36"/>
     </row>
@@ -73468,13 +73469,13 @@
         <v>7</v>
       </c>
       <c r="N2141" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O2141" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2141" s="36" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73497,13 +73498,13 @@
         <v>8</v>
       </c>
       <c r="N2142" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O2142" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2142" s="36" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73550,7 +73551,7 @@
         <v>10</v>
       </c>
       <c r="N2144" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V2144" s="36"/>
     </row>
@@ -73574,7 +73575,7 @@
         <v>11</v>
       </c>
       <c r="N2145" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="V2145" s="36"/>
     </row>
@@ -73598,13 +73599,13 @@
         <v>12</v>
       </c>
       <c r="N2146" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O2146" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2146" s="36" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2147" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73627,13 +73628,13 @@
         <v>13</v>
       </c>
       <c r="N2147" s="36" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O2147" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2147" s="36" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2148" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73680,13 +73681,13 @@
         <v>15</v>
       </c>
       <c r="N2149" s="36" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O2149" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2149" s="36" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73733,7 +73734,7 @@
         <v>17</v>
       </c>
       <c r="N2151" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2151" s="36"/>
     </row>
@@ -73757,7 +73758,7 @@
         <v>18</v>
       </c>
       <c r="N2152" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2152" s="36"/>
     </row>
@@ -73781,7 +73782,7 @@
         <v>19</v>
       </c>
       <c r="N2153" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V2153" s="36"/>
     </row>
@@ -73829,7 +73830,7 @@
         <v>21</v>
       </c>
       <c r="N2155" s="36" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2155" s="36"/>
     </row>
@@ -73853,7 +73854,7 @@
         <v>22</v>
       </c>
       <c r="N2156" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2156" s="36"/>
     </row>
@@ -73877,7 +73878,7 @@
         <v>23</v>
       </c>
       <c r="N2157" s="36" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V2157" s="36"/>
     </row>
@@ -73901,13 +73902,13 @@
         <v>24</v>
       </c>
       <c r="N2158" s="36" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O2158" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2158" s="36" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2159" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73930,13 +73931,13 @@
         <v>25</v>
       </c>
       <c r="N2159" s="36" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O2159" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2159" s="36" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2160" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73959,13 +73960,13 @@
         <v>26</v>
       </c>
       <c r="N2160" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2160" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73986,7 +73987,7 @@
         <v>1</v>
       </c>
       <c r="N2161" s="36" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V2161" s="36"/>
     </row>
@@ -74010,13 +74011,13 @@
         <v>2</v>
       </c>
       <c r="N2162" s="36" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2162" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2162" s="36" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2163" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74039,13 +74040,13 @@
         <v>3</v>
       </c>
       <c r="N2163" s="36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O2163" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2163" s="36" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2164" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74092,7 +74093,7 @@
         <v>5</v>
       </c>
       <c r="N2165" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V2165" s="36"/>
     </row>
@@ -74116,7 +74117,7 @@
         <v>6</v>
       </c>
       <c r="N2166" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V2166" s="36"/>
     </row>
@@ -74140,13 +74141,13 @@
         <v>7</v>
       </c>
       <c r="N2167" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O2167" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2167" s="36" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2168" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74169,7 +74170,7 @@
         <v>8</v>
       </c>
       <c r="N2168" s="36" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V2168" s="36"/>
     </row>
@@ -74217,7 +74218,7 @@
         <v>10</v>
       </c>
       <c r="N2170" s="36" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V2170" s="36"/>
     </row>
@@ -74241,7 +74242,7 @@
         <v>11</v>
       </c>
       <c r="N2171" s="36" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V2171" s="36"/>
     </row>
@@ -74265,13 +74266,13 @@
         <v>12</v>
       </c>
       <c r="N2172" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="O2172" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2172" s="36" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,14 +74294,14 @@
         <f t="shared" si="102"/>
         <v>13</v>
       </c>
-      <c r="N2173" s="36" t="s">
-        <v>994</v>
+      <c r="N2173" s="37" t="s">
+        <v>1522</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2173" s="36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74347,13 +74348,13 @@
         <v>15</v>
       </c>
       <c r="N2175" s="36" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O2175" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2175" s="36" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2176" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74400,7 +74401,7 @@
         <v>17</v>
       </c>
       <c r="N2177" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="V2177" s="36"/>
     </row>
@@ -74424,7 +74425,7 @@
         <v>18</v>
       </c>
       <c r="N2178" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2178" s="36"/>
     </row>
@@ -74448,7 +74449,7 @@
         <v>19</v>
       </c>
       <c r="N2179" s="36" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="V2179" s="36"/>
     </row>
@@ -74496,7 +74497,7 @@
         <v>21</v>
       </c>
       <c r="N2181" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="V2181" s="36"/>
     </row>
@@ -74520,7 +74521,7 @@
         <v>22</v>
       </c>
       <c r="N2182" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2182" s="36"/>
     </row>
@@ -74544,7 +74545,7 @@
         <v>23</v>
       </c>
       <c r="N2183" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="V2183" s="36"/>
     </row>
@@ -74568,13 +74569,13 @@
         <v>24</v>
       </c>
       <c r="N2184" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="O2184" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2184" s="36" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2185" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74597,13 +74598,13 @@
         <v>25</v>
       </c>
       <c r="N2185" s="36" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O2185" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2185" s="36" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74626,13 +74627,13 @@
         <v>26</v>
       </c>
       <c r="N2186" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2186" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74653,13 +74654,13 @@
         <v>1</v>
       </c>
       <c r="N2187" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="O2187" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2187" s="36" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74682,13 +74683,13 @@
         <v>2</v>
       </c>
       <c r="N2188" s="36" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="O2188" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2188" s="36" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74711,13 +74712,13 @@
         <v>3</v>
       </c>
       <c r="N2189" s="36" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O2189" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2189" s="36" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74764,13 +74765,13 @@
         <v>5</v>
       </c>
       <c r="N2191" s="36" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="O2191" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2191" s="36" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74796,13 +74797,13 @@
         <v>6</v>
       </c>
       <c r="N2192" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="O2192" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2192" s="36" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74828,13 +74829,13 @@
         <v>7</v>
       </c>
       <c r="N2193" s="36" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="O2193" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2193" s="36" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2194" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74860,13 +74861,13 @@
         <v>8</v>
       </c>
       <c r="N2194" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="O2194" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2194" s="36" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2195" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74913,13 +74914,13 @@
         <v>10</v>
       </c>
       <c r="N2196" s="36" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="O2196" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2196" s="36" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2197" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74942,13 +74943,13 @@
         <v>11</v>
       </c>
       <c r="N2197" s="36" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O2197" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2197" s="36" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2198" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74971,13 +74972,13 @@
         <v>12</v>
       </c>
       <c r="N2198" s="36" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="O2198" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2198" s="36" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2199" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75000,13 +75001,13 @@
         <v>13</v>
       </c>
       <c r="N2199" s="36" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="O2199" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2199" s="36" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2200" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75053,7 +75054,7 @@
         <v>15</v>
       </c>
       <c r="N2201" s="36" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="V2201" s="36"/>
     </row>
@@ -75101,7 +75102,7 @@
         <v>17</v>
       </c>
       <c r="N2203" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="V2203" s="36"/>
     </row>
@@ -75125,7 +75126,7 @@
         <v>18</v>
       </c>
       <c r="N2204" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2204" s="36"/>
     </row>
@@ -75149,13 +75150,13 @@
         <v>19</v>
       </c>
       <c r="N2205" s="36" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O2205" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2205" s="36" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75202,7 +75203,7 @@
         <v>21</v>
       </c>
       <c r="N2207" s="36" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="V2207" s="36"/>
     </row>
@@ -75226,7 +75227,7 @@
         <v>22</v>
       </c>
       <c r="N2208" s="36" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="V2208" s="36"/>
     </row>
@@ -75250,13 +75251,13 @@
         <v>23</v>
       </c>
       <c r="N2209" s="36" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="O2209" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2209" s="36" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75279,13 +75280,13 @@
         <v>24</v>
       </c>
       <c r="N2210" s="36" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O2210" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2210" s="36" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2211" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75308,13 +75309,13 @@
         <v>25</v>
       </c>
       <c r="N2211" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2211" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75335,13 +75336,13 @@
         <v>1</v>
       </c>
       <c r="N2212" s="36" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="O2212" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2212" s="36" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75364,7 +75365,7 @@
         <v>2</v>
       </c>
       <c r="N2213" s="36" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="V2213" s="36"/>
     </row>
@@ -75388,7 +75389,7 @@
         <v>3</v>
       </c>
       <c r="N2214" s="36" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="V2214" s="36"/>
     </row>
@@ -75436,13 +75437,13 @@
         <v>5</v>
       </c>
       <c r="N2216" s="36" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O2216" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2216" s="36" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75468,13 +75469,13 @@
         <v>6</v>
       </c>
       <c r="N2217" s="36" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="O2217" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2217" s="36" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75500,13 +75501,13 @@
         <v>7</v>
       </c>
       <c r="N2218" s="36" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="O2218" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2218" s="36" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75532,13 +75533,13 @@
         <v>8</v>
       </c>
       <c r="N2219" s="36" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="O2219" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2219" s="36" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75588,13 +75589,13 @@
         <v>10</v>
       </c>
       <c r="N2221" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="O2221" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2221" s="36" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75617,13 +75618,13 @@
         <v>11</v>
       </c>
       <c r="N2222" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="O2222" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2222" s="36" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75646,13 +75647,13 @@
         <v>12</v>
       </c>
       <c r="N2223" s="36" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="O2223" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2223" s="36" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75675,13 +75676,13 @@
         <v>13</v>
       </c>
       <c r="N2224" s="36" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="O2224" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2224" s="36" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75728,13 +75729,13 @@
         <v>15</v>
       </c>
       <c r="N2226" s="36" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="O2226" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2226" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2227" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75781,7 +75782,7 @@
         <v>17</v>
       </c>
       <c r="N2228" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="V2228" s="36"/>
     </row>
@@ -75805,7 +75806,7 @@
         <v>18</v>
       </c>
       <c r="N2229" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2229" s="36"/>
     </row>
@@ -75829,13 +75830,13 @@
         <v>19</v>
       </c>
       <c r="N2230" s="36" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O2230" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2230" s="36" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2231" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75882,7 +75883,7 @@
         <v>21</v>
       </c>
       <c r="N2232" s="36" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="V2232" s="36"/>
     </row>
@@ -75906,13 +75907,13 @@
         <v>22</v>
       </c>
       <c r="N2233" s="36" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="O2233" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2233" s="36" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75935,13 +75936,13 @@
         <v>23</v>
       </c>
       <c r="N2234" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="O2234" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2234" s="36" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2235" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75964,13 +75965,13 @@
         <v>24</v>
       </c>
       <c r="N2235" s="36" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O2235" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2235" s="36" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2236" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75993,13 +75994,13 @@
         <v>25</v>
       </c>
       <c r="N2236" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2236" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76020,7 +76021,7 @@
         <v>1</v>
       </c>
       <c r="N2237" s="36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="V2237" s="36"/>
     </row>
@@ -76044,7 +76045,7 @@
         <v>2</v>
       </c>
       <c r="N2238" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2238" s="36"/>
     </row>
@@ -76068,7 +76069,7 @@
         <v>3</v>
       </c>
       <c r="N2239" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="V2239" s="36"/>
     </row>
@@ -76092,7 +76093,7 @@
         <v>4</v>
       </c>
       <c r="N2240" s="36" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="V2240" s="36"/>
     </row>
@@ -76116,7 +76117,7 @@
         <v>5</v>
       </c>
       <c r="N2241" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2241" s="36"/>
     </row>
@@ -76140,7 +76141,7 @@
         <v>6</v>
       </c>
       <c r="N2242" s="36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="V2242" s="36"/>
     </row>
@@ -76164,7 +76165,7 @@
         <v>7</v>
       </c>
       <c r="N2243" s="36" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="V2243" s="36"/>
     </row>
@@ -76188,7 +76189,7 @@
         <v>8</v>
       </c>
       <c r="N2244" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="V2244" s="36"/>
     </row>
@@ -76212,7 +76213,7 @@
         <v>9</v>
       </c>
       <c r="N2245" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2245" s="36"/>
     </row>
@@ -76236,7 +76237,7 @@
         <v>10</v>
       </c>
       <c r="N2246" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="V2246" s="36"/>
     </row>
@@ -76284,7 +76285,7 @@
         <v>12</v>
       </c>
       <c r="N2248" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="V2248" s="36"/>
     </row>
@@ -76308,13 +76309,13 @@
         <v>13</v>
       </c>
       <c r="N2249" s="36" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="O2249" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2249" s="36" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76361,7 +76362,7 @@
         <v>15</v>
       </c>
       <c r="N2251" s="36" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="V2251" s="36"/>
     </row>
@@ -76409,10 +76410,10 @@
         <v>17</v>
       </c>
       <c r="N2253" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76436,7 +76437,7 @@
         <v>18</v>
       </c>
       <c r="N2254" s="36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="V2254" s="36"/>
     </row>
@@ -76484,7 +76485,7 @@
         <v>20</v>
       </c>
       <c r="N2256" s="36" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="V2256" s="36"/>
     </row>
@@ -76508,13 +76509,13 @@
         <v>21</v>
       </c>
       <c r="N2257" s="36" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="O2257" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2257" s="36" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2258" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76537,18 +76538,18 @@
         <v>22</v>
       </c>
       <c r="N2258" s="36" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="O2258" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2258" s="36" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76569,13 +76570,13 @@
         <v>23</v>
       </c>
       <c r="N2259" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2259" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76596,7 +76597,7 @@
         <v>1</v>
       </c>
       <c r="N2260" s="36" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="V2260" s="36"/>
     </row>
@@ -76620,7 +76621,7 @@
         <v>2</v>
       </c>
       <c r="N2261" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2261" s="36"/>
     </row>
@@ -76668,13 +76669,13 @@
         <v>4</v>
       </c>
       <c r="N2263" s="36" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="O2263" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2263" s="36" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2264" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76697,7 +76698,7 @@
         <v>5</v>
       </c>
       <c r="N2264" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2264" s="36"/>
     </row>
@@ -76721,7 +76722,7 @@
         <v>6</v>
       </c>
       <c r="N2265" s="36" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V2265" s="36"/>
     </row>
@@ -76745,13 +76746,13 @@
         <v>7</v>
       </c>
       <c r="N2266" s="36" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="O2266" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2266" s="36" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2267" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76774,7 +76775,7 @@
         <v>8</v>
       </c>
       <c r="N2267" s="36" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="V2267" s="36"/>
     </row>
@@ -76798,7 +76799,7 @@
         <v>9</v>
       </c>
       <c r="N2268" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2268" s="36"/>
     </row>
@@ -76822,7 +76823,7 @@
         <v>10</v>
       </c>
       <c r="N2269" s="36" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V2269" s="36"/>
     </row>
@@ -76846,13 +76847,13 @@
         <v>11</v>
       </c>
       <c r="N2270" s="36" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="O2270" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2270" s="36" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2271" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76875,13 +76876,13 @@
         <v>12</v>
       </c>
       <c r="N2271" s="36" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O2271" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2271" s="36" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2272" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76928,7 +76929,7 @@
         <v>14</v>
       </c>
       <c r="N2273" s="36" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="V2273" s="36"/>
     </row>
@@ -76952,13 +76953,13 @@
         <v>15</v>
       </c>
       <c r="N2274" s="36" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O2274" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2274" s="36" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77005,7 +77006,7 @@
         <v>17</v>
       </c>
       <c r="N2276" s="36" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="V2276" s="36"/>
     </row>
@@ -77029,13 +77030,13 @@
         <v>18</v>
       </c>
       <c r="N2277" s="36" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="O2277" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2277" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77058,13 +77059,13 @@
         <v>19</v>
       </c>
       <c r="N2278" s="36" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O2278" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2278" s="36" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77087,13 +77088,13 @@
         <v>20</v>
       </c>
       <c r="N2279" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2279" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77114,7 +77115,7 @@
         <v>1</v>
       </c>
       <c r="N2280" s="36" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="V2280" s="36"/>
     </row>
@@ -77138,7 +77139,7 @@
         <v>2</v>
       </c>
       <c r="N2281" s="36" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="V2281" s="36"/>
     </row>
@@ -77162,7 +77163,7 @@
         <v>3</v>
       </c>
       <c r="N2282" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2282" s="36"/>
     </row>
@@ -77186,13 +77187,13 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2283" s="36" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="2284" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77215,7 +77216,7 @@
         <v>5</v>
       </c>
       <c r="N2284" s="36" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="V2284" s="36"/>
     </row>
@@ -77239,13 +77240,13 @@
         <v>6</v>
       </c>
       <c r="N2285" s="49" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="O2285" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2285" s="36" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77268,7 +77269,7 @@
         <v>7</v>
       </c>
       <c r="N2286" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2286" s="36"/>
     </row>
@@ -77292,13 +77293,13 @@
         <v>8</v>
       </c>
       <c r="N2287" s="36" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="O2287" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2287" s="36" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2288" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77321,7 +77322,7 @@
         <v>9</v>
       </c>
       <c r="N2288" s="36" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="V2288" s="36"/>
     </row>
@@ -77345,13 +77346,13 @@
         <v>10</v>
       </c>
       <c r="N2289" s="36" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O2289" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2289" s="36" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2290" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77374,7 +77375,7 @@
         <v>11</v>
       </c>
       <c r="N2290" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2290" s="36"/>
     </row>
@@ -77398,13 +77399,13 @@
         <v>12</v>
       </c>
       <c r="N2291" s="36" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O2291" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2291" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77451,7 +77452,7 @@
         <v>14</v>
       </c>
       <c r="N2293" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="V2293" s="36"/>
     </row>
@@ -77475,7 +77476,7 @@
         <v>15</v>
       </c>
       <c r="N2294" s="36" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="V2294" s="36"/>
     </row>
@@ -77523,7 +77524,7 @@
         <v>17</v>
       </c>
       <c r="N2296" s="36" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="V2296" s="36"/>
     </row>
@@ -77547,7 +77548,7 @@
         <v>18</v>
       </c>
       <c r="N2297" s="36" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="V2297" s="36"/>
     </row>
@@ -77595,7 +77596,7 @@
         <v>20</v>
       </c>
       <c r="N2299" s="36" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="V2299" s="36"/>
     </row>
@@ -77619,13 +77620,13 @@
         <v>21</v>
       </c>
       <c r="N2300" s="36" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O2300" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2300" s="36" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2301" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77648,13 +77649,13 @@
         <v>22</v>
       </c>
       <c r="N2301" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2301" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77675,7 +77676,7 @@
         <v>1</v>
       </c>
       <c r="N2302" s="36" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="V2302" s="36"/>
     </row>
@@ -77699,7 +77700,7 @@
         <v>2</v>
       </c>
       <c r="N2303" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2303" s="36"/>
     </row>
@@ -77723,13 +77724,13 @@
         <v>3</v>
       </c>
       <c r="N2304" s="36" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="O2304" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2304" s="36" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2305" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77752,7 +77753,7 @@
         <v>4</v>
       </c>
       <c r="N2305" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="V2305" s="36"/>
     </row>
@@ -77776,7 +77777,7 @@
         <v>5</v>
       </c>
       <c r="N2306" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2306" s="36"/>
     </row>
@@ -77800,13 +77801,13 @@
         <v>6</v>
       </c>
       <c r="N2307" s="36" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="O2307" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2307" s="36" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2308" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77829,7 +77830,7 @@
         <v>7</v>
       </c>
       <c r="N2308" s="36" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V2308" s="36"/>
     </row>
@@ -77853,7 +77854,7 @@
         <v>8</v>
       </c>
       <c r="N2309" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2309" s="36"/>
     </row>
@@ -77877,13 +77878,13 @@
         <v>9</v>
       </c>
       <c r="N2310" s="36" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="O2310" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2310" s="36" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2311" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77930,7 +77931,7 @@
         <v>11</v>
       </c>
       <c r="N2312" s="36" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="V2312" s="36"/>
     </row>
@@ -77954,7 +77955,7 @@
         <v>12</v>
       </c>
       <c r="N2313" s="36" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="V2313" s="36"/>
     </row>
@@ -77978,7 +77979,7 @@
         <v>13</v>
       </c>
       <c r="N2314" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2314" s="36"/>
     </row>
@@ -78002,7 +78003,7 @@
         <v>14</v>
       </c>
       <c r="N2315" s="36" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="V2315" s="36"/>
     </row>
@@ -78026,7 +78027,7 @@
         <v>15</v>
       </c>
       <c r="N2316" s="36" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="V2316" s="36"/>
     </row>
@@ -78050,13 +78051,13 @@
         <v>16</v>
       </c>
       <c r="N2317" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="O2317" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2317" s="36" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2318" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78079,13 +78080,13 @@
         <v>17</v>
       </c>
       <c r="N2318" s="36" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O2318" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2318" s="36" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2319" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78108,13 +78109,13 @@
         <v>18</v>
       </c>
       <c r="N2319" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2319" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78135,7 +78136,7 @@
         <v>1</v>
       </c>
       <c r="N2320" s="36" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="V2320" s="36"/>
     </row>
@@ -78159,7 +78160,7 @@
         <v>2</v>
       </c>
       <c r="N2321" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2321" s="36"/>
     </row>
@@ -78183,7 +78184,7 @@
         <v>3</v>
       </c>
       <c r="N2322" s="36" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="V2322" s="36"/>
     </row>
@@ -78207,7 +78208,7 @@
         <v>4</v>
       </c>
       <c r="N2323" s="36" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="V2323" s="36"/>
     </row>
@@ -78231,7 +78232,7 @@
         <v>5</v>
       </c>
       <c r="N2324" s="36" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="V2324" s="36"/>
     </row>
@@ -78255,7 +78256,7 @@
         <v>6</v>
       </c>
       <c r="N2325" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2325" s="36"/>
     </row>
@@ -78279,7 +78280,7 @@
         <v>7</v>
       </c>
       <c r="N2326" s="36" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="V2326" s="36"/>
     </row>
@@ -78303,7 +78304,7 @@
         <v>8</v>
       </c>
       <c r="N2327" s="36" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="V2327" s="36"/>
     </row>
@@ -78327,13 +78328,13 @@
         <v>9</v>
       </c>
       <c r="N2328" s="36" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="O2328" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2328" s="36" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78380,7 +78381,7 @@
         <v>11</v>
       </c>
       <c r="N2330" s="36" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="V2330" s="36"/>
     </row>
@@ -78404,7 +78405,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="36" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78428,7 +78429,7 @@
         <v>13</v>
       </c>
       <c r="N2332" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="V2332" s="36"/>
     </row>
@@ -78476,7 +78477,7 @@
         <v>15</v>
       </c>
       <c r="N2334" s="36" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="V2334" s="36"/>
     </row>
@@ -78524,13 +78525,13 @@
         <v>17</v>
       </c>
       <c r="N2336" s="36" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="O2336" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2336" s="36" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78553,7 +78554,7 @@
         <v>18</v>
       </c>
       <c r="N2337" s="36" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="V2337" s="36"/>
     </row>
@@ -78577,13 +78578,13 @@
         <v>19</v>
       </c>
       <c r="N2338" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2338" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78604,7 +78605,7 @@
         <v>1</v>
       </c>
       <c r="N2339" s="36" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="V2339" s="36"/>
     </row>
@@ -78628,7 +78629,7 @@
         <v>2</v>
       </c>
       <c r="N2340" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2340" s="36"/>
     </row>
@@ -78652,13 +78653,13 @@
         <v>3</v>
       </c>
       <c r="N2341" s="36" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O2341" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2341" s="36" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78681,7 +78682,7 @@
         <v>4</v>
       </c>
       <c r="N2342" s="36" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="V2342" s="36"/>
     </row>
@@ -78705,7 +78706,7 @@
         <v>5</v>
       </c>
       <c r="N2343" s="36" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="V2343" s="36"/>
     </row>
@@ -78729,7 +78730,7 @@
         <v>6</v>
       </c>
       <c r="N2344" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2344" s="36"/>
     </row>
@@ -78753,13 +78754,13 @@
         <v>7</v>
       </c>
       <c r="N2345" s="36" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O2345" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2345" s="36" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78782,7 +78783,7 @@
         <v>8</v>
       </c>
       <c r="N2346" s="36" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="V2346" s="36"/>
     </row>
@@ -78806,13 +78807,13 @@
         <v>9</v>
       </c>
       <c r="N2347" s="36" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O2347" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2347" s="36" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78835,7 +78836,7 @@
         <v>10</v>
       </c>
       <c r="N2348" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2348" s="36"/>
     </row>
@@ -78859,13 +78860,13 @@
         <v>11</v>
       </c>
       <c r="N2349" s="36" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O2349" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2349" s="36" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78888,7 +78889,7 @@
         <v>12</v>
       </c>
       <c r="N2350" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="V2350" s="36"/>
     </row>
@@ -78912,7 +78913,7 @@
         <v>13</v>
       </c>
       <c r="N2351" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2351" s="36"/>
     </row>
@@ -78936,13 +78937,13 @@
         <v>14</v>
       </c>
       <c r="N2352" s="36" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O2352" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2352" s="36" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2353" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78965,7 +78966,7 @@
         <v>15</v>
       </c>
       <c r="N2353" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2353" s="36"/>
     </row>
@@ -78989,7 +78990,7 @@
         <v>16</v>
       </c>
       <c r="N2354" s="36" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="V2354" s="36"/>
     </row>
@@ -79013,13 +79014,13 @@
         <v>17</v>
       </c>
       <c r="N2355" s="36" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="O2355" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2355" s="36" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2356" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79042,13 +79043,13 @@
         <v>18</v>
       </c>
       <c r="N2356" s="36" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="O2356" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2356" s="36" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2357" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79071,18 +79072,18 @@
         <v>19</v>
       </c>
       <c r="N2357" s="36" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O2357" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2357" s="36" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79103,13 +79104,13 @@
         <v>20</v>
       </c>
       <c r="N2358" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="P2358" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79130,7 +79131,7 @@
         <v>1</v>
       </c>
       <c r="N2359" s="36" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="V2359" s="36"/>
     </row>
@@ -79154,13 +79155,13 @@
         <v>2</v>
       </c>
       <c r="N2360" s="36" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O2360" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2360" s="36" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2361" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79183,13 +79184,13 @@
         <v>3</v>
       </c>
       <c r="N2361" s="36" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O2361" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2361" s="36" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2362" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79212,7 +79213,7 @@
         <v>4</v>
       </c>
       <c r="N2362" s="36" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="V2362" s="36"/>
     </row>
@@ -79236,13 +79237,13 @@
         <v>5</v>
       </c>
       <c r="N2363" s="36" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O2363" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2363" s="36" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2364" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79265,13 +79266,13 @@
         <v>6</v>
       </c>
       <c r="N2364" s="36" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O2364" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2364" s="36" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2365" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79294,7 +79295,7 @@
         <v>7</v>
       </c>
       <c r="N2365" s="36" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="V2365" s="36"/>
     </row>
@@ -79318,13 +79319,13 @@
         <v>8</v>
       </c>
       <c r="N2366" s="36" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O2366" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2366" s="36" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2367" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79347,13 +79348,13 @@
         <v>9</v>
       </c>
       <c r="N2367" s="36" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="O2367" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2367" s="36" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2368" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79376,13 +79377,13 @@
         <v>10</v>
       </c>
       <c r="N2368" s="36" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="O2368" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2368" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79405,16 +79406,16 @@
         <v>11</v>
       </c>
       <c r="N2369" s="53" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="O2369" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="V2369" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79443,7 +79444,7 @@
         <v>76</v>
       </c>
       <c r="V2370" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79466,13 +79467,13 @@
         <v>13</v>
       </c>
       <c r="N2371" s="36" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O2371" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2371" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79495,13 +79496,13 @@
         <v>14</v>
       </c>
       <c r="N2372" s="36" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O2372" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2372" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79524,13 +79525,13 @@
         <v>15</v>
       </c>
       <c r="N2373" s="36" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O2373" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2373" s="36" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79553,13 +79554,13 @@
         <v>16</v>
       </c>
       <c r="N2374" s="36" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="O2374" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2374" s="36" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79588,7 +79589,7 @@
         <v>76</v>
       </c>
       <c r="V2375" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79611,13 +79612,13 @@
         <v>18</v>
       </c>
       <c r="N2376" s="36" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O2376" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2376" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79640,13 +79641,13 @@
         <v>19</v>
       </c>
       <c r="N2377" s="36" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O2377" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2377" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79669,13 +79670,13 @@
         <v>20</v>
       </c>
       <c r="N2378" s="36" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O2378" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2378" s="36" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79698,13 +79699,13 @@
         <v>21</v>
       </c>
       <c r="N2379" s="36" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="O2379" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2379" s="36" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79733,7 +79734,7 @@
         <v>76</v>
       </c>
       <c r="V2380" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2381" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79756,13 +79757,13 @@
         <v>23</v>
       </c>
       <c r="N2381" s="36" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O2381" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2381" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79785,13 +79786,13 @@
         <v>24</v>
       </c>
       <c r="N2382" s="36" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O2382" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2382" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79814,7 +79815,7 @@
         <v>25</v>
       </c>
       <c r="N2383" s="36" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="V2383" s="36"/>
     </row>
@@ -79838,13 +79839,13 @@
         <v>26</v>
       </c>
       <c r="N2384" s="36" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="O2384" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2384" s="36" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2385" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79867,7 +79868,7 @@
         <v>27</v>
       </c>
       <c r="N2385" s="36" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="V2385" s="36"/>
     </row>
@@ -79891,13 +79892,13 @@
         <v>28</v>
       </c>
       <c r="N2386" s="36" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="O2386" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2386" s="36" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2387" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79920,13 +79921,13 @@
         <v>29</v>
       </c>
       <c r="N2387" s="36" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="O2387" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2387" s="36" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2388" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79949,13 +79950,13 @@
         <v>30</v>
       </c>
       <c r="N2388" s="36" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="O2388" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2388" s="36" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2389" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79978,10 +79979,10 @@
         <v>31</v>
       </c>
       <c r="N2389" s="36" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80005,7 +80006,7 @@
         <v>32</v>
       </c>
       <c r="N2390" s="36" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="V2390" s="36"/>
     </row>
@@ -80029,7 +80030,7 @@
         <v>33</v>
       </c>
       <c r="N2391" s="36" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="V2391" s="36"/>
     </row>
@@ -80053,7 +80054,7 @@
         <v>34</v>
       </c>
       <c r="N2392" s="36" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>74</v>
@@ -80062,7 +80063,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80086,7 +80087,7 @@
         <v>1</v>
       </c>
       <c r="N2393" s="36" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="V2393" s="36"/>
     </row>
@@ -80113,7 +80114,7 @@
         <v>2</v>
       </c>
       <c r="N2394" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S2394" s="6" t="s">
         <v>90</v>
@@ -80146,7 +80147,7 @@
         <v>3</v>
       </c>
       <c r="N2395" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="V2395" s="36"/>
     </row>
@@ -80221,7 +80222,7 @@
         <v>6</v>
       </c>
       <c r="N2398" s="36" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="V2398" s="36"/>
     </row>
@@ -80245,7 +80246,7 @@
         <v>7</v>
       </c>
       <c r="N2399" s="36" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="V2399" s="36"/>
     </row>
@@ -80269,7 +80270,7 @@
         <v>8</v>
       </c>
       <c r="N2400" s="36" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="V2400" s="36"/>
     </row>
@@ -80293,7 +80294,7 @@
         <v>9</v>
       </c>
       <c r="N2401" s="36" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="V2401" s="36"/>
     </row>
@@ -80317,7 +80318,7 @@
         <v>10</v>
       </c>
       <c r="N2402" s="36" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V2402" s="36"/>
     </row>
@@ -80365,7 +80366,7 @@
         <v>12</v>
       </c>
       <c r="N2404" s="36" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="V2404" s="36"/>
     </row>
@@ -80389,7 +80390,7 @@
         <v>13</v>
       </c>
       <c r="N2405" s="36" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="V2405" s="36"/>
     </row>
@@ -80413,7 +80414,7 @@
         <v>14</v>
       </c>
       <c r="N2406" s="36" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="V2406" s="36"/>
     </row>
@@ -80437,7 +80438,7 @@
         <v>15</v>
       </c>
       <c r="N2407" s="36" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2407" s="36"/>
     </row>
@@ -80461,7 +80462,7 @@
         <v>16</v>
       </c>
       <c r="N2408" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2408" s="36"/>
     </row>
@@ -80485,13 +80486,13 @@
         <v>17</v>
       </c>
       <c r="N2409" s="36" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="O2409" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2409" s="36" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80562,13 +80563,13 @@
         <v>20</v>
       </c>
       <c r="N2412" s="36" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="O2412" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2412" s="36" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80591,7 +80592,7 @@
         <v>21</v>
       </c>
       <c r="N2413" s="36" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="V2413" s="36"/>
     </row>
@@ -80639,13 +80640,13 @@
         <v>23</v>
       </c>
       <c r="N2415" s="36" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2415" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80695,13 +80696,13 @@
         <v>25</v>
       </c>
       <c r="N2417" s="36" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P2417" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80722,7 +80723,7 @@
         <v>1</v>
       </c>
       <c r="N2418" s="36" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="V2418" s="36"/>
     </row>
@@ -80746,7 +80747,7 @@
         <v>2</v>
       </c>
       <c r="N2419" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2419" s="36"/>
     </row>
@@ -80770,7 +80771,7 @@
         <v>3</v>
       </c>
       <c r="N2420" s="36" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="V2420" s="36"/>
     </row>
@@ -80794,7 +80795,7 @@
         <v>4</v>
       </c>
       <c r="N2421" s="36" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="V2421" s="36"/>
     </row>
@@ -80818,7 +80819,7 @@
         <v>5</v>
       </c>
       <c r="N2422" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2422" s="36"/>
     </row>
@@ -80842,7 +80843,7 @@
         <v>6</v>
       </c>
       <c r="N2423" s="36" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="V2423" s="36"/>
     </row>
@@ -80866,7 +80867,7 @@
         <v>7</v>
       </c>
       <c r="N2424" s="36" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="V2424" s="36"/>
     </row>
@@ -80890,7 +80891,7 @@
         <v>8</v>
       </c>
       <c r="N2425" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2425" s="36"/>
     </row>
@@ -80914,7 +80915,7 @@
         <v>9</v>
       </c>
       <c r="N2426" s="36" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="V2426" s="36"/>
     </row>
@@ -80938,7 +80939,7 @@
         <v>10</v>
       </c>
       <c r="N2427" s="36" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="V2427" s="36"/>
     </row>
@@ -80962,7 +80963,7 @@
         <v>11</v>
       </c>
       <c r="N2428" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2428" s="36"/>
     </row>
@@ -80986,7 +80987,7 @@
         <v>12</v>
       </c>
       <c r="N2429" s="36" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="V2429" s="36"/>
     </row>
@@ -81010,13 +81011,13 @@
         <v>13</v>
       </c>
       <c r="N2430" s="36" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="O2430" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2430" s="36" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81039,7 +81040,7 @@
         <v>14</v>
       </c>
       <c r="N2431" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2431" s="36"/>
     </row>
@@ -81063,7 +81064,7 @@
         <v>15</v>
       </c>
       <c r="N2432" s="36" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="V2432" s="36"/>
     </row>
@@ -81087,13 +81088,13 @@
         <v>16</v>
       </c>
       <c r="N2433" s="36" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="O2433" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2433" s="36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81116,7 +81117,7 @@
         <v>17</v>
       </c>
       <c r="N2434" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V2434" s="36"/>
     </row>
@@ -81140,7 +81141,7 @@
         <v>18</v>
       </c>
       <c r="N2435" s="36" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="V2435" s="36"/>
     </row>
@@ -81164,13 +81165,13 @@
         <v>19</v>
       </c>
       <c r="N2436" s="36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="O2436" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2436" s="36" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81193,7 +81194,7 @@
         <v>20</v>
       </c>
       <c r="N2437" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="O2437" s="6" t="s">
         <v>74</v>
@@ -81202,7 +81203,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BF724-F18C-4431-8664-7A73952AB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920761D-8F80-42EF-BDD2-9FCC5B5657EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6487" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1523">
   <si>
     <t>Passage</t>
   </si>
@@ -5242,9 +5242,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U177" sqref="U177"/>
+      <selection pane="bottomLeft" activeCell="U920" sqref="U920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -37774,9 +37774,7 @@
       <c r="R920" s="6"/>
       <c r="S920" s="6"/>
       <c r="T920" s="6"/>
-      <c r="U920" s="6" t="s">
-        <v>1500</v>
-      </c>
+      <c r="U920" s="6"/>
       <c r="V920" s="36"/>
     </row>
     <row r="921" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920761D-8F80-42EF-BDD2-9FCC5B5657EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C2600-A4A8-43BE-A30E-8A485FFE04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2238,9 +2238,6 @@
     <t>catu#rvi(gm)Satim</t>
   </si>
   <si>
-    <t>catu#rvi(gm)SatiqritiH</t>
-  </si>
-  <si>
     <t>aqrddhaqmAqsAH</t>
   </si>
   <si>
@@ -3855,9 +3852,6 @@
     <t>pa~jca#daqSetiq pa~jca# - daqSaq</t>
   </si>
   <si>
-    <t>aqrddhaqmAqsaqSa itya#qrddhamAsa - SaH</t>
-  </si>
-  <si>
     <t>saqptadaqSeti# saqpta - daqSaq</t>
   </si>
   <si>
@@ -4597,6 +4591,12 @@
   </si>
   <si>
     <t>kShuqdrapRu#ShatI</t>
+  </si>
+  <si>
+    <t>aqrddhaqmAqsaqSa itya#rddhamAsa - SaH</t>
+  </si>
+  <si>
+    <t>catu#rvi(gm)SatiH</t>
   </si>
 </sst>
 </file>
@@ -5241,10 +5241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1391" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U920" sqref="U920"/>
+      <selection pane="bottomLeft" activeCell="G1405" sqref="G1405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5818,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="36" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6539,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -6551,7 +6551,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="36" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6838,10 +6838,10 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V27" s="36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6873,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -6885,7 +6885,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="36" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="36" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7281,7 +7281,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="9" t="s">
@@ -7293,7 +7293,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7615,7 +7615,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="36" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7647,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="9" t="s">
@@ -7659,7 +7659,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
@@ -8098,7 +8098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8623,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8672,10 +8672,10 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="V72" s="36" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
         <v>79</v>
       </c>
       <c r="N80" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="9" t="s">
@@ -8997,7 +8997,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="36" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9229,7 +9229,7 @@
         <v>85</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="9" t="s">
@@ -9241,7 +9241,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9595,7 +9595,7 @@
         <v>94</v>
       </c>
       <c r="N95" s="36" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="9" t="s">
@@ -9607,7 +9607,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9683,7 +9683,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="36" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="98" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="N101" s="36" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>74</v>
@@ -9833,7 +9833,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10133,7 +10133,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10162,7 +10162,7 @@
         <v>109</v>
       </c>
       <c r="N110" s="36" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="9" t="s">
@@ -10174,7 +10174,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10214,7 +10214,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="36" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="112" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="9" t="s">
@@ -10376,7 +10376,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10497,7 +10497,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="36" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="119" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10731,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="9" t="s">
@@ -10743,7 +10743,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10959,7 +10959,7 @@
         <v>129</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="O130" s="6" t="s">
         <v>74</v>
@@ -10973,7 +10973,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11220,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="9" t="s">
@@ -11232,7 +11232,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="36" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11750,7 +11750,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="36" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="152" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11791,10 +11791,10 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V152" s="36" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="153" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="36" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="156" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12026,7 +12026,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="9" t="s">
@@ -12038,7 +12038,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12645,7 +12645,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12724,7 +12724,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="177" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12964,10 +12964,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="T182" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13016,7 +13016,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="36" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="184" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
         <v>186</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="O187" s="5"/>
       <c r="P187" s="9" t="s">
@@ -13168,7 +13168,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13268,7 +13268,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="O190" s="5"/>
       <c r="P190" s="9" t="s">
@@ -13280,7 +13280,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="36" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13677,7 +13677,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="36" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="O201" s="5"/>
       <c r="P201" s="9" t="s">
@@ -13689,7 +13689,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13940,7 +13940,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="O208" s="5"/>
       <c r="P208" s="9" t="s">
@@ -13952,7 +13952,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14106,7 +14106,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="36" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14215,7 +14215,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14402,7 +14402,7 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="36" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="221" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14478,7 +14478,7 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="36" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="223" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14520,7 +14520,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14720,7 +14720,7 @@
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="230" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14922,7 +14922,7 @@
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="36" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="236" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14959,7 +14959,7 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="237" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="36" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15168,7 +15168,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="243" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15441,7 +15441,7 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="251" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15577,7 +15577,7 @@
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15967,7 +15967,7 @@
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="266" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16005,7 +16005,7 @@
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="36" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="267" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16383,7 +16383,7 @@
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="36" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="278" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16423,7 +16423,7 @@
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="36" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="279" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16843,7 +16843,7 @@
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="291" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17318,7 +17318,7 @@
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
       <c r="V304" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="305" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17355,7 +17355,7 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="37" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
       <c r="T309" s="6"/>
       <c r="U309" s="6"/>
       <c r="V309" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="310" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17859,7 +17859,7 @@
       <c r="T320" s="6"/>
       <c r="U320" s="6"/>
       <c r="V320" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17896,7 +17896,7 @@
       <c r="T321" s="6"/>
       <c r="U321" s="6"/>
       <c r="V321" s="36" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18297,7 +18297,7 @@
       <c r="T333" s="6"/>
       <c r="U333" s="6"/>
       <c r="V333" s="36" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="334" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18635,7 +18635,7 @@
       <c r="T343" s="6"/>
       <c r="U343" s="6"/>
       <c r="V343" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="344" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18837,7 +18837,7 @@
       <c r="T349" s="6"/>
       <c r="U349" s="6"/>
       <c r="V349" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
       <c r="T363" s="6"/>
       <c r="U363" s="6"/>
       <c r="V363" s="36" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19386,7 +19386,7 @@
       <c r="T365" s="6"/>
       <c r="U365" s="6"/>
       <c r="V365" s="36" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="366" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19424,7 +19424,7 @@
       <c r="T366" s="6"/>
       <c r="U366" s="6"/>
       <c r="V366" s="36" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="367" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19598,7 +19598,7 @@
       <c r="T371" s="6"/>
       <c r="U371" s="6"/>
       <c r="V371" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20055,7 +20055,7 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
       <c r="V384" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="385" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20224,7 +20224,7 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
       <c r="V389" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="390" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20659,7 +20659,7 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
       <c r="V402" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20762,7 +20762,7 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
       <c r="V405" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="406" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21129,7 +21129,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="417" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21530,7 +21530,7 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
       <c r="V428" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21633,7 +21633,7 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
       <c r="V431" s="36" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21770,7 +21770,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="36" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="436" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21975,7 +21975,7 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
       <c r="V441" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="442" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22177,7 +22177,7 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
       <c r="V447" s="36" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="448" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22313,7 +22313,7 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
       <c r="V451" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="452" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22751,7 +22751,7 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
       <c r="V464" s="36" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="465" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23025,7 +23025,7 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
       <c r="V472" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="473" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23062,7 +23062,7 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
       <c r="V473" s="36" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="474" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24073,7 +24073,7 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
       <c r="V503" s="36" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="504" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24143,7 +24143,7 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
       <c r="V505" s="36" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="506" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24312,7 +24312,7 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
       <c r="V510" s="36" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="511" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24436,7 +24436,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24448,7 +24448,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
       <c r="V514" s="36" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="515" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24652,7 +24652,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24687,7 +24687,7 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
       <c r="V521" s="36" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="522" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24792,7 +24792,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="525" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24928,7 +24928,7 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
       <c r="V528" s="36" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="529" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25264,7 +25264,7 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
       <c r="V538" s="36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="539" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25532,7 +25532,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="36" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25602,7 +25602,7 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
       <c r="V548" s="36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="549" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25672,7 +25672,7 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
       <c r="V550" s="36" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="551" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25775,7 +25775,7 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
       <c r="V553" s="36" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="554" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26047,7 +26047,7 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
       <c r="V561" s="36" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="562" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26679,7 +26679,7 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
       <c r="V580" s="36" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="581" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26716,7 +26716,7 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
       <c r="V581" s="36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="582" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26753,7 +26753,7 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
       <c r="V582" s="36" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26922,7 +26922,7 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
       <c r="V587" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27025,7 +27025,7 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
       <c r="V590" s="36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="591" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27269,7 +27269,7 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
       <c r="V597" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="598" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27387,7 +27387,7 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
       <c r="V600" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="601" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27424,7 +27424,7 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
       <c r="V601" s="36" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="602" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28086,7 +28086,7 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
       <c r="V620" s="36" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28221,7 +28221,7 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
       <c r="V624" s="36" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="625" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28345,7 +28345,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28357,7 +28357,7 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
       <c r="V628" s="36" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="629" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28908,7 +28908,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -28920,7 +28920,7 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
       <c r="V644" s="36" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="645" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29458,7 +29458,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -29470,7 +29470,7 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="36" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29863,7 +29863,7 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
       <c r="V672" s="36" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="673" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30303,7 +30303,7 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
       <c r="V686" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="687" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30431,7 +30431,7 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
       <c r="V690" s="36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="691" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30528,7 +30528,7 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
       <c r="V693" s="36" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="694" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31249,7 +31249,7 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
       <c r="V716" s="36" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="717" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31286,7 +31286,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31307,7 +31307,7 @@
         <v>198</v>
       </c>
       <c r="N718" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O718" s="5"/>
       <c r="P718" s="9" t="s">
@@ -31319,7 +31319,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31352,7 +31352,7 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
       <c r="V719" s="36" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="720" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31418,7 +31418,7 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
       <c r="V721" s="36" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31453,7 +31453,7 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
       <c r="V722" s="36" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="723" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31550,7 +31550,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="36" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31647,7 +31647,7 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
       <c r="V728" s="36" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="729" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31715,7 +31715,7 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
       <c r="V730" s="36" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="731" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31751,7 +31751,7 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
       <c r="V731" s="36" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="732" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31944,7 +31944,7 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
       <c r="V737" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="738" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32227,7 +32227,7 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
       <c r="V746" s="36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="747" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32293,7 +32293,7 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
       <c r="V748" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="749" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32514,7 +32514,7 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
       <c r="V755" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="756" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32550,7 +32550,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -32686,7 +32686,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="36" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32882,7 +32882,7 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
       <c r="V766" s="36" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="767" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33368,7 +33368,7 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
       <c r="V781" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="782" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33651,7 +33651,7 @@
       <c r="S790" s="6"/>
       <c r="T790" s="6"/>
       <c r="V790" s="36" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="791" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33779,7 +33779,7 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
       <c r="V794" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34380,7 +34380,7 @@
       <c r="T813" s="6"/>
       <c r="U813" s="6"/>
       <c r="V813" s="36" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="814" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34415,7 +34415,7 @@
       <c r="T814" s="6"/>
       <c r="U814" s="6"/>
       <c r="V814" s="36" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="815" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34573,7 +34573,7 @@
       <c r="T819" s="6"/>
       <c r="U819" s="6"/>
       <c r="V819" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="820" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35234,7 +35234,7 @@
       <c r="T840" s="6"/>
       <c r="U840" s="6"/>
       <c r="V840" s="36" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
       <c r="T849" s="6"/>
       <c r="U849" s="6"/>
       <c r="V849" s="36" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="850" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35836,7 +35836,7 @@
       <c r="T859" s="6"/>
       <c r="U859" s="6"/>
       <c r="V859" s="36" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="860" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36088,7 +36088,7 @@
       <c r="T867" s="6"/>
       <c r="U867" s="6"/>
       <c r="V867" s="36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="868" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36123,7 +36123,7 @@
       <c r="T868" s="6"/>
       <c r="U868" s="6"/>
       <c r="V868" s="36" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="869" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36188,7 +36188,7 @@
       <c r="T870" s="6"/>
       <c r="U870" s="6"/>
       <c r="V870" s="36" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="871" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36441,7 +36441,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="36" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36755,7 +36755,7 @@
       <c r="T888" s="6"/>
       <c r="U888" s="6"/>
       <c r="V888" s="36" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="889" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37167,7 +37167,7 @@
       <c r="T901" s="6"/>
       <c r="U901" s="6"/>
       <c r="V901" s="36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="902" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38682,7 +38682,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38703,7 +38703,7 @@
         <v>232</v>
       </c>
       <c r="N950" s="36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="O950" s="5"/>
       <c r="P950" s="9" t="s">
@@ -38715,7 +38715,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38748,7 +38748,7 @@
       <c r="T951" s="6"/>
       <c r="U951" s="6"/>
       <c r="V951" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="952" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38876,7 +38876,7 @@
       <c r="T955" s="6"/>
       <c r="U955" s="6"/>
       <c r="V955" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="956" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38942,7 +38942,7 @@
       <c r="T957" s="6"/>
       <c r="U957" s="6"/>
       <c r="V957" s="36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="958" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38977,7 +38977,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -39076,7 +39076,7 @@
       <c r="T961" s="6"/>
       <c r="U961" s="6"/>
       <c r="V961" s="36" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39111,7 +39111,7 @@
       <c r="T962" s="6"/>
       <c r="U962" s="6"/>
       <c r="V962" s="36" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39146,7 +39146,7 @@
       <c r="T963" s="6"/>
       <c r="U963" s="6"/>
       <c r="V963" s="36" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="964" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39274,7 +39274,7 @@
       <c r="T967" s="6"/>
       <c r="U967" s="6"/>
       <c r="V967" s="36" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="968" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39340,7 +39340,7 @@
       <c r="T969" s="6"/>
       <c r="U969" s="6"/>
       <c r="V969" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39375,7 +39375,7 @@
       <c r="T970" s="6"/>
       <c r="U970" s="6"/>
       <c r="V970" s="36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="971" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39472,7 +39472,7 @@
       <c r="T973" s="6"/>
       <c r="U973" s="6"/>
       <c r="V973" s="36" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="974" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39538,7 +39538,7 @@
       <c r="T975" s="6"/>
       <c r="U975" s="6"/>
       <c r="V975" s="36" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="976" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39670,7 +39670,7 @@
       <c r="T979" s="6"/>
       <c r="U979" s="6"/>
       <c r="V979" s="36" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="980" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39705,7 +39705,7 @@
       <c r="T980" s="6"/>
       <c r="U980" s="6"/>
       <c r="V980" s="36" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="981" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39931,7 +39931,7 @@
       <c r="T987" s="6"/>
       <c r="U987" s="6"/>
       <c r="V987" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="988" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39997,7 +39997,7 @@
       <c r="T989" s="6"/>
       <c r="U989" s="6"/>
       <c r="V989" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="990" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40439,7 +40439,7 @@
       <c r="T1003" s="6"/>
       <c r="U1003" s="6"/>
       <c r="V1003" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1004" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40510,7 +40510,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40576,7 +40576,7 @@
       <c r="T1007" s="6"/>
       <c r="U1007" s="6"/>
       <c r="V1007" s="36" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40646,7 +40646,7 @@
       <c r="T1009" s="6"/>
       <c r="U1009" s="6"/>
       <c r="V1009" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1010" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40682,7 +40682,7 @@
       <c r="T1010" s="6"/>
       <c r="U1010" s="6"/>
       <c r="V1010" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1011" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41325,7 +41325,7 @@
       <c r="T1030" s="6"/>
       <c r="U1030" s="6"/>
       <c r="V1030" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41674,7 +41674,7 @@
       <c r="T1041" s="6"/>
       <c r="U1041" s="6"/>
       <c r="V1041" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41709,7 +41709,7 @@
       <c r="T1042" s="6"/>
       <c r="U1042" s="6"/>
       <c r="V1042" s="36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1043" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41775,7 +41775,7 @@
       <c r="T1044" s="6"/>
       <c r="U1044" s="6"/>
       <c r="V1044" s="36" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41841,7 +41841,7 @@
       <c r="T1046" s="6"/>
       <c r="U1046" s="6"/>
       <c r="V1046" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1047" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42154,7 +42154,7 @@
       <c r="T1056" s="6"/>
       <c r="U1056" s="6"/>
       <c r="V1056" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1057" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42437,7 +42437,7 @@
       <c r="T1065" s="6"/>
       <c r="U1065" s="6"/>
       <c r="V1065" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1066" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="U1076" s="6"/>
       <c r="V1076" s="36" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1077" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42864,7 +42864,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="36" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42962,7 +42962,7 @@
       <c r="T1081" s="6"/>
       <c r="U1081" s="6"/>
       <c r="V1081" s="36" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1082" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42998,7 +42998,7 @@
       <c r="T1082" s="6"/>
       <c r="U1082" s="6"/>
       <c r="V1082" s="36" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1083" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43162,7 +43162,7 @@
       <c r="T1087" s="6"/>
       <c r="U1087" s="6"/>
       <c r="V1087" s="36" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1088" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43294,7 +43294,7 @@
       <c r="T1091" s="6"/>
       <c r="U1091" s="6"/>
       <c r="V1091" s="36" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1092" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43330,7 +43330,7 @@
       <c r="T1092" s="6"/>
       <c r="U1092" s="6"/>
       <c r="V1092" s="36" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1093" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43683,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43717,7 +43717,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43751,7 +43751,7 @@
       <c r="T1105" s="6"/>
       <c r="U1105" s="6"/>
       <c r="V1105" s="36" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1106" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43881,7 +43881,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44197,7 +44197,7 @@
       <c r="T1119" s="6"/>
       <c r="U1119" s="6"/>
       <c r="V1119" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1120" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44445,7 +44445,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1127" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44699,7 +44699,7 @@
       <c r="T1134" s="6"/>
       <c r="U1134" s="6"/>
       <c r="V1134" s="36" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1135" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44735,7 +44735,7 @@
       <c r="T1135" s="6"/>
       <c r="U1135" s="6"/>
       <c r="V1135" s="36" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1136" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44867,7 +44867,7 @@
       <c r="T1139" s="6"/>
       <c r="U1139" s="6"/>
       <c r="V1139" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45153,7 +45153,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="36" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1149" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45514,7 +45514,7 @@
       <c r="T1158" s="6"/>
       <c r="U1158" s="6"/>
       <c r="V1158" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1159" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45949,7 +45949,7 @@
       <c r="T1171" s="6"/>
       <c r="U1171" s="6"/>
       <c r="V1171" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1172" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46046,7 +46046,7 @@
       <c r="T1174" s="6"/>
       <c r="U1174" s="6"/>
       <c r="V1174" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1175" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46177,7 +46177,7 @@
       <c r="T1178" s="6"/>
       <c r="U1178" s="6"/>
       <c r="V1178" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1179" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46249,7 +46249,7 @@
       <c r="T1180" s="6"/>
       <c r="U1180" s="6"/>
       <c r="V1180" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46355,7 +46355,7 @@
       <c r="T1183" s="6"/>
       <c r="U1183" s="6"/>
       <c r="V1183" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1184" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46390,7 +46390,7 @@
       <c r="T1184" s="6"/>
       <c r="U1184" s="6"/>
       <c r="V1184" s="36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1185" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46582,7 +46582,7 @@
       <c r="T1190" s="6"/>
       <c r="U1190" s="6"/>
       <c r="V1190" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46605,7 +46605,7 @@
         <v>87</v>
       </c>
       <c r="N1191" s="36" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O1191" s="6" t="s">
         <v>74</v>
@@ -46617,7 +46617,7 @@
       <c r="T1191" s="6"/>
       <c r="U1191" s="6"/>
       <c r="V1191" s="36" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1192" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46747,7 +46747,7 @@
       <c r="T1195" s="6"/>
       <c r="U1195" s="6"/>
       <c r="V1195" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1196" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47060,7 +47060,7 @@
       <c r="T1205" s="6"/>
       <c r="U1205" s="6"/>
       <c r="V1205" s="36" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47207,7 +47207,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47547,7 +47547,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47646,10 +47646,10 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V1223" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47841,7 +47841,7 @@
       <c r="T1229" s="6"/>
       <c r="U1229" s="6"/>
       <c r="V1229" s="36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1230" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47972,7 +47972,7 @@
       <c r="T1233" s="6"/>
       <c r="U1233" s="6"/>
       <c r="V1233" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48657,7 +48657,7 @@
       <c r="T1255" s="6"/>
       <c r="U1255" s="6"/>
       <c r="V1255" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1256" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48818,7 +48818,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -49228,7 +49228,7 @@
       <c r="T1273" s="6"/>
       <c r="U1273" s="6"/>
       <c r="V1273" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50511,7 +50511,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50545,7 +50545,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50707,7 +50707,7 @@
       <c r="T1319" s="6"/>
       <c r="U1319" s="6"/>
       <c r="V1319" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50904,7 +50904,7 @@
       <c r="T1325" s="6"/>
       <c r="U1325" s="6"/>
       <c r="V1325" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50941,7 +50941,7 @@
       <c r="T1326" s="6"/>
       <c r="U1326" s="6"/>
       <c r="V1326" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50978,7 +50978,7 @@
       <c r="T1327" s="6"/>
       <c r="U1327" s="6"/>
       <c r="V1327" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51277,7 +51277,7 @@
       <c r="T1336" s="6"/>
       <c r="U1336" s="6"/>
       <c r="V1336" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51313,7 +51313,7 @@
       <c r="T1337" s="6"/>
       <c r="U1337" s="6"/>
       <c r="V1337" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1338" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51349,7 +51349,7 @@
       <c r="T1338" s="6"/>
       <c r="U1338" s="6"/>
       <c r="V1338" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1339" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51385,7 +51385,7 @@
       <c r="T1339" s="6"/>
       <c r="U1339" s="6"/>
       <c r="V1339" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51581,7 +51581,7 @@
       <c r="T1345" s="6"/>
       <c r="U1345" s="6"/>
       <c r="V1345" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51617,7 +51617,7 @@
       <c r="T1346" s="6"/>
       <c r="U1346" s="6"/>
       <c r="V1346" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1347" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51653,7 +51653,7 @@
       <c r="T1347" s="6"/>
       <c r="U1347" s="6"/>
       <c r="V1347" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51917,7 +51917,7 @@
       <c r="T1355" s="6"/>
       <c r="U1355" s="6"/>
       <c r="V1355" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1356" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51953,7 +51953,7 @@
       <c r="T1356" s="6"/>
       <c r="U1356" s="6"/>
       <c r="V1356" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51989,7 +51989,7 @@
       <c r="T1357" s="6"/>
       <c r="U1357" s="6"/>
       <c r="V1357" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1358" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52026,7 +52026,7 @@
       <c r="T1358" s="6"/>
       <c r="U1358" s="6"/>
       <c r="V1358" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1359" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52096,7 +52096,7 @@
       <c r="T1360" s="6"/>
       <c r="U1360" s="6"/>
       <c r="V1360" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52230,7 +52230,7 @@
       <c r="T1364" s="6"/>
       <c r="U1364" s="6"/>
       <c r="V1364" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52301,7 +52301,7 @@
       <c r="T1366" s="6"/>
       <c r="U1366" s="6"/>
       <c r="V1366" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52337,7 +52337,7 @@
       <c r="T1367" s="6"/>
       <c r="U1367" s="6"/>
       <c r="V1367" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1368" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52374,7 +52374,7 @@
       <c r="T1368" s="6"/>
       <c r="U1368" s="6"/>
       <c r="V1368" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52412,7 +52412,7 @@
       <c r="T1369" s="6"/>
       <c r="U1369" s="6"/>
       <c r="V1369" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1370" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52482,7 +52482,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52616,7 +52616,7 @@
       <c r="T1375" s="6"/>
       <c r="U1375" s="6"/>
       <c r="V1375" s="36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52684,7 +52684,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52752,8 +52752,8 @@
       <c r="S1379" s="6"/>
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
-      <c r="V1379" s="36" t="s">
-        <v>1275</v>
+      <c r="V1379" s="37" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52790,7 +52790,7 @@
       <c r="T1380" s="6"/>
       <c r="U1380" s="6"/>
       <c r="V1380" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52860,7 +52860,7 @@
       <c r="T1382" s="6"/>
       <c r="U1382" s="6"/>
       <c r="V1382" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1383" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52897,7 +52897,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52933,7 +52933,7 @@
       <c r="T1384" s="6"/>
       <c r="U1384" s="6"/>
       <c r="V1384" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1385" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53001,7 +53001,7 @@
       <c r="T1386" s="6"/>
       <c r="U1386" s="6"/>
       <c r="V1386" s="36" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1387" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53297,7 +53297,7 @@
       <c r="T1395" s="6"/>
       <c r="U1395" s="6"/>
       <c r="V1395" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1396" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53333,7 +53333,7 @@
       <c r="T1396" s="6"/>
       <c r="U1396" s="6"/>
       <c r="V1396" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1397" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53369,7 +53369,7 @@
       <c r="T1397" s="6"/>
       <c r="U1397" s="6"/>
       <c r="V1397" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53405,7 +53405,7 @@
       <c r="T1398" s="6"/>
       <c r="U1398" s="6"/>
       <c r="V1398" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53473,7 +53473,7 @@
       <c r="T1400" s="6"/>
       <c r="U1400" s="6"/>
       <c r="V1400" s="36" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1401" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53595,8 +53595,8 @@
         <f t="shared" si="66"/>
         <v>90</v>
       </c>
-      <c r="N1404" s="36" t="s">
-        <v>736</v>
+      <c r="N1404" s="37" t="s">
+        <v>1522</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -53608,7 +53608,7 @@
       <c r="T1404" s="6"/>
       <c r="U1404" s="6"/>
       <c r="V1404" s="36" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53633,7 +53633,7 @@
         <v>91</v>
       </c>
       <c r="N1405" s="36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O1405" s="6" t="s">
         <v>74</v>
@@ -53645,7 +53645,7 @@
       <c r="T1405" s="6"/>
       <c r="U1405" s="6"/>
       <c r="V1405" s="36" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53686,7 +53686,7 @@
       <c r="T1406" s="6"/>
       <c r="U1406" s="6"/>
       <c r="V1406" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53723,7 +53723,7 @@
       <c r="T1407" s="6"/>
       <c r="U1407" s="6"/>
       <c r="V1407" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1408" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53759,7 +53759,7 @@
       <c r="T1408" s="6"/>
       <c r="U1408" s="6"/>
       <c r="V1408" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53795,7 +53795,7 @@
       <c r="T1409" s="6"/>
       <c r="U1409" s="6"/>
       <c r="V1409" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1410" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53851,7 +53851,7 @@
         <v>97</v>
       </c>
       <c r="N1411" s="36" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O1411" s="5"/>
       <c r="P1411" s="6"/>
@@ -53978,7 +53978,7 @@
         <v>101</v>
       </c>
       <c r="N1415" s="36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O1415" s="6" t="s">
         <v>74</v>
@@ -53990,7 +53990,7 @@
       <c r="T1415" s="6"/>
       <c r="U1415" s="6"/>
       <c r="V1415" s="36" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54026,7 +54026,7 @@
       <c r="T1416" s="6"/>
       <c r="U1416" s="6"/>
       <c r="V1416" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54062,7 +54062,7 @@
       <c r="T1417" s="6"/>
       <c r="U1417" s="6"/>
       <c r="V1417" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54118,7 +54118,7 @@
         <v>105</v>
       </c>
       <c r="N1419" s="36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O1419" s="6"/>
       <c r="P1419" s="6"/>
@@ -54246,7 +54246,7 @@
         <v>109</v>
       </c>
       <c r="N1423" s="36" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O1423" s="5"/>
       <c r="P1423" s="6"/>
@@ -54326,7 +54326,7 @@
       <c r="T1425" s="6"/>
       <c r="U1425" s="6"/>
       <c r="V1425" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54362,7 +54362,7 @@
       <c r="T1426" s="6"/>
       <c r="U1426" s="6"/>
       <c r="V1426" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54398,7 +54398,7 @@
       <c r="T1427" s="6"/>
       <c r="U1427" s="6"/>
       <c r="V1427" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1428" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54434,7 +54434,7 @@
       <c r="T1428" s="6"/>
       <c r="U1428" s="6"/>
       <c r="V1428" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1429" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54490,7 +54490,7 @@
         <v>116</v>
       </c>
       <c r="N1430" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O1430" s="5"/>
       <c r="P1430" s="6"/>
@@ -54522,7 +54522,7 @@
         <v>117</v>
       </c>
       <c r="N1431" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O1431" s="5"/>
       <c r="P1431" s="6"/>
@@ -54618,7 +54618,7 @@
         <v>120</v>
       </c>
       <c r="N1434" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O1434" s="5"/>
       <c r="P1434" s="6"/>
@@ -54714,7 +54714,7 @@
         <v>123</v>
       </c>
       <c r="N1437" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O1437" s="5"/>
       <c r="P1437" s="6"/>
@@ -54746,7 +54746,7 @@
         <v>124</v>
       </c>
       <c r="N1438" s="36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O1438" s="5"/>
       <c r="P1438" s="6"/>
@@ -54778,7 +54778,7 @@
         <v>125</v>
       </c>
       <c r="N1439" s="36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O1439" s="5"/>
       <c r="P1439" s="6"/>
@@ -54908,7 +54908,7 @@
         <v>129</v>
       </c>
       <c r="N1443" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O1443" s="5"/>
       <c r="P1443" s="6"/>
@@ -55004,7 +55004,7 @@
         <v>132</v>
       </c>
       <c r="N1446" s="36" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O1446" s="5"/>
       <c r="P1446" s="6"/>
@@ -55036,7 +55036,7 @@
         <v>133</v>
       </c>
       <c r="N1447" s="36" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O1447" s="5"/>
       <c r="P1447" s="6"/>
@@ -55166,7 +55166,7 @@
         <v>137</v>
       </c>
       <c r="N1451" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O1451" s="5"/>
       <c r="P1451" s="6"/>
@@ -55294,7 +55294,7 @@
         <v>141</v>
       </c>
       <c r="N1455" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O1455" s="5"/>
       <c r="P1455" s="6"/>
@@ -55358,7 +55358,7 @@
         <v>143</v>
       </c>
       <c r="N1457" s="36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O1457" s="5"/>
       <c r="P1457" s="6"/>
@@ -55428,7 +55428,7 @@
         <v>145</v>
       </c>
       <c r="N1459" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O1459" s="5"/>
       <c r="P1459" s="6"/>
@@ -55626,7 +55626,7 @@
         <v>151</v>
       </c>
       <c r="N1465" s="36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1465" s="6" t="s">
         <v>74</v>
@@ -55638,7 +55638,7 @@
       <c r="T1465" s="6"/>
       <c r="U1465" s="6"/>
       <c r="V1465" s="36" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55662,7 +55662,7 @@
         <v>152</v>
       </c>
       <c r="N1466" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O1466" s="5"/>
       <c r="P1466" s="6"/>
@@ -55694,7 +55694,7 @@
         <v>153</v>
       </c>
       <c r="N1467" s="36" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O1467" s="5"/>
       <c r="P1467" s="6"/>
@@ -55822,7 +55822,7 @@
         <v>157</v>
       </c>
       <c r="N1471" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O1471" s="5"/>
       <c r="P1471" s="6"/>
@@ -55919,7 +55919,7 @@
         <v>160</v>
       </c>
       <c r="N1474" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O1474" s="5"/>
       <c r="P1474" s="6"/>
@@ -56034,7 +56034,7 @@
       <c r="T1477" s="6"/>
       <c r="U1477" s="6"/>
       <c r="V1477" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1478" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56071,7 +56071,7 @@
       <c r="T1478" s="6"/>
       <c r="U1478" s="6"/>
       <c r="V1478" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56193,7 +56193,7 @@
         <v>168</v>
       </c>
       <c r="N1482" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O1482" s="6" t="s">
         <v>74</v>
@@ -56205,7 +56205,7 @@
       <c r="T1482" s="6"/>
       <c r="U1482" s="6"/>
       <c r="V1482" s="36" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56262,7 +56262,7 @@
         <v>170</v>
       </c>
       <c r="N1484" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O1484" s="6" t="s">
         <v>74</v>
@@ -56273,7 +56273,7 @@
       <c r="S1484" s="6"/>
       <c r="T1484" s="6"/>
       <c r="V1484" s="36" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56373,7 +56373,7 @@
       <c r="T1487" s="6"/>
       <c r="U1487" s="6"/>
       <c r="V1487" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1488" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56397,7 +56397,7 @@
         <v>174</v>
       </c>
       <c r="N1488" s="36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1488" s="6" t="s">
         <v>74</v>
@@ -56409,7 +56409,7 @@
       <c r="T1488" s="6"/>
       <c r="U1488" s="6"/>
       <c r="V1488" s="36" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56497,7 +56497,7 @@
         <v>177</v>
       </c>
       <c r="N1491" s="36" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O1491" s="5"/>
       <c r="P1491" s="6"/>
@@ -56529,7 +56529,7 @@
         <v>178</v>
       </c>
       <c r="N1492" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="O1492" s="5"/>
       <c r="P1492" s="9" t="s">
@@ -56541,7 +56541,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56563,7 +56563,7 @@
         <v>1</v>
       </c>
       <c r="N1493" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O1493" s="6" t="s">
         <v>74</v>
@@ -56575,7 +56575,7 @@
       <c r="T1493" s="6"/>
       <c r="U1493" s="6"/>
       <c r="V1493" s="36" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56663,7 +56663,7 @@
         <v>4</v>
       </c>
       <c r="N1496" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O1496" s="5"/>
       <c r="P1496" s="6"/>
@@ -56695,7 +56695,7 @@
         <v>5</v>
       </c>
       <c r="N1497" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O1497" s="5"/>
       <c r="P1497" s="6"/>
@@ -56888,7 +56888,7 @@
         <v>11</v>
       </c>
       <c r="N1503" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O1503" s="6" t="s">
         <v>74</v>
@@ -56900,7 +56900,7 @@
       <c r="T1503" s="6"/>
       <c r="U1503" s="6"/>
       <c r="V1503" s="36" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56924,7 +56924,7 @@
         <v>12</v>
       </c>
       <c r="N1504" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O1504" s="6" t="s">
         <v>74</v>
@@ -56936,7 +56936,7 @@
       <c r="T1504" s="6"/>
       <c r="U1504" s="6"/>
       <c r="V1504" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56960,7 +56960,7 @@
         <v>13</v>
       </c>
       <c r="N1505" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O1505" s="5"/>
       <c r="P1505" s="6"/>
@@ -57024,7 +57024,7 @@
         <v>15</v>
       </c>
       <c r="N1507" s="36" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O1507" s="5"/>
       <c r="P1507" s="6"/>
@@ -57122,7 +57122,7 @@
         <v>18</v>
       </c>
       <c r="N1510" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O1510" s="5"/>
       <c r="P1510" s="6"/>
@@ -57157,7 +57157,7 @@
         <v>19</v>
       </c>
       <c r="N1511" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O1511" s="6" t="s">
         <v>74</v>
@@ -57169,7 +57169,7 @@
       <c r="T1511" s="6"/>
       <c r="U1511" s="6"/>
       <c r="V1511" s="36" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1512" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57232,7 +57232,7 @@
         <v>21</v>
       </c>
       <c r="N1513" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O1513" s="5"/>
       <c r="P1513" s="6"/>
@@ -57268,7 +57268,7 @@
         <v>22</v>
       </c>
       <c r="N1514" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O1514" s="5"/>
       <c r="P1514" s="6"/>
@@ -57368,7 +57368,7 @@
         <v>25</v>
       </c>
       <c r="N1517" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O1517" s="5"/>
       <c r="P1517" s="6"/>
@@ -57403,7 +57403,7 @@
         <v>26</v>
       </c>
       <c r="N1518" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O1518" s="6" t="s">
         <v>74</v>
@@ -57415,7 +57415,7 @@
       <c r="T1518" s="6"/>
       <c r="U1518" s="6"/>
       <c r="V1518" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57477,7 +57477,7 @@
         <v>28</v>
       </c>
       <c r="N1520" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O1520" s="6"/>
       <c r="P1520" s="6"/>
@@ -57512,7 +57512,7 @@
         <v>29</v>
       </c>
       <c r="N1521" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O1521" s="5"/>
       <c r="P1521" s="6"/>
@@ -57544,7 +57544,7 @@
         <v>30</v>
       </c>
       <c r="N1522" s="36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O1522" s="5"/>
       <c r="P1522" s="6"/>
@@ -57610,7 +57610,7 @@
         <v>32</v>
       </c>
       <c r="N1524" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O1524" s="5"/>
       <c r="P1524" s="6"/>
@@ -57642,7 +57642,7 @@
         <v>33</v>
       </c>
       <c r="N1525" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O1525" s="5"/>
       <c r="P1525" s="6"/>
@@ -57678,7 +57678,7 @@
         <v>34</v>
       </c>
       <c r="N1526" s="36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O1526" s="5"/>
       <c r="P1526" s="6"/>
@@ -57868,7 +57868,7 @@
         <v>40</v>
       </c>
       <c r="N1532" s="36" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O1532" s="6" t="s">
         <v>74</v>
@@ -57880,7 +57880,7 @@
       <c r="T1532" s="6"/>
       <c r="U1532" s="6"/>
       <c r="V1532" s="36" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57996,7 +57996,7 @@
         <v>44</v>
       </c>
       <c r="N1536" s="36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O1536" s="6" t="s">
         <v>74</v>
@@ -58008,7 +58008,7 @@
       <c r="T1536" s="6"/>
       <c r="U1536" s="6"/>
       <c r="V1536" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1537" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58031,7 +58031,7 @@
         <v>45</v>
       </c>
       <c r="N1537" s="36" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O1537" s="6" t="s">
         <v>74</v>
@@ -58043,7 +58043,7 @@
       <c r="T1537" s="6"/>
       <c r="U1537" s="6"/>
       <c r="V1537" s="36" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1538" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58066,7 +58066,7 @@
         <v>46</v>
       </c>
       <c r="N1538" s="36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O1538" s="5"/>
       <c r="P1538" s="6"/>
@@ -58097,7 +58097,7 @@
         <v>47</v>
       </c>
       <c r="N1539" s="36" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O1539" s="6" t="s">
         <v>74</v>
@@ -58109,7 +58109,7 @@
       <c r="T1539" s="6"/>
       <c r="U1539" s="6"/>
       <c r="V1539" s="36" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1540" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58163,7 +58163,7 @@
         <v>49</v>
       </c>
       <c r="N1541" s="36" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O1541" s="6" t="s">
         <v>74</v>
@@ -58175,7 +58175,7 @@
       <c r="T1541" s="6"/>
       <c r="U1541" s="6"/>
       <c r="V1541" s="36" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1542" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58198,7 +58198,7 @@
         <v>50</v>
       </c>
       <c r="N1542" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O1542" s="5"/>
       <c r="P1542" s="6"/>
@@ -58228,7 +58228,7 @@
         <v>51</v>
       </c>
       <c r="N1543" s="36" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O1543" s="5"/>
       <c r="P1543" s="6"/>
@@ -58259,7 +58259,7 @@
         <v>52</v>
       </c>
       <c r="N1544" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O1544" s="6" t="s">
         <v>74</v>
@@ -58271,7 +58271,7 @@
       <c r="T1544" s="6"/>
       <c r="U1544" s="6"/>
       <c r="V1544" s="36" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1545" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58327,7 +58327,7 @@
         <v>54</v>
       </c>
       <c r="N1546" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O1546" s="5"/>
       <c r="P1546" s="6"/>
@@ -58358,7 +58358,7 @@
         <v>55</v>
       </c>
       <c r="N1547" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O1547" s="5"/>
       <c r="P1547" s="6"/>
@@ -58451,7 +58451,7 @@
         <v>58</v>
       </c>
       <c r="N1550" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O1550" s="6" t="s">
         <v>74</v>
@@ -58463,7 +58463,7 @@
       <c r="T1550" s="6"/>
       <c r="U1550" s="6"/>
       <c r="V1550" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1551" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58517,7 +58517,7 @@
         <v>60</v>
       </c>
       <c r="N1552" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O1552" s="6" t="s">
         <v>74</v>
@@ -58529,7 +58529,7 @@
       <c r="T1552" s="6"/>
       <c r="U1552" s="6"/>
       <c r="V1552" s="36" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58552,7 +58552,7 @@
         <v>61</v>
       </c>
       <c r="N1553" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O1553" s="5"/>
       <c r="P1553" s="6"/>
@@ -58583,7 +58583,7 @@
         <v>62</v>
       </c>
       <c r="N1554" s="36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O1554" s="5"/>
       <c r="P1554" s="6"/>
@@ -58645,7 +58645,7 @@
         <v>64</v>
       </c>
       <c r="N1556" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O1556" s="6" t="s">
         <v>74</v>
@@ -58657,7 +58657,7 @@
       <c r="T1556" s="6"/>
       <c r="U1556" s="6"/>
       <c r="V1556" s="36" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1557" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58837,7 +58837,7 @@
         <v>70</v>
       </c>
       <c r="N1562" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O1562" s="5"/>
       <c r="P1562" s="6"/>
@@ -58868,7 +58868,7 @@
         <v>71</v>
       </c>
       <c r="N1563" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O1563" s="6" t="s">
         <v>74</v>
@@ -58880,7 +58880,7 @@
       <c r="T1563" s="6"/>
       <c r="U1563" s="6"/>
       <c r="V1563" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1564" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58934,7 +58934,7 @@
         <v>73</v>
       </c>
       <c r="N1565" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O1565" s="5"/>
       <c r="P1565" s="6"/>
@@ -58965,7 +58965,7 @@
         <v>74</v>
       </c>
       <c r="N1566" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O1566" s="5"/>
       <c r="P1566" s="6"/>
@@ -58997,7 +58997,7 @@
         <v>75</v>
       </c>
       <c r="N1567" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O1567" s="5"/>
       <c r="P1567" s="6"/>
@@ -59028,7 +59028,7 @@
         <v>76</v>
       </c>
       <c r="N1568" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O1568" s="5"/>
       <c r="P1568" s="6"/>
@@ -59059,7 +59059,7 @@
         <v>77</v>
       </c>
       <c r="N1569" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O1569" s="6" t="s">
         <v>74</v>
@@ -59071,7 +59071,7 @@
       <c r="T1569" s="6"/>
       <c r="U1569" s="6"/>
       <c r="V1569" s="36" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1570" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59125,7 +59125,7 @@
         <v>79</v>
       </c>
       <c r="N1571" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O1571" s="5"/>
       <c r="P1571" s="6"/>
@@ -59156,7 +59156,7 @@
         <v>80</v>
       </c>
       <c r="N1572" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O1572" s="5"/>
       <c r="P1572" s="6"/>
@@ -59344,7 +59344,7 @@
         <v>86</v>
       </c>
       <c r="N1578" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O1578" s="6" t="s">
         <v>74</v>
@@ -59356,7 +59356,7 @@
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
       <c r="V1578" s="36" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59379,7 +59379,7 @@
         <v>87</v>
       </c>
       <c r="N1579" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O1579" s="5"/>
       <c r="P1579" s="6"/>
@@ -59410,7 +59410,7 @@
         <v>88</v>
       </c>
       <c r="N1580" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V1580" s="36"/>
     </row>
@@ -59434,7 +59434,7 @@
         <v>89</v>
       </c>
       <c r="N1581" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1581" s="36"/>
     </row>
@@ -59458,13 +59458,13 @@
         <v>90</v>
       </c>
       <c r="N1582" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O1582" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1582" s="36" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59640,13 +59640,13 @@
         <v>97</v>
       </c>
       <c r="N1589" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O1589" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1589" s="36" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59669,7 +59669,7 @@
         <v>98</v>
       </c>
       <c r="N1590" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1590" s="36"/>
     </row>
@@ -59693,7 +59693,7 @@
         <v>99</v>
       </c>
       <c r="N1591" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1591" s="36"/>
     </row>
@@ -59717,7 +59717,7 @@
         <v>100</v>
       </c>
       <c r="N1592" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1592" s="36"/>
     </row>
@@ -59740,13 +59740,13 @@
         <v>101</v>
       </c>
       <c r="N1593" s="36" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O1593" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1593" s="36" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1594" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59793,7 +59793,7 @@
         <v>103</v>
       </c>
       <c r="N1595" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1595" s="36"/>
     </row>
@@ -59817,7 +59817,7 @@
         <v>104</v>
       </c>
       <c r="N1596" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V1596" s="36"/>
     </row>
@@ -59964,13 +59964,13 @@
         <v>110</v>
       </c>
       <c r="N1602" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1602" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1602" s="36" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1603" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59993,7 +59993,7 @@
         <v>111</v>
       </c>
       <c r="N1603" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1603" s="36"/>
     </row>
@@ -60017,7 +60017,7 @@
         <v>112</v>
       </c>
       <c r="N1604" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V1604" s="36"/>
     </row>
@@ -60041,7 +60041,7 @@
         <v>113</v>
       </c>
       <c r="N1605" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1605" s="36"/>
     </row>
@@ -60065,7 +60065,7 @@
         <v>114</v>
       </c>
       <c r="N1606" s="36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V1606" s="36"/>
     </row>
@@ -60167,7 +60167,7 @@
         <v>74</v>
       </c>
       <c r="V1610" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1611" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60190,13 +60190,13 @@
         <v>119</v>
       </c>
       <c r="N1611" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O1611" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1611" s="36" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1612" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60219,7 +60219,7 @@
         <v>120</v>
       </c>
       <c r="N1612" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1612" s="36"/>
     </row>
@@ -60243,7 +60243,7 @@
         <v>121</v>
       </c>
       <c r="N1613" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V1613" s="36"/>
     </row>
@@ -60267,7 +60267,7 @@
         <v>122</v>
       </c>
       <c r="N1614" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1614" s="36"/>
     </row>
@@ -60291,7 +60291,7 @@
         <v>123</v>
       </c>
       <c r="N1615" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V1615" s="36"/>
     </row>
@@ -60369,7 +60369,7 @@
         <v>74</v>
       </c>
       <c r="V1618" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1619" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60392,13 +60392,13 @@
         <v>127</v>
       </c>
       <c r="N1619" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O1619" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1619" s="36" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60421,7 +60421,7 @@
         <v>128</v>
       </c>
       <c r="N1620" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1620" s="36"/>
     </row>
@@ -60445,7 +60445,7 @@
         <v>129</v>
       </c>
       <c r="N1621" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1621" s="36"/>
     </row>
@@ -60469,7 +60469,7 @@
         <v>130</v>
       </c>
       <c r="N1622" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V1622" s="36"/>
     </row>
@@ -60493,7 +60493,7 @@
         <v>131</v>
       </c>
       <c r="N1623" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V1623" s="36"/>
     </row>
@@ -60595,7 +60595,7 @@
         <v>74</v>
       </c>
       <c r="V1627" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1628" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60690,7 +60690,7 @@
         <v>139</v>
       </c>
       <c r="N1631" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1631" s="36"/>
     </row>
@@ -60741,7 +60741,7 @@
         <v>141</v>
       </c>
       <c r="N1633" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1633" s="36"/>
     </row>
@@ -60765,7 +60765,7 @@
         <v>142</v>
       </c>
       <c r="N1634" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V1634" s="36"/>
     </row>
@@ -60789,7 +60789,7 @@
         <v>143</v>
       </c>
       <c r="N1635" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1635" s="36"/>
     </row>
@@ -60813,7 +60813,7 @@
         <v>144</v>
       </c>
       <c r="N1636" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V1636" s="36"/>
     </row>
@@ -60885,7 +60885,7 @@
         <v>147</v>
       </c>
       <c r="N1639" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V1639" s="36"/>
     </row>
@@ -60933,7 +60933,7 @@
         <v>149</v>
       </c>
       <c r="N1641" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1641" s="36"/>
     </row>
@@ -60957,7 +60957,7 @@
         <v>150</v>
       </c>
       <c r="N1642" s="36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V1642" s="36"/>
     </row>
@@ -61007,7 +61007,7 @@
         <v>152</v>
       </c>
       <c r="N1644" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1644" s="36"/>
     </row>
@@ -61055,7 +61055,7 @@
         <v>154</v>
       </c>
       <c r="N1646" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1646" s="36"/>
     </row>
@@ -61103,7 +61103,7 @@
         <v>156</v>
       </c>
       <c r="N1648" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V1648" s="36"/>
     </row>
@@ -61127,7 +61127,7 @@
         <v>157</v>
       </c>
       <c r="N1649" s="36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V1649" s="36"/>
     </row>
@@ -61178,7 +61178,7 @@
         <v>159</v>
       </c>
       <c r="N1651" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1651" s="36"/>
     </row>
@@ -61202,7 +61202,7 @@
         <v>160</v>
       </c>
       <c r="N1652" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1652" s="36"/>
     </row>
@@ -61301,7 +61301,7 @@
         <v>164</v>
       </c>
       <c r="N1656" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1656" s="36"/>
     </row>
@@ -61421,13 +61421,13 @@
         <v>169</v>
       </c>
       <c r="N1661" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O1661" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1661" s="36" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1662" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61450,7 +61450,7 @@
         <v>170</v>
       </c>
       <c r="N1662" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V1662" s="36"/>
     </row>
@@ -61474,7 +61474,7 @@
         <v>171</v>
       </c>
       <c r="N1663" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O1663" s="6" t="s">
         <v>77</v>
@@ -61501,7 +61501,7 @@
         <v>172</v>
       </c>
       <c r="N1664" s="36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V1664" s="36"/>
     </row>
@@ -61531,7 +61531,7 @@
         <v>76</v>
       </c>
       <c r="V1665" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1666" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61605,13 +61605,13 @@
         <v>176</v>
       </c>
       <c r="N1668" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O1668" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1668" s="36" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1669" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61718,13 +61718,13 @@
         <v>180</v>
       </c>
       <c r="N1672" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O1672" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1672" s="36" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1673" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61801,13 +61801,13 @@
         <v>183</v>
       </c>
       <c r="N1675" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O1675" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1675" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1676" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61836,7 +61836,7 @@
         <v>74</v>
       </c>
       <c r="V1676" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1677" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61865,7 +61865,7 @@
         <v>76</v>
       </c>
       <c r="V1677" s="36" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1678" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61912,7 +61912,7 @@
         <v>187</v>
       </c>
       <c r="N1679" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V1679" s="36"/>
     </row>
@@ -61936,7 +61936,7 @@
         <v>188</v>
       </c>
       <c r="N1680" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1680" s="36"/>
     </row>
@@ -61960,7 +61960,7 @@
         <v>189</v>
       </c>
       <c r="N1681" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V1681" s="36"/>
     </row>
@@ -62035,7 +62035,7 @@
         <v>192</v>
       </c>
       <c r="N1684" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1684" s="36"/>
     </row>
@@ -62059,7 +62059,7 @@
         <v>193</v>
       </c>
       <c r="N1685" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V1685" s="36"/>
     </row>
@@ -62083,7 +62083,7 @@
         <v>194</v>
       </c>
       <c r="N1686" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V1686" s="36"/>
     </row>
@@ -62107,7 +62107,7 @@
         <v>195</v>
       </c>
       <c r="N1687" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V1687" s="36"/>
     </row>
@@ -62155,7 +62155,7 @@
         <v>197</v>
       </c>
       <c r="N1689" s="36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V1689" s="36"/>
     </row>
@@ -62179,7 +62179,7 @@
         <v>198</v>
       </c>
       <c r="N1690" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V1690" s="36"/>
     </row>
@@ -62203,7 +62203,7 @@
         <v>199</v>
       </c>
       <c r="N1691" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V1691" s="36"/>
     </row>
@@ -62227,7 +62227,7 @@
         <v>200</v>
       </c>
       <c r="N1692" s="36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V1692" s="36"/>
     </row>
@@ -62274,13 +62274,13 @@
         <v>202</v>
       </c>
       <c r="N1694" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O1694" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V1694" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62303,13 +62303,13 @@
         <v>203</v>
       </c>
       <c r="N1695" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O1695" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1695" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1696" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62332,13 +62332,13 @@
         <v>204</v>
       </c>
       <c r="N1696" s="36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O1696" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1696" s="36" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62361,7 +62361,7 @@
         <v>205</v>
       </c>
       <c r="N1697" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V1697" s="36"/>
     </row>
@@ -62409,7 +62409,7 @@
         <v>207</v>
       </c>
       <c r="N1699" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O1699" s="6" t="s">
         <v>77</v>
@@ -62436,13 +62436,13 @@
         <v>208</v>
       </c>
       <c r="N1700" s="49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="S1700" s="1" t="s">
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -62541,7 +62541,7 @@
         <v>212</v>
       </c>
       <c r="N1704" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V1704" s="36"/>
     </row>
@@ -62565,13 +62565,13 @@
         <v>213</v>
       </c>
       <c r="N1705" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O1705" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1705" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1706" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62642,7 +62642,7 @@
         <v>216</v>
       </c>
       <c r="N1708" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V1708" s="36"/>
     </row>
@@ -62666,13 +62666,13 @@
         <v>217</v>
       </c>
       <c r="N1709" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O1709" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1709" s="36" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1710" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62791,7 +62791,7 @@
         <v>222</v>
       </c>
       <c r="N1714" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1714" s="36"/>
     </row>
@@ -62839,7 +62839,7 @@
         <v>224</v>
       </c>
       <c r="N1716" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1716" s="36"/>
     </row>
@@ -62863,7 +62863,7 @@
         <v>225</v>
       </c>
       <c r="N1717" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V1717" s="36"/>
     </row>
@@ -62887,7 +62887,7 @@
         <v>226</v>
       </c>
       <c r="N1718" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V1718" s="36"/>
     </row>
@@ -62935,7 +62935,7 @@
         <v>228</v>
       </c>
       <c r="N1720" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V1720" s="36"/>
     </row>
@@ -62959,13 +62959,13 @@
         <v>229</v>
       </c>
       <c r="N1721" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O1721" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1721" s="36" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1722" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63108,7 +63108,7 @@
         <v>235</v>
       </c>
       <c r="N1727" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1727" s="36"/>
     </row>
@@ -63156,13 +63156,13 @@
         <v>237</v>
       </c>
       <c r="N1729" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O1729" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1729" s="36" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1730" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63185,7 +63185,7 @@
         <v>238</v>
       </c>
       <c r="N1730" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1730" s="36"/>
     </row>
@@ -63209,7 +63209,7 @@
         <v>239</v>
       </c>
       <c r="N1731" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V1731" s="36"/>
     </row>
@@ -63281,7 +63281,7 @@
         <v>242</v>
       </c>
       <c r="N1734" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V1734" s="36"/>
     </row>
@@ -63329,7 +63329,7 @@
         <v>244</v>
       </c>
       <c r="N1736" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1736" s="36"/>
     </row>
@@ -63353,7 +63353,7 @@
         <v>245</v>
       </c>
       <c r="N1737" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V1737" s="36"/>
     </row>
@@ -63377,7 +63377,7 @@
         <v>246</v>
       </c>
       <c r="N1738" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V1738" s="36"/>
     </row>
@@ -63425,7 +63425,7 @@
         <v>248</v>
       </c>
       <c r="N1740" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V1740" s="36"/>
     </row>
@@ -63496,7 +63496,7 @@
         <v>251</v>
       </c>
       <c r="N1743" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V1743" s="36"/>
     </row>
@@ -63595,7 +63595,7 @@
         <v>255</v>
       </c>
       <c r="N1747" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V1747" s="36"/>
     </row>
@@ -63619,7 +63619,7 @@
         <v>256</v>
       </c>
       <c r="N1748" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="V1748" s="36"/>
     </row>
@@ -63643,7 +63643,7 @@
         <v>257</v>
       </c>
       <c r="N1749" s="36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="V1749" s="36"/>
     </row>
@@ -63667,7 +63667,7 @@
         <v>258</v>
       </c>
       <c r="N1750" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V1750" s="36"/>
     </row>
@@ -63691,7 +63691,7 @@
         <v>259</v>
       </c>
       <c r="N1751" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V1751" s="36"/>
     </row>
@@ -63721,7 +63721,7 @@
         <v>76</v>
       </c>
       <c r="V1752" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63744,13 +63744,13 @@
         <v>261</v>
       </c>
       <c r="N1753" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O1753" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1753" s="36" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1754" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63773,7 +63773,7 @@
         <v>262</v>
       </c>
       <c r="N1754" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="V1754" s="36"/>
     </row>
@@ -63821,13 +63821,13 @@
         <v>264</v>
       </c>
       <c r="N1756" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O1756" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1756" s="36" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63850,13 +63850,13 @@
         <v>265</v>
       </c>
       <c r="N1757" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O1757" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1757" s="36" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1758" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63879,13 +63879,13 @@
         <v>266</v>
       </c>
       <c r="N1758" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O1758" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1758" s="36" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63932,7 +63932,7 @@
         <v>268</v>
       </c>
       <c r="N1760" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="V1760" s="36"/>
     </row>
@@ -63956,7 +63956,7 @@
         <v>269</v>
       </c>
       <c r="N1761" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="V1761" s="36"/>
     </row>
@@ -63980,7 +63980,7 @@
         <v>270</v>
       </c>
       <c r="N1762" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="V1762" s="36"/>
     </row>
@@ -64004,7 +64004,7 @@
         <v>271</v>
       </c>
       <c r="N1763" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="V1763" s="36"/>
     </row>
@@ -64052,7 +64052,7 @@
         <v>273</v>
       </c>
       <c r="N1765" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V1765" s="36"/>
     </row>
@@ -64124,13 +64124,13 @@
         <v>276</v>
       </c>
       <c r="N1768" s="36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O1768" s="6" t="s">
         <v>78</v>
       </c>
       <c r="V1768" s="36" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64177,7 +64177,7 @@
         <v>278</v>
       </c>
       <c r="N1770" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="V1770" s="36"/>
     </row>
@@ -64201,7 +64201,7 @@
         <v>279</v>
       </c>
       <c r="N1771" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V1771" s="36"/>
     </row>
@@ -64225,7 +64225,7 @@
         <v>280</v>
       </c>
       <c r="N1772" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V1772" s="36"/>
     </row>
@@ -64249,7 +64249,7 @@
         <v>281</v>
       </c>
       <c r="N1773" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="V1773" s="36"/>
     </row>
@@ -64273,7 +64273,7 @@
         <v>282</v>
       </c>
       <c r="N1774" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V1774" s="36"/>
     </row>
@@ -64297,7 +64297,7 @@
         <v>283</v>
       </c>
       <c r="N1775" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V1775" s="36"/>
     </row>
@@ -64321,7 +64321,7 @@
         <v>284</v>
       </c>
       <c r="N1776" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V1776" s="36"/>
     </row>
@@ -64345,7 +64345,7 @@
         <v>285</v>
       </c>
       <c r="N1777" s="36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="V1777" s="36"/>
     </row>
@@ -64369,7 +64369,7 @@
         <v>286</v>
       </c>
       <c r="N1778" s="36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V1778" s="36"/>
     </row>
@@ -64393,13 +64393,13 @@
         <v>287</v>
       </c>
       <c r="N1779" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V1779" s="36"/>
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64447,7 +64447,7 @@
         <v>289</v>
       </c>
       <c r="N1781" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V1781" s="36"/>
     </row>
@@ -64471,7 +64471,7 @@
         <v>290</v>
       </c>
       <c r="N1782" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V1782" s="36"/>
     </row>
@@ -64495,13 +64495,13 @@
         <v>291</v>
       </c>
       <c r="N1783" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O1783" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1783" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1784" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64524,7 +64524,7 @@
         <v>292</v>
       </c>
       <c r="N1784" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V1784" s="36"/>
     </row>
@@ -64548,7 +64548,7 @@
         <v>293</v>
       </c>
       <c r="N1785" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V1785" s="36"/>
     </row>
@@ -64596,13 +64596,13 @@
         <v>295</v>
       </c>
       <c r="N1787" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O1787" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1787" s="36" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1788" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64625,7 +64625,7 @@
         <v>296</v>
       </c>
       <c r="N1788" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V1788" s="36"/>
     </row>
@@ -64769,7 +64769,7 @@
         <v>302</v>
       </c>
       <c r="N1794" s="36" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="V1794" s="36"/>
     </row>
@@ -64895,13 +64895,13 @@
         <v>307</v>
       </c>
       <c r="N1799" s="36" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="P1799" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64994,7 +64994,7 @@
         <v>4</v>
       </c>
       <c r="N1803" s="36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="V1803" s="36"/>
     </row>
@@ -65042,7 +65042,7 @@
         <v>6</v>
       </c>
       <c r="N1805" s="36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="V1805" s="36"/>
     </row>
@@ -65066,7 +65066,7 @@
         <v>7</v>
       </c>
       <c r="N1806" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V1806" s="36"/>
     </row>
@@ -65114,7 +65114,7 @@
         <v>9</v>
       </c>
       <c r="N1808" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V1808" s="36"/>
     </row>
@@ -65138,7 +65138,7 @@
         <v>10</v>
       </c>
       <c r="N1809" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V1809" s="36"/>
     </row>
@@ -65162,7 +65162,7 @@
         <v>11</v>
       </c>
       <c r="N1810" s="36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V1810" s="36"/>
     </row>
@@ -65186,13 +65186,13 @@
         <v>12</v>
       </c>
       <c r="N1811" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O1811" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1811" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65215,7 +65215,7 @@
         <v>13</v>
       </c>
       <c r="N1812" s="36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V1812" s="36"/>
     </row>
@@ -65245,7 +65245,7 @@
         <v>76</v>
       </c>
       <c r="V1813" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1814" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65292,7 +65292,7 @@
         <v>16</v>
       </c>
       <c r="N1815" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="V1815" s="36"/>
     </row>
@@ -65316,13 +65316,13 @@
         <v>17</v>
       </c>
       <c r="N1816" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O1816" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1816" s="36" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1817" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65417,7 +65417,7 @@
         <v>21</v>
       </c>
       <c r="N1820" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V1820" s="36"/>
     </row>
@@ -65441,7 +65441,7 @@
         <v>22</v>
       </c>
       <c r="N1821" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V1821" s="36"/>
     </row>
@@ -65465,7 +65465,7 @@
         <v>23</v>
       </c>
       <c r="N1822" s="36" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1822" s="36"/>
     </row>
@@ -65513,13 +65513,13 @@
         <v>25</v>
       </c>
       <c r="N1824" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O1824" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1824" s="36" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65548,7 +65548,7 @@
         <v>76</v>
       </c>
       <c r="V1825" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1826" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65571,7 +65571,7 @@
         <v>27</v>
       </c>
       <c r="N1826" s="36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="V1826" s="36"/>
     </row>
@@ -65643,7 +65643,7 @@
         <v>30</v>
       </c>
       <c r="N1829" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V1829" s="36"/>
     </row>
@@ -65667,7 +65667,7 @@
         <v>31</v>
       </c>
       <c r="N1830" s="36" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1830" s="36"/>
     </row>
@@ -65763,7 +65763,7 @@
         <v>35</v>
       </c>
       <c r="N1834" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="V1834" s="36"/>
     </row>
@@ -65787,7 +65787,7 @@
         <v>36</v>
       </c>
       <c r="N1835" s="36" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="V1835" s="36"/>
     </row>
@@ -65811,7 +65811,7 @@
         <v>37</v>
       </c>
       <c r="N1836" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V1836" s="36"/>
     </row>
@@ -65859,7 +65859,7 @@
         <v>39</v>
       </c>
       <c r="N1838" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V1838" s="36"/>
     </row>
@@ -65907,13 +65907,13 @@
         <v>41</v>
       </c>
       <c r="N1840" s="36" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O1840" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1840" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1841" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65936,7 +65936,7 @@
         <v>42</v>
       </c>
       <c r="N1841" s="36" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V1841" s="36"/>
     </row>
@@ -65993,7 +65993,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -66017,7 +66017,7 @@
         <v>45</v>
       </c>
       <c r="N1844" s="36" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V1844" s="36"/>
     </row>
@@ -66041,13 +66041,13 @@
         <v>46</v>
       </c>
       <c r="N1845" s="36" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O1845" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1845" s="36" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1846" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66070,7 +66070,7 @@
         <v>47</v>
       </c>
       <c r="N1846" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V1846" s="36"/>
     </row>
@@ -66118,13 +66118,13 @@
         <v>49</v>
       </c>
       <c r="N1848" s="36" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O1848" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1848" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1849" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66170,7 +66170,7 @@
         <v>51</v>
       </c>
       <c r="N1850" s="36" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V1850" s="36"/>
     </row>
@@ -66290,7 +66290,7 @@
         <v>56</v>
       </c>
       <c r="N1855" s="36" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="V1855" s="36"/>
     </row>
@@ -66314,7 +66314,7 @@
         <v>57</v>
       </c>
       <c r="N1856" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1856" s="36"/>
     </row>
@@ -66410,7 +66410,7 @@
         <v>61</v>
       </c>
       <c r="N1860" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V1860" s="36"/>
     </row>
@@ -66440,7 +66440,7 @@
         <v>74</v>
       </c>
       <c r="V1861" s="36" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1862" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66631,7 +66631,7 @@
         <v>70</v>
       </c>
       <c r="N1869" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="V1869" s="36"/>
     </row>
@@ -66679,7 +66679,7 @@
         <v>72</v>
       </c>
       <c r="N1871" s="36" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V1871" s="36"/>
     </row>
@@ -66703,7 +66703,7 @@
         <v>73</v>
       </c>
       <c r="N1872" s="36" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V1872" s="36"/>
     </row>
@@ -66757,7 +66757,7 @@
         <v>74</v>
       </c>
       <c r="V1874" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1875" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66807,7 +66807,7 @@
         <v>77</v>
       </c>
       <c r="N1876" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="V1876" s="36"/>
     </row>
@@ -66903,7 +66903,7 @@
         <v>81</v>
       </c>
       <c r="N1880" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="V1880" s="36"/>
     </row>
@@ -66957,7 +66957,7 @@
         <v>74</v>
       </c>
       <c r="V1882" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1883" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67124,7 +67124,7 @@
         <v>90</v>
       </c>
       <c r="N1889" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V1889" s="36"/>
     </row>
@@ -67154,7 +67154,7 @@
         <v>74</v>
       </c>
       <c r="V1890" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1891" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67297,13 +67297,13 @@
         <v>97</v>
       </c>
       <c r="N1896" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O1896" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1896" s="36" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1897" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67350,13 +67350,13 @@
         <v>99</v>
       </c>
       <c r="N1898" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1898" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1898" s="36" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1899" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67379,7 +67379,7 @@
         <v>100</v>
       </c>
       <c r="N1899" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V1899" s="36"/>
     </row>
@@ -67402,13 +67402,13 @@
         <v>101</v>
       </c>
       <c r="N1900" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O1900" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1900" s="36" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67431,13 +67431,13 @@
         <v>102</v>
       </c>
       <c r="N1901" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O1901" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1901" s="36" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67508,13 +67508,13 @@
         <v>105</v>
       </c>
       <c r="N1904" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1904" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1904" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67609,13 +67609,13 @@
         <v>109</v>
       </c>
       <c r="N1908" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1908" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1908" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1909" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67713,7 +67713,7 @@
         <v>113</v>
       </c>
       <c r="N1912" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1912" s="36"/>
     </row>
@@ -67761,13 +67761,13 @@
         <v>115</v>
       </c>
       <c r="N1914" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O1914" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1914" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1915" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67790,13 +67790,13 @@
         <v>116</v>
       </c>
       <c r="N1915" s="36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O1915" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1915" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67819,7 +67819,7 @@
         <v>117</v>
       </c>
       <c r="N1916" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V1916" s="36"/>
     </row>
@@ -67867,7 +67867,7 @@
         <v>119</v>
       </c>
       <c r="N1918" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V1918" s="36"/>
     </row>
@@ -67891,7 +67891,7 @@
         <v>120</v>
       </c>
       <c r="N1919" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V1919" s="36"/>
     </row>
@@ -67990,7 +67990,7 @@
         <v>124</v>
       </c>
       <c r="N1923" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1923" s="36"/>
     </row>
@@ -68158,13 +68158,13 @@
         <v>131</v>
       </c>
       <c r="N1930" s="36" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O1930" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1930" s="36" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1931" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68187,13 +68187,13 @@
         <v>132</v>
       </c>
       <c r="N1931" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O1931" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1931" s="36" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1932" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68291,7 +68291,7 @@
         <v>136</v>
       </c>
       <c r="N1935" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V1935" s="36"/>
     </row>
@@ -68363,13 +68363,13 @@
         <v>139</v>
       </c>
       <c r="N1938" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O1938" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1938" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1939" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68560,7 +68560,7 @@
         <v>147</v>
       </c>
       <c r="N1946" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1946" s="36"/>
     </row>
@@ -68647,7 +68647,7 @@
         <v>150</v>
       </c>
       <c r="N1949" s="36" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="V1949" s="36"/>
     </row>
@@ -68674,7 +68674,7 @@
         <v>151</v>
       </c>
       <c r="N1950" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="V1950" s="36"/>
     </row>
@@ -68755,7 +68755,7 @@
         <v>154</v>
       </c>
       <c r="N1953" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1953" s="36"/>
     </row>
@@ -68803,7 +68803,7 @@
         <v>156</v>
       </c>
       <c r="N1955" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="V1955" s="36"/>
     </row>
@@ -68875,7 +68875,7 @@
         <v>159</v>
       </c>
       <c r="N1958" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="V1958" s="36"/>
     </row>
@@ -68971,7 +68971,7 @@
         <v>163</v>
       </c>
       <c r="N1962" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="V1962" s="36"/>
     </row>
@@ -69019,7 +69019,7 @@
         <v>165</v>
       </c>
       <c r="N1964" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1964" s="36"/>
     </row>
@@ -69043,7 +69043,7 @@
         <v>166</v>
       </c>
       <c r="N1965" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="V1965" s="36"/>
     </row>
@@ -69148,7 +69148,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69175,7 +69175,7 @@
         <v>74</v>
       </c>
       <c r="V1970" s="36" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1971" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69246,13 +69246,13 @@
         <v>4</v>
       </c>
       <c r="N1973" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O1973" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1973" s="36" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1974" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69281,7 +69281,7 @@
         <v>74</v>
       </c>
       <c r="V1974" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1975" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69304,7 +69304,7 @@
         <v>6</v>
       </c>
       <c r="N1975" s="36" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V1975" s="36"/>
     </row>
@@ -69376,13 +69376,13 @@
         <v>9</v>
       </c>
       <c r="N1978" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O1978" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1978" s="36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1979" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69429,7 +69429,7 @@
         <v>11</v>
       </c>
       <c r="N1980" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V1980" s="36"/>
     </row>
@@ -69453,7 +69453,7 @@
         <v>12</v>
       </c>
       <c r="N1981" s="36" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1981" s="36"/>
     </row>
@@ -69477,7 +69477,7 @@
         <v>13</v>
       </c>
       <c r="N1982" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V1982" s="36"/>
     </row>
@@ -69501,7 +69501,7 @@
         <v>14</v>
       </c>
       <c r="N1983" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="V1983" s="36"/>
     </row>
@@ -69549,7 +69549,7 @@
         <v>16</v>
       </c>
       <c r="N1985" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V1985" s="36"/>
     </row>
@@ -69573,13 +69573,13 @@
         <v>17</v>
       </c>
       <c r="N1986" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O1986" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1986" s="36" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1987" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69602,7 +69602,7 @@
         <v>18</v>
       </c>
       <c r="N1987" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V1987" s="36"/>
     </row>
@@ -69626,7 +69626,7 @@
         <v>19</v>
       </c>
       <c r="N1988" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V1988" s="36"/>
     </row>
@@ -69650,7 +69650,7 @@
         <v>20</v>
       </c>
       <c r="N1989" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V1989" s="36"/>
     </row>
@@ -69770,13 +69770,13 @@
         <v>25</v>
       </c>
       <c r="N1994" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O1994" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V1994" s="36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1995" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69823,7 +69823,7 @@
         <v>27</v>
       </c>
       <c r="N1996" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V1996" s="36"/>
     </row>
@@ -69847,7 +69847,7 @@
         <v>28</v>
       </c>
       <c r="N1997" s="36" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1997" s="36"/>
     </row>
@@ -69871,7 +69871,7 @@
         <v>29</v>
       </c>
       <c r="N1998" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V1998" s="36"/>
     </row>
@@ -69901,7 +69901,7 @@
         <v>74</v>
       </c>
       <c r="V1999" s="36" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="2000" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69948,7 +69948,7 @@
         <v>32</v>
       </c>
       <c r="N2001" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V2001" s="36"/>
     </row>
@@ -69972,13 +69972,13 @@
         <v>33</v>
       </c>
       <c r="N2002" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O2002" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2002" s="36" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70001,7 +70001,7 @@
         <v>34</v>
       </c>
       <c r="N2003" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V2003" s="36"/>
     </row>
@@ -70025,7 +70025,7 @@
         <v>35</v>
       </c>
       <c r="N2004" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="V2004" s="36"/>
     </row>
@@ -70049,7 +70049,7 @@
         <v>36</v>
       </c>
       <c r="N2005" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V2005" s="36"/>
     </row>
@@ -70199,7 +70199,7 @@
         <v>74</v>
       </c>
       <c r="V2011" s="36" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2012" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70300,7 +70300,7 @@
         <v>76</v>
       </c>
       <c r="V2015" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2016" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70445,7 +70445,7 @@
         <v>52</v>
       </c>
       <c r="N2021" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V2021" s="36"/>
     </row>
@@ -70517,7 +70517,7 @@
         <v>55</v>
       </c>
       <c r="N2024" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V2024" s="36"/>
     </row>
@@ -70541,7 +70541,7 @@
         <v>56</v>
       </c>
       <c r="N2025" s="36" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V2025" s="36"/>
     </row>
@@ -70589,7 +70589,7 @@
         <v>58</v>
       </c>
       <c r="N2027" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V2027" s="36"/>
     </row>
@@ -70661,7 +70661,7 @@
         <v>61</v>
       </c>
       <c r="N2030" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V2030" s="36"/>
     </row>
@@ -70709,7 +70709,7 @@
         <v>63</v>
       </c>
       <c r="N2032" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V2032" s="36"/>
     </row>
@@ -70733,7 +70733,7 @@
         <v>64</v>
       </c>
       <c r="N2033" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V2033" s="36"/>
     </row>
@@ -70805,7 +70805,7 @@
         <v>67</v>
       </c>
       <c r="N2036" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V2036" s="36"/>
     </row>
@@ -70877,7 +70877,7 @@
         <v>70</v>
       </c>
       <c r="N2039" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V2039" s="36"/>
     </row>
@@ -70901,7 +70901,7 @@
         <v>71</v>
       </c>
       <c r="N2040" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V2040" s="36"/>
     </row>
@@ -70925,7 +70925,7 @@
         <v>72</v>
       </c>
       <c r="N2041" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V2041" s="36"/>
     </row>
@@ -70997,7 +70997,7 @@
         <v>75</v>
       </c>
       <c r="N2044" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V2044" s="36"/>
     </row>
@@ -71021,7 +71021,7 @@
         <v>76</v>
       </c>
       <c r="N2045" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V2045" s="36"/>
     </row>
@@ -71093,7 +71093,7 @@
         <v>79</v>
       </c>
       <c r="N2048" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V2048" s="36"/>
     </row>
@@ -71117,13 +71117,13 @@
         <v>80</v>
       </c>
       <c r="N2049" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O2049" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2049" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="2050" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,13 +71194,13 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2052" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2053" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71223,7 +71223,7 @@
         <v>84</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V2053" s="36"/>
     </row>
@@ -71271,7 +71271,7 @@
         <v>86</v>
       </c>
       <c r="N2055" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V2055" s="36"/>
     </row>
@@ -71319,13 +71319,13 @@
         <v>88</v>
       </c>
       <c r="N2057" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O2057" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2057" s="36" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71348,7 +71348,7 @@
         <v>89</v>
       </c>
       <c r="N2058" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S2058" s="6" t="s">
         <v>90</v>
@@ -71378,7 +71378,7 @@
         <v>90</v>
       </c>
       <c r="N2059" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V2059" s="36"/>
     </row>
@@ -71426,13 +71426,13 @@
         <v>92</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O2061" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2061" s="36" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2062" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71455,7 +71455,7 @@
         <v>93</v>
       </c>
       <c r="N2062" s="36" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="V2062" s="36"/>
     </row>
@@ -71623,7 +71623,7 @@
         <v>100</v>
       </c>
       <c r="N2069" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V2069" s="36"/>
     </row>
@@ -71646,13 +71646,13 @@
         <v>101</v>
       </c>
       <c r="N2070" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O2070" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2070" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71747,13 +71747,13 @@
         <v>105</v>
       </c>
       <c r="N2074" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O2074" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2074" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2075" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71776,13 +71776,13 @@
         <v>106</v>
       </c>
       <c r="N2075" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O2075" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2075" s="36" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2076" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71829,13 +71829,13 @@
         <v>108</v>
       </c>
       <c r="N2077" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O2077" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2077" s="36" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71882,7 +71882,7 @@
         <v>110</v>
       </c>
       <c r="N2079" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V2079" s="36"/>
     </row>
@@ -71930,7 +71930,7 @@
         <v>112</v>
       </c>
       <c r="N2081" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="V2081" s="36"/>
     </row>
@@ -71954,7 +71954,7 @@
         <v>113</v>
       </c>
       <c r="N2082" s="36" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V2082" s="36"/>
     </row>
@@ -72074,7 +72074,7 @@
         <v>118</v>
       </c>
       <c r="N2087" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V2087" s="36"/>
     </row>
@@ -72122,13 +72122,13 @@
         <v>120</v>
       </c>
       <c r="N2089" s="36" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O2089" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2089" s="36" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2090" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72151,7 +72151,7 @@
         <v>121</v>
       </c>
       <c r="N2090" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V2090" s="36"/>
     </row>
@@ -72208,7 +72208,7 @@
         <v>123</v>
       </c>
       <c r="N2092" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="V2092" s="36"/>
     </row>
@@ -72283,7 +72283,7 @@
         <v>126</v>
       </c>
       <c r="N2095" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V2095" s="36"/>
     </row>
@@ -72307,13 +72307,13 @@
         <v>127</v>
       </c>
       <c r="N2096" s="37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O2096" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2096" s="37" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2097" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72360,7 +72360,7 @@
         <v>129</v>
       </c>
       <c r="N2098" s="36" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V2098" s="36"/>
     </row>
@@ -72384,7 +72384,7 @@
         <v>130</v>
       </c>
       <c r="N2099" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V2099" s="36"/>
     </row>
@@ -72432,7 +72432,7 @@
         <v>132</v>
       </c>
       <c r="N2101" s="36" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V2101" s="36"/>
     </row>
@@ -72510,7 +72510,7 @@
         <v>76</v>
       </c>
       <c r="V2104" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2105" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72539,7 +72539,7 @@
         <v>74</v>
       </c>
       <c r="V2105" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2106" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72568,7 +72568,7 @@
         <v>74</v>
       </c>
       <c r="V2106" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2107" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72621,7 +72621,7 @@
         <v>74</v>
       </c>
       <c r="V2108" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72644,13 +72644,13 @@
         <v>140</v>
       </c>
       <c r="N2109" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O2109" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2109" s="36" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72697,13 +72697,13 @@
         <v>142</v>
       </c>
       <c r="N2111" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O2111" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2111" s="36" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72783,7 +72783,7 @@
         <v>74</v>
       </c>
       <c r="V2114" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2115" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72830,7 +72830,7 @@
         <v>147</v>
       </c>
       <c r="N2116" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V2116" s="36"/>
     </row>
@@ -72950,7 +72950,7 @@
         <v>152</v>
       </c>
       <c r="N2121" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V2121" s="36"/>
     </row>
@@ -73022,7 +73022,7 @@
         <v>155</v>
       </c>
       <c r="N2124" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V2124" s="36"/>
     </row>
@@ -73097,7 +73097,7 @@
         <v>158</v>
       </c>
       <c r="N2127" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V2127" s="36"/>
     </row>
@@ -73175,7 +73175,7 @@
         <v>74</v>
       </c>
       <c r="V2130" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2131" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73204,7 +73204,7 @@
         <v>74</v>
       </c>
       <c r="V2131" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="2132" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73260,7 +73260,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73287,7 +73287,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73308,7 +73308,7 @@
         <v>1</v>
       </c>
       <c r="N2135" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V2135" s="36"/>
     </row>
@@ -73332,13 +73332,13 @@
         <v>2</v>
       </c>
       <c r="N2136" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O2136" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2136" s="36" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73361,13 +73361,13 @@
         <v>3</v>
       </c>
       <c r="N2137" s="36" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O2137" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2137" s="36" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73414,13 +73414,13 @@
         <v>5</v>
       </c>
       <c r="N2139" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O2139" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2139" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="2140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73443,7 +73443,7 @@
         <v>6</v>
       </c>
       <c r="N2140" s="36" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V2140" s="36"/>
     </row>
@@ -73467,13 +73467,13 @@
         <v>7</v>
       </c>
       <c r="N2141" s="36" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O2141" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2141" s="36" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73496,13 +73496,13 @@
         <v>8</v>
       </c>
       <c r="N2142" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O2142" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2142" s="36" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73549,7 +73549,7 @@
         <v>10</v>
       </c>
       <c r="N2144" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V2144" s="36"/>
     </row>
@@ -73573,7 +73573,7 @@
         <v>11</v>
       </c>
       <c r="N2145" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V2145" s="36"/>
     </row>
@@ -73597,13 +73597,13 @@
         <v>12</v>
       </c>
       <c r="N2146" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O2146" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2146" s="36" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2147" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73626,13 +73626,13 @@
         <v>13</v>
       </c>
       <c r="N2147" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O2147" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2147" s="36" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2148" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73679,13 +73679,13 @@
         <v>15</v>
       </c>
       <c r="N2149" s="36" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O2149" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2149" s="36" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73732,7 +73732,7 @@
         <v>17</v>
       </c>
       <c r="N2151" s="36" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V2151" s="36"/>
     </row>
@@ -73756,7 +73756,7 @@
         <v>18</v>
       </c>
       <c r="N2152" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2152" s="36"/>
     </row>
@@ -73780,7 +73780,7 @@
         <v>19</v>
       </c>
       <c r="N2153" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2153" s="36"/>
     </row>
@@ -73828,7 +73828,7 @@
         <v>21</v>
       </c>
       <c r="N2155" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V2155" s="36"/>
     </row>
@@ -73852,7 +73852,7 @@
         <v>22</v>
       </c>
       <c r="N2156" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2156" s="36"/>
     </row>
@@ -73876,7 +73876,7 @@
         <v>23</v>
       </c>
       <c r="N2157" s="36" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2157" s="36"/>
     </row>
@@ -73900,13 +73900,13 @@
         <v>24</v>
       </c>
       <c r="N2158" s="36" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O2158" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2158" s="36" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2159" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73929,13 +73929,13 @@
         <v>25</v>
       </c>
       <c r="N2159" s="36" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O2159" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2159" s="36" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2160" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73958,13 +73958,13 @@
         <v>26</v>
       </c>
       <c r="N2160" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2160" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73985,7 +73985,7 @@
         <v>1</v>
       </c>
       <c r="N2161" s="36" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V2161" s="36"/>
     </row>
@@ -74009,13 +74009,13 @@
         <v>2</v>
       </c>
       <c r="N2162" s="36" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O2162" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2162" s="36" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2163" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74038,13 +74038,13 @@
         <v>3</v>
       </c>
       <c r="N2163" s="36" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2163" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2163" s="36" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2164" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74091,7 +74091,7 @@
         <v>5</v>
       </c>
       <c r="N2165" s="36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V2165" s="36"/>
     </row>
@@ -74115,7 +74115,7 @@
         <v>6</v>
       </c>
       <c r="N2166" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V2166" s="36"/>
     </row>
@@ -74139,13 +74139,13 @@
         <v>7</v>
       </c>
       <c r="N2167" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O2167" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2167" s="36" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2168" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74168,7 +74168,7 @@
         <v>8</v>
       </c>
       <c r="N2168" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V2168" s="36"/>
     </row>
@@ -74216,7 +74216,7 @@
         <v>10</v>
       </c>
       <c r="N2170" s="36" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V2170" s="36"/>
     </row>
@@ -74240,7 +74240,7 @@
         <v>11</v>
       </c>
       <c r="N2171" s="36" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V2171" s="36"/>
     </row>
@@ -74264,13 +74264,13 @@
         <v>12</v>
       </c>
       <c r="N2172" s="36" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="O2172" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2172" s="36" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,13 +74293,13 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2173" s="36" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74346,13 +74346,13 @@
         <v>15</v>
       </c>
       <c r="N2175" s="36" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O2175" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2175" s="36" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2176" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74399,7 +74399,7 @@
         <v>17</v>
       </c>
       <c r="N2177" s="36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V2177" s="36"/>
     </row>
@@ -74423,7 +74423,7 @@
         <v>18</v>
       </c>
       <c r="N2178" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2178" s="36"/>
     </row>
@@ -74447,7 +74447,7 @@
         <v>19</v>
       </c>
       <c r="N2179" s="36" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V2179" s="36"/>
     </row>
@@ -74495,7 +74495,7 @@
         <v>21</v>
       </c>
       <c r="N2181" s="36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V2181" s="36"/>
     </row>
@@ -74519,7 +74519,7 @@
         <v>22</v>
       </c>
       <c r="N2182" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2182" s="36"/>
     </row>
@@ -74543,7 +74543,7 @@
         <v>23</v>
       </c>
       <c r="N2183" s="36" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V2183" s="36"/>
     </row>
@@ -74567,13 +74567,13 @@
         <v>24</v>
       </c>
       <c r="N2184" s="36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O2184" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2184" s="36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2185" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74596,13 +74596,13 @@
         <v>25</v>
       </c>
       <c r="N2185" s="36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O2185" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2185" s="36" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74625,13 +74625,13 @@
         <v>26</v>
       </c>
       <c r="N2186" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2186" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74652,13 +74652,13 @@
         <v>1</v>
       </c>
       <c r="N2187" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O2187" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2187" s="36" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74681,13 +74681,13 @@
         <v>2</v>
       </c>
       <c r="N2188" s="36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O2188" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2188" s="36" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74710,13 +74710,13 @@
         <v>3</v>
       </c>
       <c r="N2189" s="36" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O2189" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2189" s="36" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74763,13 +74763,13 @@
         <v>5</v>
       </c>
       <c r="N2191" s="36" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O2191" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2191" s="36" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74795,13 +74795,13 @@
         <v>6</v>
       </c>
       <c r="N2192" s="36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O2192" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2192" s="36" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74827,13 +74827,13 @@
         <v>7</v>
       </c>
       <c r="N2193" s="36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O2193" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2193" s="36" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2194" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74859,13 +74859,13 @@
         <v>8</v>
       </c>
       <c r="N2194" s="36" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O2194" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2194" s="36" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2195" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74912,13 +74912,13 @@
         <v>10</v>
       </c>
       <c r="N2196" s="36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O2196" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2196" s="36" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2197" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74941,13 +74941,13 @@
         <v>11</v>
       </c>
       <c r="N2197" s="36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O2197" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2197" s="36" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2198" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74970,13 +74970,13 @@
         <v>12</v>
       </c>
       <c r="N2198" s="36" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O2198" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2198" s="36" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2199" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74999,13 +74999,13 @@
         <v>13</v>
       </c>
       <c r="N2199" s="36" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O2199" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2199" s="36" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2200" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75052,7 +75052,7 @@
         <v>15</v>
       </c>
       <c r="N2201" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V2201" s="36"/>
     </row>
@@ -75100,7 +75100,7 @@
         <v>17</v>
       </c>
       <c r="N2203" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V2203" s="36"/>
     </row>
@@ -75124,7 +75124,7 @@
         <v>18</v>
       </c>
       <c r="N2204" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2204" s="36"/>
     </row>
@@ -75148,13 +75148,13 @@
         <v>19</v>
       </c>
       <c r="N2205" s="36" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O2205" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2205" s="36" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75201,7 +75201,7 @@
         <v>21</v>
       </c>
       <c r="N2207" s="36" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V2207" s="36"/>
     </row>
@@ -75225,7 +75225,7 @@
         <v>22</v>
       </c>
       <c r="N2208" s="36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V2208" s="36"/>
     </row>
@@ -75249,13 +75249,13 @@
         <v>23</v>
       </c>
       <c r="N2209" s="36" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O2209" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2209" s="36" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75278,13 +75278,13 @@
         <v>24</v>
       </c>
       <c r="N2210" s="36" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O2210" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2210" s="36" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2211" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75307,13 +75307,13 @@
         <v>25</v>
       </c>
       <c r="N2211" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2211" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75334,13 +75334,13 @@
         <v>1</v>
       </c>
       <c r="N2212" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O2212" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2212" s="36" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75363,7 +75363,7 @@
         <v>2</v>
       </c>
       <c r="N2213" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V2213" s="36"/>
     </row>
@@ -75387,7 +75387,7 @@
         <v>3</v>
       </c>
       <c r="N2214" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V2214" s="36"/>
     </row>
@@ -75435,13 +75435,13 @@
         <v>5</v>
       </c>
       <c r="N2216" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O2216" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2216" s="36" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75467,13 +75467,13 @@
         <v>6</v>
       </c>
       <c r="N2217" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O2217" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2217" s="36" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75499,13 +75499,13 @@
         <v>7</v>
       </c>
       <c r="N2218" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O2218" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2218" s="36" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75531,13 +75531,13 @@
         <v>8</v>
       </c>
       <c r="N2219" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O2219" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2219" s="36" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75587,13 +75587,13 @@
         <v>10</v>
       </c>
       <c r="N2221" s="36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O2221" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2221" s="36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75616,13 +75616,13 @@
         <v>11</v>
       </c>
       <c r="N2222" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O2222" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2222" s="36" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75645,13 +75645,13 @@
         <v>12</v>
       </c>
       <c r="N2223" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O2223" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2223" s="36" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75674,13 +75674,13 @@
         <v>13</v>
       </c>
       <c r="N2224" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O2224" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2224" s="36" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75727,13 +75727,13 @@
         <v>15</v>
       </c>
       <c r="N2226" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O2226" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2226" s="36" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2227" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75780,7 +75780,7 @@
         <v>17</v>
       </c>
       <c r="N2228" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V2228" s="36"/>
     </row>
@@ -75804,7 +75804,7 @@
         <v>18</v>
       </c>
       <c r="N2229" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2229" s="36"/>
     </row>
@@ -75828,13 +75828,13 @@
         <v>19</v>
       </c>
       <c r="N2230" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O2230" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2230" s="36" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2231" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75881,7 +75881,7 @@
         <v>21</v>
       </c>
       <c r="N2232" s="36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V2232" s="36"/>
     </row>
@@ -75905,13 +75905,13 @@
         <v>22</v>
       </c>
       <c r="N2233" s="36" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O2233" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2233" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75934,13 +75934,13 @@
         <v>23</v>
       </c>
       <c r="N2234" s="36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O2234" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2234" s="36" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2235" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75963,13 +75963,13 @@
         <v>24</v>
       </c>
       <c r="N2235" s="36" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O2235" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2235" s="36" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2236" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75992,13 +75992,13 @@
         <v>25</v>
       </c>
       <c r="N2236" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2236" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76019,7 +76019,7 @@
         <v>1</v>
       </c>
       <c r="N2237" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V2237" s="36"/>
     </row>
@@ -76043,7 +76043,7 @@
         <v>2</v>
       </c>
       <c r="N2238" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2238" s="36"/>
     </row>
@@ -76067,7 +76067,7 @@
         <v>3</v>
       </c>
       <c r="N2239" s="36" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V2239" s="36"/>
     </row>
@@ -76091,7 +76091,7 @@
         <v>4</v>
       </c>
       <c r="N2240" s="36" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V2240" s="36"/>
     </row>
@@ -76115,7 +76115,7 @@
         <v>5</v>
       </c>
       <c r="N2241" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2241" s="36"/>
     </row>
@@ -76139,7 +76139,7 @@
         <v>6</v>
       </c>
       <c r="N2242" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V2242" s="36"/>
     </row>
@@ -76163,7 +76163,7 @@
         <v>7</v>
       </c>
       <c r="N2243" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V2243" s="36"/>
     </row>
@@ -76187,7 +76187,7 @@
         <v>8</v>
       </c>
       <c r="N2244" s="36" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V2244" s="36"/>
     </row>
@@ -76211,7 +76211,7 @@
         <v>9</v>
       </c>
       <c r="N2245" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2245" s="36"/>
     </row>
@@ -76235,7 +76235,7 @@
         <v>10</v>
       </c>
       <c r="N2246" s="36" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V2246" s="36"/>
     </row>
@@ -76283,7 +76283,7 @@
         <v>12</v>
       </c>
       <c r="N2248" s="36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V2248" s="36"/>
     </row>
@@ -76307,13 +76307,13 @@
         <v>13</v>
       </c>
       <c r="N2249" s="36" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O2249" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2249" s="36" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76360,7 +76360,7 @@
         <v>15</v>
       </c>
       <c r="N2251" s="36" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V2251" s="36"/>
     </row>
@@ -76408,10 +76408,10 @@
         <v>17</v>
       </c>
       <c r="N2253" s="53" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76435,7 +76435,7 @@
         <v>18</v>
       </c>
       <c r="N2254" s="36" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V2254" s="36"/>
     </row>
@@ -76483,7 +76483,7 @@
         <v>20</v>
       </c>
       <c r="N2256" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V2256" s="36"/>
     </row>
@@ -76507,13 +76507,13 @@
         <v>21</v>
       </c>
       <c r="N2257" s="36" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O2257" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2257" s="36" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2258" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76536,18 +76536,18 @@
         <v>22</v>
       </c>
       <c r="N2258" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O2258" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2258" s="36" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76568,13 +76568,13 @@
         <v>23</v>
       </c>
       <c r="N2259" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2259" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76595,7 +76595,7 @@
         <v>1</v>
       </c>
       <c r="N2260" s="36" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V2260" s="36"/>
     </row>
@@ -76619,7 +76619,7 @@
         <v>2</v>
       </c>
       <c r="N2261" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2261" s="36"/>
     </row>
@@ -76643,7 +76643,7 @@
         <v>3</v>
       </c>
       <c r="N2262" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V2262" s="36"/>
     </row>
@@ -76667,13 +76667,13 @@
         <v>4</v>
       </c>
       <c r="N2263" s="36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O2263" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2263" s="36" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2264" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76696,7 +76696,7 @@
         <v>5</v>
       </c>
       <c r="N2264" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2264" s="36"/>
     </row>
@@ -76720,7 +76720,7 @@
         <v>6</v>
       </c>
       <c r="N2265" s="36" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V2265" s="36"/>
     </row>
@@ -76744,13 +76744,13 @@
         <v>7</v>
       </c>
       <c r="N2266" s="36" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O2266" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2266" s="36" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2267" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76773,7 +76773,7 @@
         <v>8</v>
       </c>
       <c r="N2267" s="36" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V2267" s="36"/>
     </row>
@@ -76797,7 +76797,7 @@
         <v>9</v>
       </c>
       <c r="N2268" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2268" s="36"/>
     </row>
@@ -76821,7 +76821,7 @@
         <v>10</v>
       </c>
       <c r="N2269" s="36" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V2269" s="36"/>
     </row>
@@ -76845,13 +76845,13 @@
         <v>11</v>
       </c>
       <c r="N2270" s="36" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O2270" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2270" s="36" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2271" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76874,13 +76874,13 @@
         <v>12</v>
       </c>
       <c r="N2271" s="36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O2271" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2271" s="36" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2272" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76927,7 +76927,7 @@
         <v>14</v>
       </c>
       <c r="N2273" s="36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V2273" s="36"/>
     </row>
@@ -76951,13 +76951,13 @@
         <v>15</v>
       </c>
       <c r="N2274" s="36" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O2274" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2274" s="36" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77004,7 +77004,7 @@
         <v>17</v>
       </c>
       <c r="N2276" s="36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V2276" s="36"/>
     </row>
@@ -77028,13 +77028,13 @@
         <v>18</v>
       </c>
       <c r="N2277" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O2277" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2277" s="36" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77057,13 +77057,13 @@
         <v>19</v>
       </c>
       <c r="N2278" s="36" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O2278" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2278" s="36" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77086,13 +77086,13 @@
         <v>20</v>
       </c>
       <c r="N2279" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2279" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77113,7 +77113,7 @@
         <v>1</v>
       </c>
       <c r="N2280" s="36" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V2280" s="36"/>
     </row>
@@ -77137,7 +77137,7 @@
         <v>2</v>
       </c>
       <c r="N2281" s="36" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V2281" s="36"/>
     </row>
@@ -77161,7 +77161,7 @@
         <v>3</v>
       </c>
       <c r="N2282" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2282" s="36"/>
     </row>
@@ -77185,13 +77185,13 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2283" s="36" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2284" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77214,7 +77214,7 @@
         <v>5</v>
       </c>
       <c r="N2284" s="36" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V2284" s="36"/>
     </row>
@@ -77238,13 +77238,13 @@
         <v>6</v>
       </c>
       <c r="N2285" s="49" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O2285" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2285" s="36" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77267,7 +77267,7 @@
         <v>7</v>
       </c>
       <c r="N2286" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2286" s="36"/>
     </row>
@@ -77291,13 +77291,13 @@
         <v>8</v>
       </c>
       <c r="N2287" s="36" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O2287" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2287" s="36" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="2288" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77320,7 +77320,7 @@
         <v>9</v>
       </c>
       <c r="N2288" s="36" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V2288" s="36"/>
     </row>
@@ -77344,13 +77344,13 @@
         <v>10</v>
       </c>
       <c r="N2289" s="36" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O2289" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2289" s="36" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2290" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77373,7 +77373,7 @@
         <v>11</v>
       </c>
       <c r="N2290" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2290" s="36"/>
     </row>
@@ -77397,13 +77397,13 @@
         <v>12</v>
       </c>
       <c r="N2291" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O2291" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2291" s="36" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77450,7 +77450,7 @@
         <v>14</v>
       </c>
       <c r="N2293" s="36" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V2293" s="36"/>
     </row>
@@ -77474,7 +77474,7 @@
         <v>15</v>
       </c>
       <c r="N2294" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V2294" s="36"/>
     </row>
@@ -77522,7 +77522,7 @@
         <v>17</v>
       </c>
       <c r="N2296" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V2296" s="36"/>
     </row>
@@ -77546,7 +77546,7 @@
         <v>18</v>
       </c>
       <c r="N2297" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V2297" s="36"/>
     </row>
@@ -77594,7 +77594,7 @@
         <v>20</v>
       </c>
       <c r="N2299" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V2299" s="36"/>
     </row>
@@ -77618,13 +77618,13 @@
         <v>21</v>
       </c>
       <c r="N2300" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O2300" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2300" s="36" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2301" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77647,13 +77647,13 @@
         <v>22</v>
       </c>
       <c r="N2301" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2301" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77674,7 +77674,7 @@
         <v>1</v>
       </c>
       <c r="N2302" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V2302" s="36"/>
     </row>
@@ -77698,7 +77698,7 @@
         <v>2</v>
       </c>
       <c r="N2303" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2303" s="36"/>
     </row>
@@ -77722,13 +77722,13 @@
         <v>3</v>
       </c>
       <c r="N2304" s="36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O2304" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2304" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2305" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77751,7 +77751,7 @@
         <v>4</v>
       </c>
       <c r="N2305" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V2305" s="36"/>
     </row>
@@ -77775,7 +77775,7 @@
         <v>5</v>
       </c>
       <c r="N2306" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2306" s="36"/>
     </row>
@@ -77799,13 +77799,13 @@
         <v>6</v>
       </c>
       <c r="N2307" s="36" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O2307" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2307" s="36" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2308" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77828,7 +77828,7 @@
         <v>7</v>
       </c>
       <c r="N2308" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V2308" s="36"/>
     </row>
@@ -77852,7 +77852,7 @@
         <v>8</v>
       </c>
       <c r="N2309" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2309" s="36"/>
     </row>
@@ -77876,13 +77876,13 @@
         <v>9</v>
       </c>
       <c r="N2310" s="36" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O2310" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2310" s="36" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2311" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77929,7 +77929,7 @@
         <v>11</v>
       </c>
       <c r="N2312" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V2312" s="36"/>
     </row>
@@ -77953,7 +77953,7 @@
         <v>12</v>
       </c>
       <c r="N2313" s="36" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V2313" s="36"/>
     </row>
@@ -77977,7 +77977,7 @@
         <v>13</v>
       </c>
       <c r="N2314" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2314" s="36"/>
     </row>
@@ -78001,7 +78001,7 @@
         <v>14</v>
       </c>
       <c r="N2315" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="V2315" s="36"/>
     </row>
@@ -78025,7 +78025,7 @@
         <v>15</v>
       </c>
       <c r="N2316" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V2316" s="36"/>
     </row>
@@ -78049,13 +78049,13 @@
         <v>16</v>
       </c>
       <c r="N2317" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O2317" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2317" s="36" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2318" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78078,13 +78078,13 @@
         <v>17</v>
       </c>
       <c r="N2318" s="36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O2318" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2318" s="36" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2319" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78107,13 +78107,13 @@
         <v>18</v>
       </c>
       <c r="N2319" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2319" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78134,7 +78134,7 @@
         <v>1</v>
       </c>
       <c r="N2320" s="36" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V2320" s="36"/>
     </row>
@@ -78158,7 +78158,7 @@
         <v>2</v>
       </c>
       <c r="N2321" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2321" s="36"/>
     </row>
@@ -78182,7 +78182,7 @@
         <v>3</v>
       </c>
       <c r="N2322" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V2322" s="36"/>
     </row>
@@ -78206,7 +78206,7 @@
         <v>4</v>
       </c>
       <c r="N2323" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V2323" s="36"/>
     </row>
@@ -78230,7 +78230,7 @@
         <v>5</v>
       </c>
       <c r="N2324" s="36" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V2324" s="36"/>
     </row>
@@ -78254,7 +78254,7 @@
         <v>6</v>
       </c>
       <c r="N2325" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2325" s="36"/>
     </row>
@@ -78278,7 +78278,7 @@
         <v>7</v>
       </c>
       <c r="N2326" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V2326" s="36"/>
     </row>
@@ -78302,7 +78302,7 @@
         <v>8</v>
       </c>
       <c r="N2327" s="36" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2327" s="36"/>
     </row>
@@ -78326,13 +78326,13 @@
         <v>9</v>
       </c>
       <c r="N2328" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O2328" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2328" s="36" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78379,7 +78379,7 @@
         <v>11</v>
       </c>
       <c r="N2330" s="36" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V2330" s="36"/>
     </row>
@@ -78403,7 +78403,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78427,7 +78427,7 @@
         <v>13</v>
       </c>
       <c r="N2332" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V2332" s="36"/>
     </row>
@@ -78475,7 +78475,7 @@
         <v>15</v>
       </c>
       <c r="N2334" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V2334" s="36"/>
     </row>
@@ -78499,7 +78499,7 @@
         <v>16</v>
       </c>
       <c r="N2335" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V2335" s="36"/>
     </row>
@@ -78523,13 +78523,13 @@
         <v>17</v>
       </c>
       <c r="N2336" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O2336" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2336" s="36" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78552,7 +78552,7 @@
         <v>18</v>
       </c>
       <c r="N2337" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="V2337" s="36"/>
     </row>
@@ -78576,13 +78576,13 @@
         <v>19</v>
       </c>
       <c r="N2338" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2338" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78603,7 +78603,7 @@
         <v>1</v>
       </c>
       <c r="N2339" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V2339" s="36"/>
     </row>
@@ -78627,7 +78627,7 @@
         <v>2</v>
       </c>
       <c r="N2340" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2340" s="36"/>
     </row>
@@ -78651,13 +78651,13 @@
         <v>3</v>
       </c>
       <c r="N2341" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O2341" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2341" s="36" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78680,7 +78680,7 @@
         <v>4</v>
       </c>
       <c r="N2342" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V2342" s="36"/>
     </row>
@@ -78704,7 +78704,7 @@
         <v>5</v>
       </c>
       <c r="N2343" s="36" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V2343" s="36"/>
     </row>
@@ -78728,7 +78728,7 @@
         <v>6</v>
       </c>
       <c r="N2344" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2344" s="36"/>
     </row>
@@ -78752,13 +78752,13 @@
         <v>7</v>
       </c>
       <c r="N2345" s="36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O2345" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2345" s="36" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78781,7 +78781,7 @@
         <v>8</v>
       </c>
       <c r="N2346" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V2346" s="36"/>
     </row>
@@ -78805,13 +78805,13 @@
         <v>9</v>
       </c>
       <c r="N2347" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O2347" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2347" s="36" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78834,7 +78834,7 @@
         <v>10</v>
       </c>
       <c r="N2348" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2348" s="36"/>
     </row>
@@ -78858,13 +78858,13 @@
         <v>11</v>
       </c>
       <c r="N2349" s="36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O2349" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2349" s="36" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78887,7 +78887,7 @@
         <v>12</v>
       </c>
       <c r="N2350" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V2350" s="36"/>
     </row>
@@ -78911,7 +78911,7 @@
         <v>13</v>
       </c>
       <c r="N2351" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2351" s="36"/>
     </row>
@@ -78935,13 +78935,13 @@
         <v>14</v>
       </c>
       <c r="N2352" s="36" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O2352" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2352" s="36" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2353" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78964,7 +78964,7 @@
         <v>15</v>
       </c>
       <c r="N2353" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2353" s="36"/>
     </row>
@@ -78988,7 +78988,7 @@
         <v>16</v>
       </c>
       <c r="N2354" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V2354" s="36"/>
     </row>
@@ -79012,13 +79012,13 @@
         <v>17</v>
       </c>
       <c r="N2355" s="36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O2355" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2355" s="36" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2356" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79041,13 +79041,13 @@
         <v>18</v>
       </c>
       <c r="N2356" s="36" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O2356" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2356" s="36" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2357" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79070,18 +79070,18 @@
         <v>19</v>
       </c>
       <c r="N2357" s="36" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O2357" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2357" s="36" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79102,13 +79102,13 @@
         <v>20</v>
       </c>
       <c r="N2358" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="P2358" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79129,7 +79129,7 @@
         <v>1</v>
       </c>
       <c r="N2359" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V2359" s="36"/>
     </row>
@@ -79153,13 +79153,13 @@
         <v>2</v>
       </c>
       <c r="N2360" s="36" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O2360" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2360" s="36" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2361" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79182,13 +79182,13 @@
         <v>3</v>
       </c>
       <c r="N2361" s="36" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O2361" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2361" s="36" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2362" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79211,7 +79211,7 @@
         <v>4</v>
       </c>
       <c r="N2362" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V2362" s="36"/>
     </row>
@@ -79235,13 +79235,13 @@
         <v>5</v>
       </c>
       <c r="N2363" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O2363" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2363" s="36" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2364" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79264,13 +79264,13 @@
         <v>6</v>
       </c>
       <c r="N2364" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="O2364" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2364" s="36" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2365" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79293,7 +79293,7 @@
         <v>7</v>
       </c>
       <c r="N2365" s="36" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V2365" s="36"/>
     </row>
@@ -79317,13 +79317,13 @@
         <v>8</v>
       </c>
       <c r="N2366" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O2366" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2366" s="36" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2367" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79346,13 +79346,13 @@
         <v>9</v>
       </c>
       <c r="N2367" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O2367" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2367" s="36" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2368" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79375,13 +79375,13 @@
         <v>10</v>
       </c>
       <c r="N2368" s="36" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O2368" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2368" s="36" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79404,16 +79404,16 @@
         <v>11</v>
       </c>
       <c r="N2369" s="53" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O2369" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V2369" s="36" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79436,13 +79436,13 @@
         <v>12</v>
       </c>
       <c r="N2370" s="53" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O2370" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2370" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79465,13 +79465,13 @@
         <v>13</v>
       </c>
       <c r="N2371" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2371" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2371" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79494,13 +79494,13 @@
         <v>14</v>
       </c>
       <c r="N2372" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O2372" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2372" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79523,13 +79523,13 @@
         <v>15</v>
       </c>
       <c r="N2373" s="36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O2373" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2373" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79552,13 +79552,13 @@
         <v>16</v>
       </c>
       <c r="N2374" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O2374" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2374" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79581,13 +79581,13 @@
         <v>17</v>
       </c>
       <c r="N2375" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O2375" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2375" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79610,13 +79610,13 @@
         <v>18</v>
       </c>
       <c r="N2376" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2376" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2376" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79639,13 +79639,13 @@
         <v>19</v>
       </c>
       <c r="N2377" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O2377" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2377" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79668,13 +79668,13 @@
         <v>20</v>
       </c>
       <c r="N2378" s="36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O2378" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2378" s="36" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79697,13 +79697,13 @@
         <v>21</v>
       </c>
       <c r="N2379" s="36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O2379" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2379" s="36" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79726,13 +79726,13 @@
         <v>22</v>
       </c>
       <c r="N2380" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O2380" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2380" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2381" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79755,13 +79755,13 @@
         <v>23</v>
       </c>
       <c r="N2381" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2381" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2381" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79784,13 +79784,13 @@
         <v>24</v>
       </c>
       <c r="N2382" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O2382" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2382" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79813,7 +79813,7 @@
         <v>25</v>
       </c>
       <c r="N2383" s="36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V2383" s="36"/>
     </row>
@@ -79837,13 +79837,13 @@
         <v>26</v>
       </c>
       <c r="N2384" s="36" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O2384" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2384" s="36" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2385" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79866,7 +79866,7 @@
         <v>27</v>
       </c>
       <c r="N2385" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V2385" s="36"/>
     </row>
@@ -79890,13 +79890,13 @@
         <v>28</v>
       </c>
       <c r="N2386" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O2386" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2386" s="36" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2387" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79919,13 +79919,13 @@
         <v>29</v>
       </c>
       <c r="N2387" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O2387" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2387" s="36" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2388" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79948,13 +79948,13 @@
         <v>30</v>
       </c>
       <c r="N2388" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O2388" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2388" s="36" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2389" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79977,10 +79977,10 @@
         <v>31</v>
       </c>
       <c r="N2389" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80004,7 +80004,7 @@
         <v>32</v>
       </c>
       <c r="N2390" s="36" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V2390" s="36"/>
     </row>
@@ -80028,7 +80028,7 @@
         <v>33</v>
       </c>
       <c r="N2391" s="36" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V2391" s="36"/>
     </row>
@@ -80052,7 +80052,7 @@
         <v>34</v>
       </c>
       <c r="N2392" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>74</v>
@@ -80061,7 +80061,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80085,7 +80085,7 @@
         <v>1</v>
       </c>
       <c r="N2393" s="36" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V2393" s="36"/>
     </row>
@@ -80112,7 +80112,7 @@
         <v>2</v>
       </c>
       <c r="N2394" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="S2394" s="6" t="s">
         <v>90</v>
@@ -80145,7 +80145,7 @@
         <v>3</v>
       </c>
       <c r="N2395" s="36" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V2395" s="36"/>
     </row>
@@ -80220,7 +80220,7 @@
         <v>6</v>
       </c>
       <c r="N2398" s="36" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V2398" s="36"/>
     </row>
@@ -80244,7 +80244,7 @@
         <v>7</v>
       </c>
       <c r="N2399" s="36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V2399" s="36"/>
     </row>
@@ -80268,7 +80268,7 @@
         <v>8</v>
       </c>
       <c r="N2400" s="36" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V2400" s="36"/>
     </row>
@@ -80292,7 +80292,7 @@
         <v>9</v>
       </c>
       <c r="N2401" s="36" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V2401" s="36"/>
     </row>
@@ -80316,7 +80316,7 @@
         <v>10</v>
       </c>
       <c r="N2402" s="36" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V2402" s="36"/>
     </row>
@@ -80364,7 +80364,7 @@
         <v>12</v>
       </c>
       <c r="N2404" s="36" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V2404" s="36"/>
     </row>
@@ -80388,7 +80388,7 @@
         <v>13</v>
       </c>
       <c r="N2405" s="36" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V2405" s="36"/>
     </row>
@@ -80412,7 +80412,7 @@
         <v>14</v>
       </c>
       <c r="N2406" s="36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V2406" s="36"/>
     </row>
@@ -80436,7 +80436,7 @@
         <v>15</v>
       </c>
       <c r="N2407" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V2407" s="36"/>
     </row>
@@ -80460,7 +80460,7 @@
         <v>16</v>
       </c>
       <c r="N2408" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2408" s="36"/>
     </row>
@@ -80484,13 +80484,13 @@
         <v>17</v>
       </c>
       <c r="N2409" s="36" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O2409" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2409" s="36" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80561,13 +80561,13 @@
         <v>20</v>
       </c>
       <c r="N2412" s="36" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O2412" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2412" s="36" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80590,7 +80590,7 @@
         <v>21</v>
       </c>
       <c r="N2413" s="36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V2413" s="36"/>
     </row>
@@ -80638,13 +80638,13 @@
         <v>23</v>
       </c>
       <c r="N2415" s="36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2415" s="36" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80694,13 +80694,13 @@
         <v>25</v>
       </c>
       <c r="N2417" s="36" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="P2417" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80721,7 +80721,7 @@
         <v>1</v>
       </c>
       <c r="N2418" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V2418" s="36"/>
     </row>
@@ -80745,7 +80745,7 @@
         <v>2</v>
       </c>
       <c r="N2419" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2419" s="36"/>
     </row>
@@ -80769,7 +80769,7 @@
         <v>3</v>
       </c>
       <c r="N2420" s="36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V2420" s="36"/>
     </row>
@@ -80793,7 +80793,7 @@
         <v>4</v>
       </c>
       <c r="N2421" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V2421" s="36"/>
     </row>
@@ -80817,7 +80817,7 @@
         <v>5</v>
       </c>
       <c r="N2422" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2422" s="36"/>
     </row>
@@ -80841,7 +80841,7 @@
         <v>6</v>
       </c>
       <c r="N2423" s="36" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V2423" s="36"/>
     </row>
@@ -80865,7 +80865,7 @@
         <v>7</v>
       </c>
       <c r="N2424" s="36" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V2424" s="36"/>
     </row>
@@ -80889,7 +80889,7 @@
         <v>8</v>
       </c>
       <c r="N2425" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2425" s="36"/>
     </row>
@@ -80913,7 +80913,7 @@
         <v>9</v>
       </c>
       <c r="N2426" s="36" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V2426" s="36"/>
     </row>
@@ -80937,7 +80937,7 @@
         <v>10</v>
       </c>
       <c r="N2427" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V2427" s="36"/>
     </row>
@@ -80961,7 +80961,7 @@
         <v>11</v>
       </c>
       <c r="N2428" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2428" s="36"/>
     </row>
@@ -80985,7 +80985,7 @@
         <v>12</v>
       </c>
       <c r="N2429" s="36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V2429" s="36"/>
     </row>
@@ -81009,13 +81009,13 @@
         <v>13</v>
       </c>
       <c r="N2430" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O2430" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2430" s="36" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81038,7 +81038,7 @@
         <v>14</v>
       </c>
       <c r="N2431" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2431" s="36"/>
     </row>
@@ -81062,7 +81062,7 @@
         <v>15</v>
       </c>
       <c r="N2432" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V2432" s="36"/>
     </row>
@@ -81086,13 +81086,13 @@
         <v>16</v>
       </c>
       <c r="N2433" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O2433" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2433" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81115,7 +81115,7 @@
         <v>17</v>
       </c>
       <c r="N2434" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2434" s="36"/>
     </row>
@@ -81139,7 +81139,7 @@
         <v>18</v>
       </c>
       <c r="N2435" s="36" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V2435" s="36"/>
     </row>
@@ -81163,13 +81163,13 @@
         <v>19</v>
       </c>
       <c r="N2436" s="36" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O2436" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2436" s="36" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81192,7 +81192,7 @@
         <v>20</v>
       </c>
       <c r="N2437" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="O2437" s="6" t="s">
         <v>74</v>
@@ -81201,7 +81201,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C2600-A4A8-43BE-A30E-8A485FFE04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B5516-7590-407D-8D87-3E4053C66833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5242,9 +5242,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2003" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="G1405" sqref="G1405"/>
+      <selection pane="bottomLeft" activeCell="N2011" sqref="N2011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -70192,8 +70192,8 @@
         <f t="shared" si="96"/>
         <v>42</v>
       </c>
-      <c r="N2011" s="36" t="s">
-        <v>356</v>
+      <c r="N2011" s="37" t="s">
+        <v>922</v>
       </c>
       <c r="O2011" s="6" t="s">
         <v>74</v>

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B5516-7590-407D-8D87-3E4053C66833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD01C7E-7F5E-4844-A460-B44FE4EE9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3297,9 +3297,6 @@
     <t>aqjAH</t>
   </si>
   <si>
-    <t>maqlaq.hAH</t>
-  </si>
-  <si>
     <t>meqShya#H</t>
   </si>
   <si>
@@ -3438,9 +3435,6 @@
     <t>AqSviqnaH</t>
   </si>
   <si>
-    <t>viqSAqlaqyUpe</t>
-  </si>
-  <si>
     <t>vAqsaqntAH</t>
   </si>
   <si>
@@ -4597,6 +4591,12 @@
   </si>
   <si>
     <t>catu#rvi(gm)SatiH</t>
+  </si>
+  <si>
+    <t>maqlq.hAH</t>
+  </si>
+  <si>
+    <t>viqSAqlaqyUqpe</t>
   </si>
 </sst>
 </file>
@@ -5242,9 +5242,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2003" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2402" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2011" sqref="N2011"/>
+      <selection pane="bottomLeft" activeCell="N2415" sqref="N2415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5818,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="36" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="36" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6539,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -6551,7 +6551,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6838,10 +6838,10 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V27" s="36" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6873,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -6885,7 +6885,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="36" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="36" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7281,7 +7281,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="9" t="s">
@@ -7293,7 +7293,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7615,7 +7615,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="36" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7647,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="9" t="s">
@@ -7659,7 +7659,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
@@ -8098,7 +8098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8623,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8672,10 +8672,10 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="V72" s="36" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
         <v>79</v>
       </c>
       <c r="N80" s="36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="9" t="s">
@@ -8997,7 +8997,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="36" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9229,7 +9229,7 @@
         <v>85</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="9" t="s">
@@ -9241,7 +9241,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9595,7 +9595,7 @@
         <v>94</v>
       </c>
       <c r="N95" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="9" t="s">
@@ -9607,7 +9607,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9683,7 +9683,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="36" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="98" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="N101" s="36" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>74</v>
@@ -9833,7 +9833,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10133,7 +10133,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10162,7 +10162,7 @@
         <v>109</v>
       </c>
       <c r="N110" s="36" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="9" t="s">
@@ -10174,7 +10174,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10214,7 +10214,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="36" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="112" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="9" t="s">
@@ -10376,7 +10376,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10497,7 +10497,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="36" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="119" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10731,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="9" t="s">
@@ -10743,7 +10743,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10959,7 +10959,7 @@
         <v>129</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="O130" s="6" t="s">
         <v>74</v>
@@ -10973,7 +10973,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11220,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="9" t="s">
@@ -11232,7 +11232,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="36" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11750,7 +11750,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="36" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="152" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11791,10 +11791,10 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="V152" s="36" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="153" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="36" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="156" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12026,7 +12026,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="9" t="s">
@@ -12038,7 +12038,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12645,7 +12645,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12724,7 +12724,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="36" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="177" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12964,10 +12964,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="T182" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13016,7 +13016,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="36" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="184" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
         <v>186</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="O187" s="5"/>
       <c r="P187" s="9" t="s">
@@ -13168,7 +13168,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13268,7 +13268,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="O190" s="5"/>
       <c r="P190" s="9" t="s">
@@ -13280,7 +13280,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="36" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13677,7 +13677,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="36" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="O201" s="5"/>
       <c r="P201" s="9" t="s">
@@ -13689,7 +13689,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13940,7 +13940,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="O208" s="5"/>
       <c r="P208" s="9" t="s">
@@ -13952,7 +13952,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14106,7 +14106,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="36" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14215,7 +14215,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14402,7 +14402,7 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="36" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="221" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14478,7 +14478,7 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="36" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="223" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14520,7 +14520,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14720,7 +14720,7 @@
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="36" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="230" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14922,7 +14922,7 @@
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="236" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14959,7 +14959,7 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="36" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="237" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="36" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15168,7 +15168,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="243" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15441,7 +15441,7 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="251" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15577,7 +15577,7 @@
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="36" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15967,7 +15967,7 @@
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="266" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16005,7 +16005,7 @@
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="36" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="267" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16383,7 +16383,7 @@
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="36" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="278" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16423,7 +16423,7 @@
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="36" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="279" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16843,7 +16843,7 @@
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="291" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17318,7 +17318,7 @@
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
       <c r="V304" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="305" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17355,7 +17355,7 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="37" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
       <c r="T309" s="6"/>
       <c r="U309" s="6"/>
       <c r="V309" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="310" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17859,7 +17859,7 @@
       <c r="T320" s="6"/>
       <c r="U320" s="6"/>
       <c r="V320" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17896,7 +17896,7 @@
       <c r="T321" s="6"/>
       <c r="U321" s="6"/>
       <c r="V321" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18297,7 +18297,7 @@
       <c r="T333" s="6"/>
       <c r="U333" s="6"/>
       <c r="V333" s="36" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="334" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18635,7 +18635,7 @@
       <c r="T343" s="6"/>
       <c r="U343" s="6"/>
       <c r="V343" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="344" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18837,7 +18837,7 @@
       <c r="T349" s="6"/>
       <c r="U349" s="6"/>
       <c r="V349" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
       <c r="T363" s="6"/>
       <c r="U363" s="6"/>
       <c r="V363" s="36" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19386,7 +19386,7 @@
       <c r="T365" s="6"/>
       <c r="U365" s="6"/>
       <c r="V365" s="36" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="366" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19424,7 +19424,7 @@
       <c r="T366" s="6"/>
       <c r="U366" s="6"/>
       <c r="V366" s="36" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="367" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19598,7 +19598,7 @@
       <c r="T371" s="6"/>
       <c r="U371" s="6"/>
       <c r="V371" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20055,7 +20055,7 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
       <c r="V384" s="36" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="385" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20224,7 +20224,7 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
       <c r="V389" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="390" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20659,7 +20659,7 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
       <c r="V402" s="36" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20762,7 +20762,7 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
       <c r="V405" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="406" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21129,7 +21129,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="417" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21530,7 +21530,7 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
       <c r="V428" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21633,7 +21633,7 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
       <c r="V431" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21770,7 +21770,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="36" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="436" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21975,7 +21975,7 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
       <c r="V441" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="442" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22177,7 +22177,7 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
       <c r="V447" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="448" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22313,7 +22313,7 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
       <c r="V451" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="452" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22751,7 +22751,7 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
       <c r="V464" s="36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="465" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23025,7 +23025,7 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
       <c r="V472" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="473" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23062,7 +23062,7 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
       <c r="V473" s="36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="474" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24073,7 +24073,7 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
       <c r="V503" s="36" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="504" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24143,7 +24143,7 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
       <c r="V505" s="36" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="506" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24312,7 +24312,7 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
       <c r="V510" s="36" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="511" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24436,7 +24436,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24448,7 +24448,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
       <c r="V514" s="36" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="515" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24652,7 +24652,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24687,7 +24687,7 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
       <c r="V521" s="36" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="522" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24792,7 +24792,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="36" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="525" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24928,7 +24928,7 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
       <c r="V528" s="36" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="529" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25264,7 +25264,7 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
       <c r="V538" s="36" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="539" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25532,7 +25532,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="36" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25602,7 +25602,7 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
       <c r="V548" s="36" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="549" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25672,7 +25672,7 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
       <c r="V550" s="36" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="551" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25775,7 +25775,7 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
       <c r="V553" s="36" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="554" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26047,7 +26047,7 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
       <c r="V561" s="36" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="562" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26679,7 +26679,7 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
       <c r="V580" s="36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="581" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26716,7 +26716,7 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
       <c r="V581" s="36" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="582" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26753,7 +26753,7 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
       <c r="V582" s="36" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26922,7 +26922,7 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
       <c r="V587" s="36" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27025,7 +27025,7 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
       <c r="V590" s="36" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="591" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27269,7 +27269,7 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
       <c r="V597" s="36" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="598" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27387,7 +27387,7 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
       <c r="V600" s="36" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="601" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27424,7 +27424,7 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
       <c r="V601" s="36" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="602" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28086,7 +28086,7 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
       <c r="V620" s="36" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28221,7 +28221,7 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
       <c r="V624" s="36" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="625" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28345,7 +28345,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28357,7 +28357,7 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
       <c r="V628" s="36" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="629" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28908,7 +28908,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -28920,7 +28920,7 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
       <c r="V644" s="36" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="645" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29458,7 +29458,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -29470,7 +29470,7 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="36" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29863,7 +29863,7 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
       <c r="V672" s="36" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="673" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30303,7 +30303,7 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
       <c r="V686" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="687" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30431,7 +30431,7 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
       <c r="V690" s="36" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="691" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30528,7 +30528,7 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
       <c r="V693" s="36" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="694" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31249,7 +31249,7 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
       <c r="V716" s="36" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="717" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31286,7 +31286,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31319,7 +31319,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31352,7 +31352,7 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
       <c r="V719" s="36" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="720" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31418,7 +31418,7 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
       <c r="V721" s="36" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31453,7 +31453,7 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
       <c r="V722" s="36" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="723" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31550,7 +31550,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="36" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31647,7 +31647,7 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
       <c r="V728" s="36" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="729" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31715,7 +31715,7 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
       <c r="V730" s="36" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="731" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31751,7 +31751,7 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
       <c r="V731" s="36" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="732" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31944,7 +31944,7 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
       <c r="V737" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="738" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32227,7 +32227,7 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
       <c r="V746" s="36" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="747" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32293,7 +32293,7 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
       <c r="V748" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="749" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32514,7 +32514,7 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
       <c r="V755" s="36" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="756" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32550,7 +32550,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -32686,7 +32686,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32882,7 +32882,7 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
       <c r="V766" s="36" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="767" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33368,7 +33368,7 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
       <c r="V781" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="782" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33651,7 +33651,7 @@
       <c r="S790" s="6"/>
       <c r="T790" s="6"/>
       <c r="V790" s="36" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="791" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33779,7 +33779,7 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
       <c r="V794" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34380,7 +34380,7 @@
       <c r="T813" s="6"/>
       <c r="U813" s="6"/>
       <c r="V813" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="814" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34415,7 +34415,7 @@
       <c r="T814" s="6"/>
       <c r="U814" s="6"/>
       <c r="V814" s="36" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="815" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34573,7 +34573,7 @@
       <c r="T819" s="6"/>
       <c r="U819" s="6"/>
       <c r="V819" s="36" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="820" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35234,7 +35234,7 @@
       <c r="T840" s="6"/>
       <c r="U840" s="6"/>
       <c r="V840" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
       <c r="T849" s="6"/>
       <c r="U849" s="6"/>
       <c r="V849" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="850" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35836,7 +35836,7 @@
       <c r="T859" s="6"/>
       <c r="U859" s="6"/>
       <c r="V859" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="860" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36088,7 +36088,7 @@
       <c r="T867" s="6"/>
       <c r="U867" s="6"/>
       <c r="V867" s="36" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="868" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36123,7 +36123,7 @@
       <c r="T868" s="6"/>
       <c r="U868" s="6"/>
       <c r="V868" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="869" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36188,7 +36188,7 @@
       <c r="T870" s="6"/>
       <c r="U870" s="6"/>
       <c r="V870" s="36" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="871" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36441,7 +36441,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="36" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36755,7 +36755,7 @@
       <c r="T888" s="6"/>
       <c r="U888" s="6"/>
       <c r="V888" s="36" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="889" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37167,7 +37167,7 @@
       <c r="T901" s="6"/>
       <c r="U901" s="6"/>
       <c r="V901" s="36" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="902" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38682,7 +38682,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38703,7 +38703,7 @@
         <v>232</v>
       </c>
       <c r="N950" s="36" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="O950" s="5"/>
       <c r="P950" s="9" t="s">
@@ -38715,7 +38715,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38748,7 +38748,7 @@
       <c r="T951" s="6"/>
       <c r="U951" s="6"/>
       <c r="V951" s="36" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="952" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38876,7 +38876,7 @@
       <c r="T955" s="6"/>
       <c r="U955" s="6"/>
       <c r="V955" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="956" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38942,7 +38942,7 @@
       <c r="T957" s="6"/>
       <c r="U957" s="6"/>
       <c r="V957" s="36" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="958" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38977,7 +38977,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -39076,7 +39076,7 @@
       <c r="T961" s="6"/>
       <c r="U961" s="6"/>
       <c r="V961" s="36" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39111,7 +39111,7 @@
       <c r="T962" s="6"/>
       <c r="U962" s="6"/>
       <c r="V962" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39146,7 +39146,7 @@
       <c r="T963" s="6"/>
       <c r="U963" s="6"/>
       <c r="V963" s="36" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="964" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39274,7 +39274,7 @@
       <c r="T967" s="6"/>
       <c r="U967" s="6"/>
       <c r="V967" s="36" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="968" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39340,7 +39340,7 @@
       <c r="T969" s="6"/>
       <c r="U969" s="6"/>
       <c r="V969" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39375,7 +39375,7 @@
       <c r="T970" s="6"/>
       <c r="U970" s="6"/>
       <c r="V970" s="36" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="971" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39472,7 +39472,7 @@
       <c r="T973" s="6"/>
       <c r="U973" s="6"/>
       <c r="V973" s="36" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="974" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39538,7 +39538,7 @@
       <c r="T975" s="6"/>
       <c r="U975" s="6"/>
       <c r="V975" s="36" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="976" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39670,7 +39670,7 @@
       <c r="T979" s="6"/>
       <c r="U979" s="6"/>
       <c r="V979" s="36" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="980" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39705,7 +39705,7 @@
       <c r="T980" s="6"/>
       <c r="U980" s="6"/>
       <c r="V980" s="36" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="981" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39931,7 +39931,7 @@
       <c r="T987" s="6"/>
       <c r="U987" s="6"/>
       <c r="V987" s="36" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="988" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39997,7 +39997,7 @@
       <c r="T989" s="6"/>
       <c r="U989" s="6"/>
       <c r="V989" s="36" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="990" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40439,7 +40439,7 @@
       <c r="T1003" s="6"/>
       <c r="U1003" s="6"/>
       <c r="V1003" s="36" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1004" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40510,7 +40510,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="36" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40576,7 +40576,7 @@
       <c r="T1007" s="6"/>
       <c r="U1007" s="6"/>
       <c r="V1007" s="36" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40646,7 +40646,7 @@
       <c r="T1009" s="6"/>
       <c r="U1009" s="6"/>
       <c r="V1009" s="36" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1010" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40682,7 +40682,7 @@
       <c r="T1010" s="6"/>
       <c r="U1010" s="6"/>
       <c r="V1010" s="36" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1011" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41325,7 +41325,7 @@
       <c r="T1030" s="6"/>
       <c r="U1030" s="6"/>
       <c r="V1030" s="36" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41674,7 +41674,7 @@
       <c r="T1041" s="6"/>
       <c r="U1041" s="6"/>
       <c r="V1041" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41709,7 +41709,7 @@
       <c r="T1042" s="6"/>
       <c r="U1042" s="6"/>
       <c r="V1042" s="36" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1043" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41775,7 +41775,7 @@
       <c r="T1044" s="6"/>
       <c r="U1044" s="6"/>
       <c r="V1044" s="36" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41841,7 +41841,7 @@
       <c r="T1046" s="6"/>
       <c r="U1046" s="6"/>
       <c r="V1046" s="36" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1047" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42154,7 +42154,7 @@
       <c r="T1056" s="6"/>
       <c r="U1056" s="6"/>
       <c r="V1056" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1057" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42437,7 +42437,7 @@
       <c r="T1065" s="6"/>
       <c r="U1065" s="6"/>
       <c r="V1065" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1066" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="U1076" s="6"/>
       <c r="V1076" s="36" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1077" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42864,7 +42864,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="36" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42962,7 +42962,7 @@
       <c r="T1081" s="6"/>
       <c r="U1081" s="6"/>
       <c r="V1081" s="36" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1082" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42998,7 +42998,7 @@
       <c r="T1082" s="6"/>
       <c r="U1082" s="6"/>
       <c r="V1082" s="36" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1083" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43162,7 +43162,7 @@
       <c r="T1087" s="6"/>
       <c r="U1087" s="6"/>
       <c r="V1087" s="36" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1088" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43294,7 +43294,7 @@
       <c r="T1091" s="6"/>
       <c r="U1091" s="6"/>
       <c r="V1091" s="36" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1092" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43330,7 +43330,7 @@
       <c r="T1092" s="6"/>
       <c r="U1092" s="6"/>
       <c r="V1092" s="36" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1093" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43683,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43717,7 +43717,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43751,7 +43751,7 @@
       <c r="T1105" s="6"/>
       <c r="U1105" s="6"/>
       <c r="V1105" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1106" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43881,7 +43881,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="36" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44197,7 +44197,7 @@
       <c r="T1119" s="6"/>
       <c r="U1119" s="6"/>
       <c r="V1119" s="36" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1120" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44445,7 +44445,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="36" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1127" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44699,7 +44699,7 @@
       <c r="T1134" s="6"/>
       <c r="U1134" s="6"/>
       <c r="V1134" s="36" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1135" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44735,7 +44735,7 @@
       <c r="T1135" s="6"/>
       <c r="U1135" s="6"/>
       <c r="V1135" s="36" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1136" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44867,7 +44867,7 @@
       <c r="T1139" s="6"/>
       <c r="U1139" s="6"/>
       <c r="V1139" s="36" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45153,7 +45153,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="36" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1149" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45514,7 +45514,7 @@
       <c r="T1158" s="6"/>
       <c r="U1158" s="6"/>
       <c r="V1158" s="36" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1159" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45949,7 +45949,7 @@
       <c r="T1171" s="6"/>
       <c r="U1171" s="6"/>
       <c r="V1171" s="36" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1172" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46046,7 +46046,7 @@
       <c r="T1174" s="6"/>
       <c r="U1174" s="6"/>
       <c r="V1174" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1175" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46177,7 +46177,7 @@
       <c r="T1178" s="6"/>
       <c r="U1178" s="6"/>
       <c r="V1178" s="36" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1179" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46249,7 +46249,7 @@
       <c r="T1180" s="6"/>
       <c r="U1180" s="6"/>
       <c r="V1180" s="36" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46355,7 +46355,7 @@
       <c r="T1183" s="6"/>
       <c r="U1183" s="6"/>
       <c r="V1183" s="36" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1184" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46390,7 +46390,7 @@
       <c r="T1184" s="6"/>
       <c r="U1184" s="6"/>
       <c r="V1184" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1185" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46582,7 +46582,7 @@
       <c r="T1190" s="6"/>
       <c r="U1190" s="6"/>
       <c r="V1190" s="36" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46605,7 +46605,7 @@
         <v>87</v>
       </c>
       <c r="N1191" s="36" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="O1191" s="6" t="s">
         <v>74</v>
@@ -46617,7 +46617,7 @@
       <c r="T1191" s="6"/>
       <c r="U1191" s="6"/>
       <c r="V1191" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1192" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46747,7 +46747,7 @@
       <c r="T1195" s="6"/>
       <c r="U1195" s="6"/>
       <c r="V1195" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1196" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47060,7 +47060,7 @@
       <c r="T1205" s="6"/>
       <c r="U1205" s="6"/>
       <c r="V1205" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47207,7 +47207,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47547,7 +47547,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="36" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47646,10 +47646,10 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V1223" s="36" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47841,7 +47841,7 @@
       <c r="T1229" s="6"/>
       <c r="U1229" s="6"/>
       <c r="V1229" s="36" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1230" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47972,7 +47972,7 @@
       <c r="T1233" s="6"/>
       <c r="U1233" s="6"/>
       <c r="V1233" s="36" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48657,7 +48657,7 @@
       <c r="T1255" s="6"/>
       <c r="U1255" s="6"/>
       <c r="V1255" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1256" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48818,7 +48818,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -49228,7 +49228,7 @@
       <c r="T1273" s="6"/>
       <c r="U1273" s="6"/>
       <c r="V1273" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50511,7 +50511,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50545,7 +50545,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50707,7 +50707,7 @@
       <c r="T1319" s="6"/>
       <c r="U1319" s="6"/>
       <c r="V1319" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50904,7 +50904,7 @@
       <c r="T1325" s="6"/>
       <c r="U1325" s="6"/>
       <c r="V1325" s="36" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50941,7 +50941,7 @@
       <c r="T1326" s="6"/>
       <c r="U1326" s="6"/>
       <c r="V1326" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50978,7 +50978,7 @@
       <c r="T1327" s="6"/>
       <c r="U1327" s="6"/>
       <c r="V1327" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51277,7 +51277,7 @@
       <c r="T1336" s="6"/>
       <c r="U1336" s="6"/>
       <c r="V1336" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51313,7 +51313,7 @@
       <c r="T1337" s="6"/>
       <c r="U1337" s="6"/>
       <c r="V1337" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1338" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51349,7 +51349,7 @@
       <c r="T1338" s="6"/>
       <c r="U1338" s="6"/>
       <c r="V1338" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1339" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51385,7 +51385,7 @@
       <c r="T1339" s="6"/>
       <c r="U1339" s="6"/>
       <c r="V1339" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51581,7 +51581,7 @@
       <c r="T1345" s="6"/>
       <c r="U1345" s="6"/>
       <c r="V1345" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51617,7 +51617,7 @@
       <c r="T1346" s="6"/>
       <c r="U1346" s="6"/>
       <c r="V1346" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1347" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51653,7 +51653,7 @@
       <c r="T1347" s="6"/>
       <c r="U1347" s="6"/>
       <c r="V1347" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51917,7 +51917,7 @@
       <c r="T1355" s="6"/>
       <c r="U1355" s="6"/>
       <c r="V1355" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1356" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51953,7 +51953,7 @@
       <c r="T1356" s="6"/>
       <c r="U1356" s="6"/>
       <c r="V1356" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51989,7 +51989,7 @@
       <c r="T1357" s="6"/>
       <c r="U1357" s="6"/>
       <c r="V1357" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1358" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52026,7 +52026,7 @@
       <c r="T1358" s="6"/>
       <c r="U1358" s="6"/>
       <c r="V1358" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1359" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52096,7 +52096,7 @@
       <c r="T1360" s="6"/>
       <c r="U1360" s="6"/>
       <c r="V1360" s="36" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52230,7 +52230,7 @@
       <c r="T1364" s="6"/>
       <c r="U1364" s="6"/>
       <c r="V1364" s="36" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52301,7 +52301,7 @@
       <c r="T1366" s="6"/>
       <c r="U1366" s="6"/>
       <c r="V1366" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52337,7 +52337,7 @@
       <c r="T1367" s="6"/>
       <c r="U1367" s="6"/>
       <c r="V1367" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1368" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52374,7 +52374,7 @@
       <c r="T1368" s="6"/>
       <c r="U1368" s="6"/>
       <c r="V1368" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52412,7 +52412,7 @@
       <c r="T1369" s="6"/>
       <c r="U1369" s="6"/>
       <c r="V1369" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1370" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52482,7 +52482,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52616,7 +52616,7 @@
       <c r="T1375" s="6"/>
       <c r="U1375" s="6"/>
       <c r="V1375" s="36" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52684,7 +52684,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52753,7 +52753,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="37" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52790,7 +52790,7 @@
       <c r="T1380" s="6"/>
       <c r="U1380" s="6"/>
       <c r="V1380" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52860,7 +52860,7 @@
       <c r="T1382" s="6"/>
       <c r="U1382" s="6"/>
       <c r="V1382" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1383" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52897,7 +52897,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52933,7 +52933,7 @@
       <c r="T1384" s="6"/>
       <c r="U1384" s="6"/>
       <c r="V1384" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1385" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53001,7 +53001,7 @@
       <c r="T1386" s="6"/>
       <c r="U1386" s="6"/>
       <c r="V1386" s="36" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1387" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53297,7 +53297,7 @@
       <c r="T1395" s="6"/>
       <c r="U1395" s="6"/>
       <c r="V1395" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1396" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53333,7 +53333,7 @@
       <c r="T1396" s="6"/>
       <c r="U1396" s="6"/>
       <c r="V1396" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1397" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53369,7 +53369,7 @@
       <c r="T1397" s="6"/>
       <c r="U1397" s="6"/>
       <c r="V1397" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53405,7 +53405,7 @@
       <c r="T1398" s="6"/>
       <c r="U1398" s="6"/>
       <c r="V1398" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53473,7 +53473,7 @@
       <c r="T1400" s="6"/>
       <c r="U1400" s="6"/>
       <c r="V1400" s="36" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1401" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53596,7 +53596,7 @@
         <v>90</v>
       </c>
       <c r="N1404" s="37" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -53608,7 +53608,7 @@
       <c r="T1404" s="6"/>
       <c r="U1404" s="6"/>
       <c r="V1404" s="36" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53645,7 +53645,7 @@
       <c r="T1405" s="6"/>
       <c r="U1405" s="6"/>
       <c r="V1405" s="36" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53686,7 +53686,7 @@
       <c r="T1406" s="6"/>
       <c r="U1406" s="6"/>
       <c r="V1406" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53723,7 +53723,7 @@
       <c r="T1407" s="6"/>
       <c r="U1407" s="6"/>
       <c r="V1407" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1408" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53759,7 +53759,7 @@
       <c r="T1408" s="6"/>
       <c r="U1408" s="6"/>
       <c r="V1408" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53795,7 +53795,7 @@
       <c r="T1409" s="6"/>
       <c r="U1409" s="6"/>
       <c r="V1409" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1410" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53990,7 +53990,7 @@
       <c r="T1415" s="6"/>
       <c r="U1415" s="6"/>
       <c r="V1415" s="36" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54026,7 +54026,7 @@
       <c r="T1416" s="6"/>
       <c r="U1416" s="6"/>
       <c r="V1416" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54062,7 +54062,7 @@
       <c r="T1417" s="6"/>
       <c r="U1417" s="6"/>
       <c r="V1417" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54326,7 +54326,7 @@
       <c r="T1425" s="6"/>
       <c r="U1425" s="6"/>
       <c r="V1425" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54362,7 +54362,7 @@
       <c r="T1426" s="6"/>
       <c r="U1426" s="6"/>
       <c r="V1426" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54398,7 +54398,7 @@
       <c r="T1427" s="6"/>
       <c r="U1427" s="6"/>
       <c r="V1427" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1428" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54434,7 +54434,7 @@
       <c r="T1428" s="6"/>
       <c r="U1428" s="6"/>
       <c r="V1428" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1429" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55638,7 +55638,7 @@
       <c r="T1465" s="6"/>
       <c r="U1465" s="6"/>
       <c r="V1465" s="36" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56034,7 +56034,7 @@
       <c r="T1477" s="6"/>
       <c r="U1477" s="6"/>
       <c r="V1477" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1478" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56071,7 +56071,7 @@
       <c r="T1478" s="6"/>
       <c r="U1478" s="6"/>
       <c r="V1478" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56205,7 +56205,7 @@
       <c r="T1482" s="6"/>
       <c r="U1482" s="6"/>
       <c r="V1482" s="36" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56273,7 +56273,7 @@
       <c r="S1484" s="6"/>
       <c r="T1484" s="6"/>
       <c r="V1484" s="36" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56373,7 +56373,7 @@
       <c r="T1487" s="6"/>
       <c r="U1487" s="6"/>
       <c r="V1487" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1488" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56409,7 +56409,7 @@
       <c r="T1488" s="6"/>
       <c r="U1488" s="6"/>
       <c r="V1488" s="36" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56529,7 +56529,7 @@
         <v>178</v>
       </c>
       <c r="N1492" s="36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="O1492" s="5"/>
       <c r="P1492" s="9" t="s">
@@ -56541,7 +56541,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56575,7 +56575,7 @@
       <c r="T1493" s="6"/>
       <c r="U1493" s="6"/>
       <c r="V1493" s="36" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56900,7 +56900,7 @@
       <c r="T1503" s="6"/>
       <c r="U1503" s="6"/>
       <c r="V1503" s="36" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56936,7 +56936,7 @@
       <c r="T1504" s="6"/>
       <c r="U1504" s="6"/>
       <c r="V1504" s="36" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57169,7 +57169,7 @@
       <c r="T1511" s="6"/>
       <c r="U1511" s="6"/>
       <c r="V1511" s="36" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1512" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57415,7 +57415,7 @@
       <c r="T1518" s="6"/>
       <c r="U1518" s="6"/>
       <c r="V1518" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57880,7 +57880,7 @@
       <c r="T1532" s="6"/>
       <c r="U1532" s="6"/>
       <c r="V1532" s="36" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58008,7 +58008,7 @@
       <c r="T1536" s="6"/>
       <c r="U1536" s="6"/>
       <c r="V1536" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1537" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58043,7 +58043,7 @@
       <c r="T1537" s="6"/>
       <c r="U1537" s="6"/>
       <c r="V1537" s="36" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1538" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58109,7 +58109,7 @@
       <c r="T1539" s="6"/>
       <c r="U1539" s="6"/>
       <c r="V1539" s="36" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1540" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58175,7 +58175,7 @@
       <c r="T1541" s="6"/>
       <c r="U1541" s="6"/>
       <c r="V1541" s="36" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1542" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58271,7 +58271,7 @@
       <c r="T1544" s="6"/>
       <c r="U1544" s="6"/>
       <c r="V1544" s="36" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1545" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58463,7 +58463,7 @@
       <c r="T1550" s="6"/>
       <c r="U1550" s="6"/>
       <c r="V1550" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1551" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58529,7 +58529,7 @@
       <c r="T1552" s="6"/>
       <c r="U1552" s="6"/>
       <c r="V1552" s="36" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58657,7 +58657,7 @@
       <c r="T1556" s="6"/>
       <c r="U1556" s="6"/>
       <c r="V1556" s="36" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1557" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58880,7 +58880,7 @@
       <c r="T1563" s="6"/>
       <c r="U1563" s="6"/>
       <c r="V1563" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1564" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59071,7 +59071,7 @@
       <c r="T1569" s="6"/>
       <c r="U1569" s="6"/>
       <c r="V1569" s="36" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1570" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59356,7 +59356,7 @@
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
       <c r="V1578" s="36" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59464,7 +59464,7 @@
         <v>74</v>
       </c>
       <c r="V1582" s="36" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59646,7 +59646,7 @@
         <v>74</v>
       </c>
       <c r="V1589" s="36" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59746,7 +59746,7 @@
         <v>74</v>
       </c>
       <c r="V1593" s="36" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1594" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59970,7 +59970,7 @@
         <v>74</v>
       </c>
       <c r="V1602" s="36" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1603" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60167,7 +60167,7 @@
         <v>74</v>
       </c>
       <c r="V1610" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1611" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60196,7 +60196,7 @@
         <v>74</v>
       </c>
       <c r="V1611" s="36" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1612" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60369,7 +60369,7 @@
         <v>74</v>
       </c>
       <c r="V1618" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1619" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60398,7 +60398,7 @@
         <v>74</v>
       </c>
       <c r="V1619" s="36" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60595,7 +60595,7 @@
         <v>74</v>
       </c>
       <c r="V1627" s="36" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1628" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61427,7 +61427,7 @@
         <v>74</v>
       </c>
       <c r="V1661" s="36" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1662" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61531,7 +61531,7 @@
         <v>76</v>
       </c>
       <c r="V1665" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1666" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61611,7 +61611,7 @@
         <v>74</v>
       </c>
       <c r="V1668" s="36" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1669" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61724,7 +61724,7 @@
         <v>74</v>
       </c>
       <c r="V1672" s="36" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1673" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61807,7 +61807,7 @@
         <v>74</v>
       </c>
       <c r="V1675" s="36" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1676" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61836,7 +61836,7 @@
         <v>74</v>
       </c>
       <c r="V1676" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1677" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61865,7 +61865,7 @@
         <v>76</v>
       </c>
       <c r="V1677" s="36" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1678" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62280,7 +62280,7 @@
         <v>76</v>
       </c>
       <c r="V1694" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62309,7 +62309,7 @@
         <v>74</v>
       </c>
       <c r="V1695" s="36" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1696" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62338,7 +62338,7 @@
         <v>74</v>
       </c>
       <c r="V1696" s="36" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62442,7 +62442,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -62571,7 +62571,7 @@
         <v>74</v>
       </c>
       <c r="V1705" s="36" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1706" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62672,7 +62672,7 @@
         <v>74</v>
       </c>
       <c r="V1709" s="36" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1710" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62965,7 +62965,7 @@
         <v>74</v>
       </c>
       <c r="V1721" s="36" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1722" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63162,7 +63162,7 @@
         <v>74</v>
       </c>
       <c r="V1729" s="36" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1730" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63721,7 +63721,7 @@
         <v>76</v>
       </c>
       <c r="V1752" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63750,7 +63750,7 @@
         <v>74</v>
       </c>
       <c r="V1753" s="36" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1754" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63827,7 +63827,7 @@
         <v>74</v>
       </c>
       <c r="V1756" s="36" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63856,7 +63856,7 @@
         <v>74</v>
       </c>
       <c r="V1757" s="36" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1758" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63885,7 +63885,7 @@
         <v>74</v>
       </c>
       <c r="V1758" s="36" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64130,7 +64130,7 @@
         <v>78</v>
       </c>
       <c r="V1768" s="36" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64399,7 +64399,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64501,7 +64501,7 @@
         <v>74</v>
       </c>
       <c r="V1783" s="36" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1784" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64602,7 +64602,7 @@
         <v>74</v>
       </c>
       <c r="V1787" s="36" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1788" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64895,13 +64895,13 @@
         <v>307</v>
       </c>
       <c r="N1799" s="36" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="P1799" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65192,7 +65192,7 @@
         <v>74</v>
       </c>
       <c r="V1811" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65245,7 +65245,7 @@
         <v>76</v>
       </c>
       <c r="V1813" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1814" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65322,7 +65322,7 @@
         <v>74</v>
       </c>
       <c r="V1816" s="36" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1817" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65519,7 +65519,7 @@
         <v>74</v>
       </c>
       <c r="V1824" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65548,7 +65548,7 @@
         <v>76</v>
       </c>
       <c r="V1825" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1826" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65913,7 +65913,7 @@
         <v>74</v>
       </c>
       <c r="V1840" s="36" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1841" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65993,7 +65993,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -66047,7 +66047,7 @@
         <v>74</v>
       </c>
       <c r="V1845" s="36" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1846" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66124,7 +66124,7 @@
         <v>74</v>
       </c>
       <c r="V1848" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1849" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66440,7 +66440,7 @@
         <v>74</v>
       </c>
       <c r="V1861" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1862" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66757,7 +66757,7 @@
         <v>74</v>
       </c>
       <c r="V1874" s="36" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1875" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66957,7 +66957,7 @@
         <v>74</v>
       </c>
       <c r="V1882" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1883" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67154,7 +67154,7 @@
         <v>74</v>
       </c>
       <c r="V1890" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1891" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67303,7 +67303,7 @@
         <v>74</v>
       </c>
       <c r="V1896" s="36" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1897" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67356,7 +67356,7 @@
         <v>74</v>
       </c>
       <c r="V1898" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1899" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67408,7 +67408,7 @@
         <v>74</v>
       </c>
       <c r="V1900" s="36" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67437,7 +67437,7 @@
         <v>74</v>
       </c>
       <c r="V1901" s="36" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67514,7 +67514,7 @@
         <v>74</v>
       </c>
       <c r="V1904" s="36" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67615,7 +67615,7 @@
         <v>74</v>
       </c>
       <c r="V1908" s="36" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1909" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67767,7 +67767,7 @@
         <v>74</v>
       </c>
       <c r="V1914" s="36" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1915" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67796,7 +67796,7 @@
         <v>74</v>
       </c>
       <c r="V1915" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68164,7 +68164,7 @@
         <v>74</v>
       </c>
       <c r="V1930" s="36" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1931" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68193,7 +68193,7 @@
         <v>74</v>
       </c>
       <c r="V1931" s="36" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1932" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68369,7 +68369,7 @@
         <v>74</v>
       </c>
       <c r="V1938" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1939" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69148,7 +69148,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69175,7 +69175,7 @@
         <v>74</v>
       </c>
       <c r="V1970" s="36" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1971" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69252,7 +69252,7 @@
         <v>74</v>
       </c>
       <c r="V1973" s="36" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1974" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69281,7 +69281,7 @@
         <v>74</v>
       </c>
       <c r="V1974" s="36" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1975" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69382,7 +69382,7 @@
         <v>74</v>
       </c>
       <c r="V1978" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1979" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69579,7 +69579,7 @@
         <v>74</v>
       </c>
       <c r="V1986" s="36" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1987" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69776,7 +69776,7 @@
         <v>74</v>
       </c>
       <c r="V1994" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1995" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69901,7 +69901,7 @@
         <v>74</v>
       </c>
       <c r="V1999" s="36" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2000" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69978,7 +69978,7 @@
         <v>74</v>
       </c>
       <c r="V2002" s="36" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70199,7 +70199,7 @@
         <v>74</v>
       </c>
       <c r="V2011" s="36" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2012" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70300,7 +70300,7 @@
         <v>76</v>
       </c>
       <c r="V2015" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="2016" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71123,7 +71123,7 @@
         <v>74</v>
       </c>
       <c r="V2049" s="36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="2050" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,13 +71194,13 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2052" s="36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2053" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71325,7 +71325,7 @@
         <v>74</v>
       </c>
       <c r="V2057" s="36" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71432,7 +71432,7 @@
         <v>74</v>
       </c>
       <c r="V2061" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2062" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71652,7 +71652,7 @@
         <v>74</v>
       </c>
       <c r="V2070" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71753,7 +71753,7 @@
         <v>76</v>
       </c>
       <c r="V2074" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2075" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71782,7 +71782,7 @@
         <v>74</v>
       </c>
       <c r="V2075" s="36" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2076" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71835,7 +71835,7 @@
         <v>74</v>
       </c>
       <c r="V2077" s="36" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72128,7 +72128,7 @@
         <v>74</v>
       </c>
       <c r="V2089" s="36" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2090" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72313,7 +72313,7 @@
         <v>74</v>
       </c>
       <c r="V2096" s="37" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2097" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72510,7 +72510,7 @@
         <v>76</v>
       </c>
       <c r="V2104" s="36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="2105" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72539,7 +72539,7 @@
         <v>74</v>
       </c>
       <c r="V2105" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2106" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72568,7 +72568,7 @@
         <v>74</v>
       </c>
       <c r="V2106" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2107" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72621,7 +72621,7 @@
         <v>74</v>
       </c>
       <c r="V2108" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72650,7 +72650,7 @@
         <v>74</v>
       </c>
       <c r="V2109" s="36" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72703,7 +72703,7 @@
         <v>74</v>
       </c>
       <c r="V2111" s="36" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72783,7 +72783,7 @@
         <v>74</v>
       </c>
       <c r="V2114" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2115" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73175,7 +73175,7 @@
         <v>74</v>
       </c>
       <c r="V2130" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2131" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73204,7 +73204,7 @@
         <v>74</v>
       </c>
       <c r="V2131" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2132" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73260,7 +73260,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73287,7 +73287,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73338,7 +73338,7 @@
         <v>74</v>
       </c>
       <c r="V2136" s="36" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73367,7 +73367,7 @@
         <v>74</v>
       </c>
       <c r="V2137" s="36" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73420,7 +73420,7 @@
         <v>74</v>
       </c>
       <c r="V2139" s="36" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73473,7 +73473,7 @@
         <v>74</v>
       </c>
       <c r="V2141" s="36" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73502,7 +73502,7 @@
         <v>74</v>
       </c>
       <c r="V2142" s="36" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73603,7 +73603,7 @@
         <v>74</v>
       </c>
       <c r="V2146" s="36" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2147" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73632,7 +73632,7 @@
         <v>74</v>
       </c>
       <c r="V2147" s="36" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2148" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73685,7 +73685,7 @@
         <v>74</v>
       </c>
       <c r="V2149" s="36" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73906,7 +73906,7 @@
         <v>74</v>
       </c>
       <c r="V2158" s="36" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2159" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73935,7 +73935,7 @@
         <v>74</v>
       </c>
       <c r="V2159" s="36" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2160" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73958,13 +73958,13 @@
         <v>26</v>
       </c>
       <c r="N2160" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2160" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74015,7 +74015,7 @@
         <v>74</v>
       </c>
       <c r="V2162" s="36" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2163" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74044,7 +74044,7 @@
         <v>74</v>
       </c>
       <c r="V2163" s="36" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2164" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74145,7 +74145,7 @@
         <v>74</v>
       </c>
       <c r="V2167" s="36" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2168" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74264,13 +74264,13 @@
         <v>12</v>
       </c>
       <c r="N2172" s="36" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O2172" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2172" s="36" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,13 +74293,13 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2173" s="36" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74352,7 +74352,7 @@
         <v>74</v>
       </c>
       <c r="V2175" s="36" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2176" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74573,7 +74573,7 @@
         <v>74</v>
       </c>
       <c r="V2184" s="36" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2185" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74602,7 +74602,7 @@
         <v>74</v>
       </c>
       <c r="V2185" s="36" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74625,13 +74625,13 @@
         <v>26</v>
       </c>
       <c r="N2186" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2186" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74658,7 +74658,7 @@
         <v>74</v>
       </c>
       <c r="V2187" s="36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74687,7 +74687,7 @@
         <v>74</v>
       </c>
       <c r="V2188" s="36" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74716,7 +74716,7 @@
         <v>74</v>
       </c>
       <c r="V2189" s="36" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74769,7 +74769,7 @@
         <v>74</v>
       </c>
       <c r="V2191" s="36" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74801,7 +74801,7 @@
         <v>74</v>
       </c>
       <c r="V2192" s="36" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74833,7 +74833,7 @@
         <v>74</v>
       </c>
       <c r="V2193" s="36" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2194" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74865,7 +74865,7 @@
         <v>74</v>
       </c>
       <c r="V2194" s="36" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2195" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74918,7 +74918,7 @@
         <v>74</v>
       </c>
       <c r="V2196" s="36" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2197" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74947,7 +74947,7 @@
         <v>74</v>
       </c>
       <c r="V2197" s="36" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2198" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74976,7 +74976,7 @@
         <v>74</v>
       </c>
       <c r="V2198" s="36" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2199" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75005,7 +75005,7 @@
         <v>74</v>
       </c>
       <c r="V2199" s="36" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2200" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75154,7 +75154,7 @@
         <v>74</v>
       </c>
       <c r="V2205" s="36" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75255,7 +75255,7 @@
         <v>74</v>
       </c>
       <c r="V2209" s="36" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75284,7 +75284,7 @@
         <v>74</v>
       </c>
       <c r="V2210" s="36" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2211" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75307,13 +75307,13 @@
         <v>25</v>
       </c>
       <c r="N2211" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2211" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75340,7 +75340,7 @@
         <v>74</v>
       </c>
       <c r="V2212" s="36" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75441,7 +75441,7 @@
         <v>74</v>
       </c>
       <c r="V2216" s="36" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75473,7 +75473,7 @@
         <v>74</v>
       </c>
       <c r="V2217" s="36" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75505,7 +75505,7 @@
         <v>74</v>
       </c>
       <c r="V2218" s="36" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75537,7 +75537,7 @@
         <v>74</v>
       </c>
       <c r="V2219" s="36" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75593,7 +75593,7 @@
         <v>74</v>
       </c>
       <c r="V2221" s="36" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75622,7 +75622,7 @@
         <v>74</v>
       </c>
       <c r="V2222" s="36" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75651,7 +75651,7 @@
         <v>74</v>
       </c>
       <c r="V2223" s="36" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75680,7 +75680,7 @@
         <v>74</v>
       </c>
       <c r="V2224" s="36" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75733,7 +75733,7 @@
         <v>74</v>
       </c>
       <c r="V2226" s="36" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2227" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75834,7 +75834,7 @@
         <v>74</v>
       </c>
       <c r="V2230" s="36" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2231" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75911,7 +75911,7 @@
         <v>74</v>
       </c>
       <c r="V2233" s="36" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75940,7 +75940,7 @@
         <v>74</v>
       </c>
       <c r="V2234" s="36" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2235" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75969,7 +75969,7 @@
         <v>74</v>
       </c>
       <c r="V2235" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2236" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75992,13 +75992,13 @@
         <v>25</v>
       </c>
       <c r="N2236" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2236" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76313,7 +76313,7 @@
         <v>74</v>
       </c>
       <c r="V2249" s="36" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76411,7 +76411,7 @@
         <v>1043</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76513,7 +76513,7 @@
         <v>74</v>
       </c>
       <c r="V2257" s="36" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2258" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76542,12 +76542,12 @@
         <v>74</v>
       </c>
       <c r="V2258" s="36" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76568,13 +76568,13 @@
         <v>23</v>
       </c>
       <c r="N2259" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2259" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76673,7 +76673,7 @@
         <v>74</v>
       </c>
       <c r="V2263" s="36" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2264" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76750,7 +76750,7 @@
         <v>74</v>
       </c>
       <c r="V2266" s="36" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2267" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76851,7 +76851,7 @@
         <v>74</v>
       </c>
       <c r="V2270" s="36" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2271" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76880,7 +76880,7 @@
         <v>74</v>
       </c>
       <c r="V2271" s="36" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2272" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76957,7 +76957,7 @@
         <v>74</v>
       </c>
       <c r="V2274" s="36" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77034,7 +77034,7 @@
         <v>74</v>
       </c>
       <c r="V2277" s="36" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77063,7 +77063,7 @@
         <v>74</v>
       </c>
       <c r="V2278" s="36" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77086,13 +77086,13 @@
         <v>20</v>
       </c>
       <c r="N2279" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2279" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77185,13 +77185,13 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2283" s="36" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2284" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77244,7 +77244,7 @@
         <v>74</v>
       </c>
       <c r="V2285" s="36" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77297,7 +77297,7 @@
         <v>74</v>
       </c>
       <c r="V2287" s="36" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2288" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77350,7 +77350,7 @@
         <v>74</v>
       </c>
       <c r="V2289" s="36" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2290" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77403,7 +77403,7 @@
         <v>74</v>
       </c>
       <c r="V2291" s="36" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="2292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77624,7 +77624,7 @@
         <v>74</v>
       </c>
       <c r="V2300" s="36" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2301" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77647,13 +77647,13 @@
         <v>22</v>
       </c>
       <c r="N2301" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2301" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77728,7 +77728,7 @@
         <v>74</v>
       </c>
       <c r="V2304" s="36" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2305" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77805,7 +77805,7 @@
         <v>74</v>
       </c>
       <c r="V2307" s="36" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2308" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77882,7 +77882,7 @@
         <v>74</v>
       </c>
       <c r="V2310" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2311" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78055,7 +78055,7 @@
         <v>74</v>
       </c>
       <c r="V2317" s="36" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2318" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78084,7 +78084,7 @@
         <v>74</v>
       </c>
       <c r="V2318" s="36" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2319" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78107,13 +78107,13 @@
         <v>18</v>
       </c>
       <c r="N2319" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2319" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78332,7 +78332,7 @@
         <v>74</v>
       </c>
       <c r="V2328" s="36" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78402,8 +78402,8 @@
         <f t="shared" si="111"/>
         <v>12</v>
       </c>
-      <c r="N2331" s="36" t="s">
-        <v>1089</v>
+      <c r="N2331" s="37" t="s">
+        <v>1521</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78475,7 +78475,7 @@
         <v>15</v>
       </c>
       <c r="N2334" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="V2334" s="36"/>
     </row>
@@ -78523,13 +78523,13 @@
         <v>17</v>
       </c>
       <c r="N2336" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O2336" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2336" s="36" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78552,7 +78552,7 @@
         <v>18</v>
       </c>
       <c r="N2337" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V2337" s="36"/>
     </row>
@@ -78576,13 +78576,13 @@
         <v>19</v>
       </c>
       <c r="N2338" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2338" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78603,7 +78603,7 @@
         <v>1</v>
       </c>
       <c r="N2339" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="V2339" s="36"/>
     </row>
@@ -78657,7 +78657,7 @@
         <v>74</v>
       </c>
       <c r="V2341" s="36" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78680,7 +78680,7 @@
         <v>4</v>
       </c>
       <c r="N2342" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V2342" s="36"/>
     </row>
@@ -78758,7 +78758,7 @@
         <v>74</v>
       </c>
       <c r="V2345" s="36" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78781,7 +78781,7 @@
         <v>8</v>
       </c>
       <c r="N2346" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V2346" s="36"/>
     </row>
@@ -78805,13 +78805,13 @@
         <v>9</v>
       </c>
       <c r="N2347" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O2347" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2347" s="36" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78864,7 +78864,7 @@
         <v>74</v>
       </c>
       <c r="V2349" s="36" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78935,13 +78935,13 @@
         <v>14</v>
       </c>
       <c r="N2352" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O2352" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2352" s="36" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2353" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78988,7 +78988,7 @@
         <v>16</v>
       </c>
       <c r="N2354" s="36" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V2354" s="36"/>
     </row>
@@ -79012,13 +79012,13 @@
         <v>17</v>
       </c>
       <c r="N2355" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O2355" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2355" s="36" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2356" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79041,13 +79041,13 @@
         <v>18</v>
       </c>
       <c r="N2356" s="36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O2356" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2356" s="36" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2357" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79076,12 +79076,12 @@
         <v>74</v>
       </c>
       <c r="V2357" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79102,13 +79102,13 @@
         <v>20</v>
       </c>
       <c r="N2358" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P2358" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79159,7 +79159,7 @@
         <v>74</v>
       </c>
       <c r="V2360" s="36" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2361" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79182,13 +79182,13 @@
         <v>3</v>
       </c>
       <c r="N2361" s="36" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O2361" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2361" s="36" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2362" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79211,7 +79211,7 @@
         <v>4</v>
       </c>
       <c r="N2362" s="36" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V2362" s="36"/>
     </row>
@@ -79235,13 +79235,13 @@
         <v>5</v>
       </c>
       <c r="N2363" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O2363" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2363" s="36" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2364" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79264,13 +79264,13 @@
         <v>6</v>
       </c>
       <c r="N2364" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O2364" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2364" s="36" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2365" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79293,7 +79293,7 @@
         <v>7</v>
       </c>
       <c r="N2365" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V2365" s="36"/>
     </row>
@@ -79317,13 +79317,13 @@
         <v>8</v>
       </c>
       <c r="N2366" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O2366" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2366" s="36" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2367" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79346,13 +79346,13 @@
         <v>9</v>
       </c>
       <c r="N2367" s="36" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O2367" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2367" s="36" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2368" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79375,13 +79375,13 @@
         <v>10</v>
       </c>
       <c r="N2368" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O2368" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2368" s="36" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79404,16 +79404,16 @@
         <v>11</v>
       </c>
       <c r="N2369" s="53" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O2369" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="V2369" s="36" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79442,7 +79442,7 @@
         <v>76</v>
       </c>
       <c r="V2370" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79465,13 +79465,13 @@
         <v>13</v>
       </c>
       <c r="N2371" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O2371" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2371" s="36" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79494,13 +79494,13 @@
         <v>14</v>
       </c>
       <c r="N2372" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2372" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2372" s="36" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79523,13 +79523,13 @@
         <v>15</v>
       </c>
       <c r="N2373" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O2373" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2373" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79552,13 +79552,13 @@
         <v>16</v>
       </c>
       <c r="N2374" s="36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O2374" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2374" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79587,7 +79587,7 @@
         <v>76</v>
       </c>
       <c r="V2375" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79610,13 +79610,13 @@
         <v>18</v>
       </c>
       <c r="N2376" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O2376" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2376" s="36" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79639,13 +79639,13 @@
         <v>19</v>
       </c>
       <c r="N2377" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2377" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2377" s="36" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79668,13 +79668,13 @@
         <v>20</v>
       </c>
       <c r="N2378" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O2378" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2378" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79697,13 +79697,13 @@
         <v>21</v>
       </c>
       <c r="N2379" s="36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O2379" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2379" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79732,7 +79732,7 @@
         <v>76</v>
       </c>
       <c r="V2380" s="36" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2381" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79755,13 +79755,13 @@
         <v>23</v>
       </c>
       <c r="N2381" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O2381" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2381" s="36" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79784,13 +79784,13 @@
         <v>24</v>
       </c>
       <c r="N2382" s="36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O2382" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2382" s="36" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79813,7 +79813,7 @@
         <v>25</v>
       </c>
       <c r="N2383" s="36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V2383" s="36"/>
     </row>
@@ -79837,13 +79837,13 @@
         <v>26</v>
       </c>
       <c r="N2384" s="36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O2384" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2384" s="36" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2385" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79866,7 +79866,7 @@
         <v>27</v>
       </c>
       <c r="N2385" s="36" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V2385" s="36"/>
     </row>
@@ -79890,13 +79890,13 @@
         <v>28</v>
       </c>
       <c r="N2386" s="36" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O2386" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2386" s="36" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2387" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79919,13 +79919,13 @@
         <v>29</v>
       </c>
       <c r="N2387" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O2387" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2387" s="36" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2388" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79948,13 +79948,13 @@
         <v>30</v>
       </c>
       <c r="N2388" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O2388" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V2388" s="36" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2389" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79977,10 +79977,10 @@
         <v>31</v>
       </c>
       <c r="N2389" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80004,7 +80004,7 @@
         <v>32</v>
       </c>
       <c r="N2390" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V2390" s="36"/>
     </row>
@@ -80028,7 +80028,7 @@
         <v>33</v>
       </c>
       <c r="N2391" s="36" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V2391" s="36"/>
     </row>
@@ -80052,7 +80052,7 @@
         <v>34</v>
       </c>
       <c r="N2392" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>74</v>
@@ -80061,7 +80061,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80085,7 +80085,7 @@
         <v>1</v>
       </c>
       <c r="N2393" s="36" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V2393" s="36"/>
     </row>
@@ -80112,7 +80112,7 @@
         <v>2</v>
       </c>
       <c r="N2394" s="36" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="S2394" s="6" t="s">
         <v>90</v>
@@ -80145,7 +80145,7 @@
         <v>3</v>
       </c>
       <c r="N2395" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V2395" s="36"/>
     </row>
@@ -80220,7 +80220,7 @@
         <v>6</v>
       </c>
       <c r="N2398" s="36" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V2398" s="36"/>
     </row>
@@ -80244,7 +80244,7 @@
         <v>7</v>
       </c>
       <c r="N2399" s="36" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V2399" s="36"/>
     </row>
@@ -80268,7 +80268,7 @@
         <v>8</v>
       </c>
       <c r="N2400" s="36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V2400" s="36"/>
     </row>
@@ -80292,7 +80292,7 @@
         <v>9</v>
       </c>
       <c r="N2401" s="36" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V2401" s="36"/>
     </row>
@@ -80316,7 +80316,7 @@
         <v>10</v>
       </c>
       <c r="N2402" s="36" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V2402" s="36"/>
     </row>
@@ -80364,7 +80364,7 @@
         <v>12</v>
       </c>
       <c r="N2404" s="36" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V2404" s="36"/>
     </row>
@@ -80388,7 +80388,7 @@
         <v>13</v>
       </c>
       <c r="N2405" s="36" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V2405" s="36"/>
     </row>
@@ -80412,7 +80412,7 @@
         <v>14</v>
       </c>
       <c r="N2406" s="36" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V2406" s="36"/>
     </row>
@@ -80484,13 +80484,13 @@
         <v>17</v>
       </c>
       <c r="N2409" s="36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O2409" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2409" s="36" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80561,13 +80561,13 @@
         <v>20</v>
       </c>
       <c r="N2412" s="36" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O2412" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2412" s="36" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80590,7 +80590,7 @@
         <v>21</v>
       </c>
       <c r="N2413" s="36" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="V2413" s="36"/>
     </row>
@@ -80637,14 +80637,14 @@
         <f t="shared" si="114"/>
         <v>23</v>
       </c>
-      <c r="N2415" s="36" t="s">
-        <v>1136</v>
+      <c r="N2415" s="37" t="s">
+        <v>1522</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2415" s="36" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80694,13 +80694,13 @@
         <v>25</v>
       </c>
       <c r="N2417" s="36" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="P2417" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80769,7 +80769,7 @@
         <v>3</v>
       </c>
       <c r="N2420" s="36" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="V2420" s="36"/>
     </row>
@@ -80841,7 +80841,7 @@
         <v>6</v>
       </c>
       <c r="N2423" s="36" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="V2423" s="36"/>
     </row>
@@ -80865,7 +80865,7 @@
         <v>7</v>
       </c>
       <c r="N2424" s="36" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="V2424" s="36"/>
     </row>
@@ -80913,7 +80913,7 @@
         <v>9</v>
       </c>
       <c r="N2426" s="36" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="V2426" s="36"/>
     </row>
@@ -80937,7 +80937,7 @@
         <v>10</v>
       </c>
       <c r="N2427" s="36" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V2427" s="36"/>
     </row>
@@ -80985,7 +80985,7 @@
         <v>12</v>
       </c>
       <c r="N2429" s="36" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="V2429" s="36"/>
     </row>
@@ -81009,13 +81009,13 @@
         <v>13</v>
       </c>
       <c r="N2430" s="36" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="O2430" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2430" s="36" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81062,7 +81062,7 @@
         <v>15</v>
       </c>
       <c r="N2432" s="36" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="V2432" s="36"/>
     </row>
@@ -81086,13 +81086,13 @@
         <v>16</v>
       </c>
       <c r="N2433" s="36" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="O2433" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2433" s="36" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81139,7 +81139,7 @@
         <v>18</v>
       </c>
       <c r="N2435" s="36" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="V2435" s="36"/>
     </row>
@@ -81163,13 +81163,13 @@
         <v>19</v>
       </c>
       <c r="N2436" s="36" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="O2436" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2436" s="36" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81192,7 +81192,7 @@
         <v>20</v>
       </c>
       <c r="N2437" s="36" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="O2437" s="6" t="s">
         <v>74</v>
@@ -81201,7 +81201,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620E4D1-6695-4ACF-A25B-4179576D017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF23DE-FDB3-4397-BF4E-B4784955A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3744,9 +3744,6 @@
     <t>dvAda#SakapAlaq itiq dvAda#Sa - kaqpAqlaqH</t>
   </si>
   <si>
-    <t>dvAda#SAkShaqretiq dvAda#SA - aqkShaqrAq</t>
-  </si>
-  <si>
     <t>tRuqtIqyaqsaqvaqnamiti# tRutIya - saqvaqnam</t>
   </si>
   <si>
@@ -4597,6 +4594,9 @@
   </si>
   <si>
     <t>aqBica#ritaqvai</t>
+  </si>
+  <si>
+    <t>dvAda#SAkShaqretiq dvAda#Sa - aqkShaqrAq</t>
   </si>
 </sst>
 </file>
@@ -5241,10 +5241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V550" sqref="V550"/>
+      <selection pane="bottomLeft" activeCell="V1008" sqref="V1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6104,7 +6104,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6539,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -6551,7 +6551,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6838,7 +6838,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V27" s="36" t="s">
         <v>1147</v>
@@ -6873,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -6885,7 +6885,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="36" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7281,7 +7281,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="9" t="s">
@@ -7293,7 +7293,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7647,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="9" t="s">
@@ -7659,7 +7659,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="36" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
@@ -8098,7 +8098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8623,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8672,7 +8672,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="V72" s="36" t="s">
         <v>1150</v>
@@ -8985,7 +8985,7 @@
         <v>79</v>
       </c>
       <c r="N80" s="36" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="9" t="s">
@@ -8997,7 +8997,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9229,7 +9229,7 @@
         <v>85</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="9" t="s">
@@ -9241,7 +9241,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9595,7 +9595,7 @@
         <v>94</v>
       </c>
       <c r="N95" s="36" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="9" t="s">
@@ -9607,7 +9607,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="N101" s="36" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>74</v>
@@ -9833,7 +9833,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10133,7 +10133,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10162,7 +10162,7 @@
         <v>109</v>
       </c>
       <c r="N110" s="36" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="9" t="s">
@@ -10174,7 +10174,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="9" t="s">
@@ -10376,7 +10376,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10731,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="9" t="s">
@@ -10743,7 +10743,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10959,7 +10959,7 @@
         <v>129</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O130" s="6" t="s">
         <v>74</v>
@@ -10973,7 +10973,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11220,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="9" t="s">
@@ -11232,7 +11232,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11791,7 +11791,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V152" s="36" t="s">
         <v>1157</v>
@@ -12026,7 +12026,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="9" t="s">
@@ -12038,7 +12038,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12645,7 +12645,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12840,7 +12840,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12964,10 +12964,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T182" s="6" t="s">
         <v>1502</v>
-      </c>
-      <c r="T182" s="6" t="s">
-        <v>1503</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13156,7 +13156,7 @@
         <v>186</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O187" s="5"/>
       <c r="P187" s="9" t="s">
@@ -13168,7 +13168,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13268,7 +13268,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O190" s="5"/>
       <c r="P190" s="9" t="s">
@@ -13280,7 +13280,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13677,7 +13677,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="36" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O201" s="5"/>
       <c r="P201" s="9" t="s">
@@ -13689,7 +13689,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13940,7 +13940,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="O208" s="5"/>
       <c r="P208" s="9" t="s">
@@ -13952,7 +13952,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14106,7 +14106,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14215,7 +14215,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14520,7 +14520,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24436,7 +24436,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24652,7 +24652,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25660,7 +25660,7 @@
         <v>30</v>
       </c>
       <c r="N550" s="37" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O550" s="6" t="s">
         <v>74</v>
@@ -28345,7 +28345,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28908,7 +28908,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -29458,7 +29458,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -31286,7 +31286,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31319,7 +31319,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32550,7 +32550,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -38682,7 +38682,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38703,7 +38703,7 @@
         <v>232</v>
       </c>
       <c r="N950" s="36" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="O950" s="5"/>
       <c r="P950" s="9" t="s">
@@ -38715,7 +38715,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38977,7 +38977,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -40509,8 +40509,8 @@
       <c r="S1005" s="6"/>
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
-      <c r="V1005" s="36" t="s">
-        <v>1238</v>
+      <c r="V1005" s="37" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40646,7 +40646,7 @@
       <c r="T1009" s="6"/>
       <c r="U1009" s="6"/>
       <c r="V1009" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1010" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40682,7 +40682,7 @@
       <c r="T1010" s="6"/>
       <c r="U1010" s="6"/>
       <c r="V1010" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1011" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41325,7 +41325,7 @@
       <c r="T1030" s="6"/>
       <c r="U1030" s="6"/>
       <c r="V1030" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41775,7 +41775,7 @@
       <c r="T1044" s="6"/>
       <c r="U1044" s="6"/>
       <c r="V1044" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="U1076" s="6"/>
       <c r="V1076" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1077" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42864,7 +42864,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42962,7 +42962,7 @@
       <c r="T1081" s="6"/>
       <c r="U1081" s="6"/>
       <c r="V1081" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1082" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42998,7 +42998,7 @@
       <c r="T1082" s="6"/>
       <c r="U1082" s="6"/>
       <c r="V1082" s="36" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1083" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43162,7 +43162,7 @@
       <c r="T1087" s="6"/>
       <c r="U1087" s="6"/>
       <c r="V1087" s="36" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1088" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43683,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43717,7 +43717,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43881,7 +43881,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="36" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44197,7 +44197,7 @@
       <c r="T1119" s="6"/>
       <c r="U1119" s="6"/>
       <c r="V1119" s="36" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1120" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44445,7 +44445,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="36" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1127" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44699,7 +44699,7 @@
       <c r="T1134" s="6"/>
       <c r="U1134" s="6"/>
       <c r="V1134" s="36" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1135" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44735,7 +44735,7 @@
       <c r="T1135" s="6"/>
       <c r="U1135" s="6"/>
       <c r="V1135" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1136" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44867,7 +44867,7 @@
       <c r="T1139" s="6"/>
       <c r="U1139" s="6"/>
       <c r="V1139" s="36" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45153,7 +45153,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1149" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45514,7 +45514,7 @@
       <c r="T1158" s="6"/>
       <c r="U1158" s="6"/>
       <c r="V1158" s="36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1159" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45949,7 +45949,7 @@
       <c r="T1171" s="6"/>
       <c r="U1171" s="6"/>
       <c r="V1171" s="36" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1172" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46177,7 +46177,7 @@
       <c r="T1178" s="6"/>
       <c r="U1178" s="6"/>
       <c r="V1178" s="36" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1179" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46249,7 +46249,7 @@
       <c r="T1180" s="6"/>
       <c r="U1180" s="6"/>
       <c r="V1180" s="36" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46355,7 +46355,7 @@
       <c r="T1183" s="6"/>
       <c r="U1183" s="6"/>
       <c r="V1183" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1184" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46390,7 +46390,7 @@
       <c r="T1184" s="6"/>
       <c r="U1184" s="6"/>
       <c r="V1184" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1185" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46582,7 +46582,7 @@
       <c r="T1190" s="6"/>
       <c r="U1190" s="6"/>
       <c r="V1190" s="36" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46605,7 +46605,7 @@
         <v>87</v>
       </c>
       <c r="N1191" s="36" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="O1191" s="6" t="s">
         <v>74</v>
@@ -46617,7 +46617,7 @@
       <c r="T1191" s="6"/>
       <c r="U1191" s="6"/>
       <c r="V1191" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1192" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47207,7 +47207,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47547,7 +47547,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47646,10 +47646,10 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V1223" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47841,7 +47841,7 @@
       <c r="T1229" s="6"/>
       <c r="U1229" s="6"/>
       <c r="V1229" s="36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1230" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47972,7 +47972,7 @@
       <c r="T1233" s="6"/>
       <c r="U1233" s="6"/>
       <c r="V1233" s="36" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48657,7 +48657,7 @@
       <c r="T1255" s="6"/>
       <c r="U1255" s="6"/>
       <c r="V1255" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1256" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48818,7 +48818,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -49228,7 +49228,7 @@
       <c r="T1273" s="6"/>
       <c r="U1273" s="6"/>
       <c r="V1273" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50511,7 +50511,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50545,7 +50545,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50707,7 +50707,7 @@
       <c r="T1319" s="6"/>
       <c r="U1319" s="6"/>
       <c r="V1319" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50904,7 +50904,7 @@
       <c r="T1325" s="6"/>
       <c r="U1325" s="6"/>
       <c r="V1325" s="36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50941,7 +50941,7 @@
       <c r="T1326" s="6"/>
       <c r="U1326" s="6"/>
       <c r="V1326" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50978,7 +50978,7 @@
       <c r="T1327" s="6"/>
       <c r="U1327" s="6"/>
       <c r="V1327" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51349,7 +51349,7 @@
       <c r="T1338" s="6"/>
       <c r="U1338" s="6"/>
       <c r="V1338" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1339" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51385,7 +51385,7 @@
       <c r="T1339" s="6"/>
       <c r="U1339" s="6"/>
       <c r="V1339" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51581,7 +51581,7 @@
       <c r="T1345" s="6"/>
       <c r="U1345" s="6"/>
       <c r="V1345" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51617,7 +51617,7 @@
       <c r="T1346" s="6"/>
       <c r="U1346" s="6"/>
       <c r="V1346" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1347" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51653,7 +51653,7 @@
       <c r="T1347" s="6"/>
       <c r="U1347" s="6"/>
       <c r="V1347" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51989,7 +51989,7 @@
       <c r="T1357" s="6"/>
       <c r="U1357" s="6"/>
       <c r="V1357" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1358" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52026,7 +52026,7 @@
       <c r="T1358" s="6"/>
       <c r="U1358" s="6"/>
       <c r="V1358" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1359" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52096,7 +52096,7 @@
       <c r="T1360" s="6"/>
       <c r="U1360" s="6"/>
       <c r="V1360" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52230,7 +52230,7 @@
       <c r="T1364" s="6"/>
       <c r="U1364" s="6"/>
       <c r="V1364" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52374,7 +52374,7 @@
       <c r="T1368" s="6"/>
       <c r="U1368" s="6"/>
       <c r="V1368" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52412,7 +52412,7 @@
       <c r="T1369" s="6"/>
       <c r="U1369" s="6"/>
       <c r="V1369" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1370" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52482,7 +52482,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52616,7 +52616,7 @@
       <c r="T1375" s="6"/>
       <c r="U1375" s="6"/>
       <c r="V1375" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52684,7 +52684,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52753,7 +52753,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="37" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52897,7 +52897,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52933,7 +52933,7 @@
       <c r="T1384" s="6"/>
       <c r="U1384" s="6"/>
       <c r="V1384" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1385" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53001,7 +53001,7 @@
       <c r="T1386" s="6"/>
       <c r="U1386" s="6"/>
       <c r="V1386" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1387" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53369,7 +53369,7 @@
       <c r="T1397" s="6"/>
       <c r="U1397" s="6"/>
       <c r="V1397" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53405,7 +53405,7 @@
       <c r="T1398" s="6"/>
       <c r="U1398" s="6"/>
       <c r="V1398" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53473,7 +53473,7 @@
       <c r="T1400" s="6"/>
       <c r="U1400" s="6"/>
       <c r="V1400" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1401" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53596,7 +53596,7 @@
         <v>90</v>
       </c>
       <c r="N1404" s="37" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -53608,7 +53608,7 @@
       <c r="T1404" s="6"/>
       <c r="U1404" s="6"/>
       <c r="V1404" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53645,7 +53645,7 @@
       <c r="T1405" s="6"/>
       <c r="U1405" s="6"/>
       <c r="V1405" s="36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53759,7 +53759,7 @@
       <c r="T1408" s="6"/>
       <c r="U1408" s="6"/>
       <c r="V1408" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53795,7 +53795,7 @@
       <c r="T1409" s="6"/>
       <c r="U1409" s="6"/>
       <c r="V1409" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1410" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53990,7 +53990,7 @@
       <c r="T1415" s="6"/>
       <c r="U1415" s="6"/>
       <c r="V1415" s="36" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54026,7 +54026,7 @@
       <c r="T1416" s="6"/>
       <c r="U1416" s="6"/>
       <c r="V1416" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54062,7 +54062,7 @@
       <c r="T1417" s="6"/>
       <c r="U1417" s="6"/>
       <c r="V1417" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54398,7 +54398,7 @@
       <c r="T1427" s="6"/>
       <c r="U1427" s="6"/>
       <c r="V1427" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1428" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54434,7 +54434,7 @@
       <c r="T1428" s="6"/>
       <c r="U1428" s="6"/>
       <c r="V1428" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1429" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55638,7 +55638,7 @@
       <c r="T1465" s="6"/>
       <c r="U1465" s="6"/>
       <c r="V1465" s="36" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56205,7 +56205,7 @@
       <c r="T1482" s="6"/>
       <c r="U1482" s="6"/>
       <c r="V1482" s="36" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56273,7 +56273,7 @@
       <c r="S1484" s="6"/>
       <c r="T1484" s="6"/>
       <c r="V1484" s="36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56409,7 +56409,7 @@
       <c r="T1488" s="6"/>
       <c r="U1488" s="6"/>
       <c r="V1488" s="36" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56529,7 +56529,7 @@
         <v>178</v>
       </c>
       <c r="N1492" s="36" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O1492" s="5"/>
       <c r="P1492" s="9" t="s">
@@ -56541,7 +56541,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56575,7 +56575,7 @@
       <c r="T1493" s="6"/>
       <c r="U1493" s="6"/>
       <c r="V1493" s="36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56900,7 +56900,7 @@
       <c r="T1503" s="6"/>
       <c r="U1503" s="6"/>
       <c r="V1503" s="36" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56936,7 +56936,7 @@
       <c r="T1504" s="6"/>
       <c r="U1504" s="6"/>
       <c r="V1504" s="36" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57169,7 +57169,7 @@
       <c r="T1511" s="6"/>
       <c r="U1511" s="6"/>
       <c r="V1511" s="36" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1512" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57415,7 +57415,7 @@
       <c r="T1518" s="6"/>
       <c r="U1518" s="6"/>
       <c r="V1518" s="36" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57880,7 +57880,7 @@
       <c r="T1532" s="6"/>
       <c r="U1532" s="6"/>
       <c r="V1532" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58008,7 +58008,7 @@
       <c r="T1536" s="6"/>
       <c r="U1536" s="6"/>
       <c r="V1536" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1537" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58043,7 +58043,7 @@
       <c r="T1537" s="6"/>
       <c r="U1537" s="6"/>
       <c r="V1537" s="36" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1538" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58109,7 +58109,7 @@
       <c r="T1539" s="6"/>
       <c r="U1539" s="6"/>
       <c r="V1539" s="36" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1540" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58175,7 +58175,7 @@
       <c r="T1541" s="6"/>
       <c r="U1541" s="6"/>
       <c r="V1541" s="36" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1542" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58271,7 +58271,7 @@
       <c r="T1544" s="6"/>
       <c r="U1544" s="6"/>
       <c r="V1544" s="36" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1545" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58463,7 +58463,7 @@
       <c r="T1550" s="6"/>
       <c r="U1550" s="6"/>
       <c r="V1550" s="36" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1551" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58529,7 +58529,7 @@
       <c r="T1552" s="6"/>
       <c r="U1552" s="6"/>
       <c r="V1552" s="36" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58657,7 +58657,7 @@
       <c r="T1556" s="6"/>
       <c r="U1556" s="6"/>
       <c r="V1556" s="36" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1557" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58880,7 +58880,7 @@
       <c r="T1563" s="6"/>
       <c r="U1563" s="6"/>
       <c r="V1563" s="36" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1564" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59071,7 +59071,7 @@
       <c r="T1569" s="6"/>
       <c r="U1569" s="6"/>
       <c r="V1569" s="36" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1570" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59356,7 +59356,7 @@
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
       <c r="V1578" s="36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59464,7 +59464,7 @@
         <v>74</v>
       </c>
       <c r="V1582" s="36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59646,7 +59646,7 @@
         <v>74</v>
       </c>
       <c r="V1589" s="36" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59746,7 +59746,7 @@
         <v>74</v>
       </c>
       <c r="V1593" s="36" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1594" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59970,7 +59970,7 @@
         <v>74</v>
       </c>
       <c r="V1602" s="36" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1603" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60167,7 +60167,7 @@
         <v>74</v>
       </c>
       <c r="V1610" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1611" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60196,7 +60196,7 @@
         <v>74</v>
       </c>
       <c r="V1611" s="36" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1612" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60369,7 +60369,7 @@
         <v>74</v>
       </c>
       <c r="V1618" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1619" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60398,7 +60398,7 @@
         <v>74</v>
       </c>
       <c r="V1619" s="36" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60595,7 +60595,7 @@
         <v>74</v>
       </c>
       <c r="V1627" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1628" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61427,7 +61427,7 @@
         <v>74</v>
       </c>
       <c r="V1661" s="36" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1662" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61611,7 +61611,7 @@
         <v>74</v>
       </c>
       <c r="V1668" s="36" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1669" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61724,7 +61724,7 @@
         <v>74</v>
       </c>
       <c r="V1672" s="36" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1673" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61807,7 +61807,7 @@
         <v>74</v>
       </c>
       <c r="V1675" s="36" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1676" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61865,7 +61865,7 @@
         <v>76</v>
       </c>
       <c r="V1677" s="36" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1678" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62280,7 +62280,7 @@
         <v>76</v>
       </c>
       <c r="V1694" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62309,7 +62309,7 @@
         <v>74</v>
       </c>
       <c r="V1695" s="36" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1696" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62338,7 +62338,7 @@
         <v>74</v>
       </c>
       <c r="V1696" s="36" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62442,7 +62442,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -62571,7 +62571,7 @@
         <v>74</v>
       </c>
       <c r="V1705" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1706" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62672,7 +62672,7 @@
         <v>74</v>
       </c>
       <c r="V1709" s="36" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1710" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62965,7 +62965,7 @@
         <v>74</v>
       </c>
       <c r="V1721" s="36" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1722" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63162,7 +63162,7 @@
         <v>74</v>
       </c>
       <c r="V1729" s="36" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1730" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63750,7 +63750,7 @@
         <v>74</v>
       </c>
       <c r="V1753" s="36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1754" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63827,7 +63827,7 @@
         <v>74</v>
       </c>
       <c r="V1756" s="36" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63856,7 +63856,7 @@
         <v>74</v>
       </c>
       <c r="V1757" s="36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1758" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63885,7 +63885,7 @@
         <v>74</v>
       </c>
       <c r="V1758" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64130,7 +64130,7 @@
         <v>78</v>
       </c>
       <c r="V1768" s="36" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64399,7 +64399,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64501,7 +64501,7 @@
         <v>74</v>
       </c>
       <c r="V1783" s="36" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1784" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64602,7 +64602,7 @@
         <v>74</v>
       </c>
       <c r="V1787" s="36" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1788" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64895,13 +64895,13 @@
         <v>307</v>
       </c>
       <c r="N1799" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P1799" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65192,7 +65192,7 @@
         <v>74</v>
       </c>
       <c r="V1811" s="36" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65322,7 +65322,7 @@
         <v>74</v>
       </c>
       <c r="V1816" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1817" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65519,7 +65519,7 @@
         <v>74</v>
       </c>
       <c r="V1824" s="36" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65913,7 +65913,7 @@
         <v>74</v>
       </c>
       <c r="V1840" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1841" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65993,7 +65993,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -66047,7 +66047,7 @@
         <v>74</v>
       </c>
       <c r="V1845" s="36" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1846" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66124,7 +66124,7 @@
         <v>74</v>
       </c>
       <c r="V1848" s="36" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1849" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67303,7 +67303,7 @@
         <v>74</v>
       </c>
       <c r="V1896" s="36" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1897" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67356,7 +67356,7 @@
         <v>74</v>
       </c>
       <c r="V1898" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1899" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67408,7 +67408,7 @@
         <v>74</v>
       </c>
       <c r="V1900" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67437,7 +67437,7 @@
         <v>74</v>
       </c>
       <c r="V1901" s="36" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67514,7 +67514,7 @@
         <v>74</v>
       </c>
       <c r="V1904" s="36" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67615,7 +67615,7 @@
         <v>74</v>
       </c>
       <c r="V1908" s="36" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1909" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67767,7 +67767,7 @@
         <v>74</v>
       </c>
       <c r="V1914" s="36" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1915" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67796,7 +67796,7 @@
         <v>74</v>
       </c>
       <c r="V1915" s="36" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68164,7 +68164,7 @@
         <v>74</v>
       </c>
       <c r="V1930" s="36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1931" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68193,7 +68193,7 @@
         <v>74</v>
       </c>
       <c r="V1931" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1932" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68369,7 +68369,7 @@
         <v>74</v>
       </c>
       <c r="V1938" s="36" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1939" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69148,7 +69148,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69252,7 +69252,7 @@
         <v>74</v>
       </c>
       <c r="V1973" s="36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1974" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69382,7 +69382,7 @@
         <v>74</v>
       </c>
       <c r="V1978" s="36" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1979" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69579,7 +69579,7 @@
         <v>74</v>
       </c>
       <c r="V1986" s="36" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1987" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69776,7 +69776,7 @@
         <v>74</v>
       </c>
       <c r="V1994" s="36" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1995" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69978,7 +69978,7 @@
         <v>74</v>
       </c>
       <c r="V2002" s="36" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70199,7 +70199,7 @@
         <v>74</v>
       </c>
       <c r="V2011" s="36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2012" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71123,7 +71123,7 @@
         <v>74</v>
       </c>
       <c r="V2049" s="36" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2050" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,13 +71194,13 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2052" s="36" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="2053" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71325,7 +71325,7 @@
         <v>74</v>
       </c>
       <c r="V2057" s="36" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71432,7 +71432,7 @@
         <v>74</v>
       </c>
       <c r="V2061" s="36" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2062" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71652,7 +71652,7 @@
         <v>74</v>
       </c>
       <c r="V2070" s="36" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71753,7 +71753,7 @@
         <v>76</v>
       </c>
       <c r="V2074" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2075" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71782,7 +71782,7 @@
         <v>74</v>
       </c>
       <c r="V2075" s="36" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2076" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71835,7 +71835,7 @@
         <v>74</v>
       </c>
       <c r="V2077" s="36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72128,7 +72128,7 @@
         <v>74</v>
       </c>
       <c r="V2089" s="36" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2090" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72313,7 +72313,7 @@
         <v>74</v>
       </c>
       <c r="V2096" s="37" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2097" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72539,7 +72539,7 @@
         <v>74</v>
       </c>
       <c r="V2105" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="2106" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72568,7 +72568,7 @@
         <v>74</v>
       </c>
       <c r="V2106" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2107" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72621,7 +72621,7 @@
         <v>74</v>
       </c>
       <c r="V2108" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72650,7 +72650,7 @@
         <v>74</v>
       </c>
       <c r="V2109" s="36" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72703,7 +72703,7 @@
         <v>74</v>
       </c>
       <c r="V2111" s="36" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73260,7 +73260,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73287,7 +73287,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73338,7 +73338,7 @@
         <v>74</v>
       </c>
       <c r="V2136" s="36" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73367,7 +73367,7 @@
         <v>74</v>
       </c>
       <c r="V2137" s="36" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73420,7 +73420,7 @@
         <v>74</v>
       </c>
       <c r="V2139" s="36" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="2140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73473,7 +73473,7 @@
         <v>74</v>
       </c>
       <c r="V2141" s="36" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73502,7 +73502,7 @@
         <v>74</v>
       </c>
       <c r="V2142" s="36" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73603,7 +73603,7 @@
         <v>74</v>
       </c>
       <c r="V2146" s="36" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2147" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73632,7 +73632,7 @@
         <v>74</v>
       </c>
       <c r="V2147" s="36" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2148" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73685,7 +73685,7 @@
         <v>74</v>
       </c>
       <c r="V2149" s="36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73906,7 +73906,7 @@
         <v>74</v>
       </c>
       <c r="V2158" s="36" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2159" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73935,7 +73935,7 @@
         <v>74</v>
       </c>
       <c r="V2159" s="36" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2160" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73958,13 +73958,13 @@
         <v>26</v>
       </c>
       <c r="N2160" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2160" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74015,7 +74015,7 @@
         <v>74</v>
       </c>
       <c r="V2162" s="36" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2163" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74044,7 +74044,7 @@
         <v>74</v>
       </c>
       <c r="V2163" s="36" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2164" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74145,7 +74145,7 @@
         <v>74</v>
       </c>
       <c r="V2167" s="36" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2168" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74264,13 +74264,13 @@
         <v>12</v>
       </c>
       <c r="N2172" s="36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="O2172" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2172" s="36" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,13 +74293,13 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2173" s="36" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74352,7 +74352,7 @@
         <v>74</v>
       </c>
       <c r="V2175" s="36" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2176" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74573,7 +74573,7 @@
         <v>74</v>
       </c>
       <c r="V2184" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2185" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74602,7 +74602,7 @@
         <v>74</v>
       </c>
       <c r="V2185" s="36" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74625,13 +74625,13 @@
         <v>26</v>
       </c>
       <c r="N2186" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2186" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74658,7 +74658,7 @@
         <v>74</v>
       </c>
       <c r="V2187" s="36" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74687,7 +74687,7 @@
         <v>74</v>
       </c>
       <c r="V2188" s="36" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74716,7 +74716,7 @@
         <v>74</v>
       </c>
       <c r="V2189" s="36" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74769,7 +74769,7 @@
         <v>74</v>
       </c>
       <c r="V2191" s="36" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74801,7 +74801,7 @@
         <v>74</v>
       </c>
       <c r="V2192" s="36" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74833,7 +74833,7 @@
         <v>74</v>
       </c>
       <c r="V2193" s="36" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2194" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74865,7 +74865,7 @@
         <v>74</v>
       </c>
       <c r="V2194" s="36" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2195" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74918,7 +74918,7 @@
         <v>74</v>
       </c>
       <c r="V2196" s="36" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2197" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74947,7 +74947,7 @@
         <v>74</v>
       </c>
       <c r="V2197" s="36" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2198" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74976,7 +74976,7 @@
         <v>74</v>
       </c>
       <c r="V2198" s="36" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2199" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75005,7 +75005,7 @@
         <v>74</v>
       </c>
       <c r="V2199" s="36" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2200" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75154,7 +75154,7 @@
         <v>74</v>
       </c>
       <c r="V2205" s="36" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75255,7 +75255,7 @@
         <v>74</v>
       </c>
       <c r="V2209" s="36" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75284,7 +75284,7 @@
         <v>74</v>
       </c>
       <c r="V2210" s="36" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2211" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75307,13 +75307,13 @@
         <v>25</v>
       </c>
       <c r="N2211" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2211" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75340,7 +75340,7 @@
         <v>74</v>
       </c>
       <c r="V2212" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75441,7 +75441,7 @@
         <v>74</v>
       </c>
       <c r="V2216" s="36" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75473,7 +75473,7 @@
         <v>74</v>
       </c>
       <c r="V2217" s="36" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75505,7 +75505,7 @@
         <v>74</v>
       </c>
       <c r="V2218" s="36" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75537,7 +75537,7 @@
         <v>74</v>
       </c>
       <c r="V2219" s="36" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75593,7 +75593,7 @@
         <v>74</v>
       </c>
       <c r="V2221" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75622,7 +75622,7 @@
         <v>74</v>
       </c>
       <c r="V2222" s="36" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75651,7 +75651,7 @@
         <v>74</v>
       </c>
       <c r="V2223" s="36" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75680,7 +75680,7 @@
         <v>74</v>
       </c>
       <c r="V2224" s="36" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75733,7 +75733,7 @@
         <v>74</v>
       </c>
       <c r="V2226" s="36" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2227" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75834,7 +75834,7 @@
         <v>74</v>
       </c>
       <c r="V2230" s="36" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2231" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75911,7 +75911,7 @@
         <v>74</v>
       </c>
       <c r="V2233" s="36" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75940,7 +75940,7 @@
         <v>74</v>
       </c>
       <c r="V2234" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2235" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75969,7 +75969,7 @@
         <v>74</v>
       </c>
       <c r="V2235" s="36" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2236" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75992,13 +75992,13 @@
         <v>25</v>
       </c>
       <c r="N2236" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2236" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76313,7 +76313,7 @@
         <v>74</v>
       </c>
       <c r="V2249" s="36" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76411,7 +76411,7 @@
         <v>1042</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76513,7 +76513,7 @@
         <v>74</v>
       </c>
       <c r="V2257" s="36" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2258" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76542,12 +76542,12 @@
         <v>74</v>
       </c>
       <c r="V2258" s="36" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76568,13 +76568,13 @@
         <v>23</v>
       </c>
       <c r="N2259" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2259" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76673,7 +76673,7 @@
         <v>74</v>
       </c>
       <c r="V2263" s="36" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2264" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76750,7 +76750,7 @@
         <v>74</v>
       </c>
       <c r="V2266" s="36" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2267" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76851,7 +76851,7 @@
         <v>74</v>
       </c>
       <c r="V2270" s="36" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2271" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76880,7 +76880,7 @@
         <v>74</v>
       </c>
       <c r="V2271" s="36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2272" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76957,7 +76957,7 @@
         <v>74</v>
       </c>
       <c r="V2274" s="36" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77034,7 +77034,7 @@
         <v>74</v>
       </c>
       <c r="V2277" s="36" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77063,7 +77063,7 @@
         <v>74</v>
       </c>
       <c r="V2278" s="36" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77086,13 +77086,13 @@
         <v>20</v>
       </c>
       <c r="N2279" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2279" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77185,13 +77185,13 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2283" s="36" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2284" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77244,7 +77244,7 @@
         <v>74</v>
       </c>
       <c r="V2285" s="36" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77297,7 +77297,7 @@
         <v>74</v>
       </c>
       <c r="V2287" s="36" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2288" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77350,7 +77350,7 @@
         <v>74</v>
       </c>
       <c r="V2289" s="36" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2290" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77403,7 +77403,7 @@
         <v>74</v>
       </c>
       <c r="V2291" s="36" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77624,7 +77624,7 @@
         <v>74</v>
       </c>
       <c r="V2300" s="36" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2301" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77647,13 +77647,13 @@
         <v>22</v>
       </c>
       <c r="N2301" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2301" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77728,7 +77728,7 @@
         <v>74</v>
       </c>
       <c r="V2304" s="36" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="2305" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77805,7 +77805,7 @@
         <v>74</v>
       </c>
       <c r="V2307" s="36" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2308" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77882,7 +77882,7 @@
         <v>74</v>
       </c>
       <c r="V2310" s="36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2311" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78055,7 +78055,7 @@
         <v>74</v>
       </c>
       <c r="V2317" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2318" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78084,7 +78084,7 @@
         <v>74</v>
       </c>
       <c r="V2318" s="36" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2319" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78107,13 +78107,13 @@
         <v>18</v>
       </c>
       <c r="N2319" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2319" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78332,7 +78332,7 @@
         <v>74</v>
       </c>
       <c r="V2328" s="36" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78403,7 +78403,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="37" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78529,7 +78529,7 @@
         <v>74</v>
       </c>
       <c r="V2336" s="36" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78576,13 +78576,13 @@
         <v>19</v>
       </c>
       <c r="N2338" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2338" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78657,7 +78657,7 @@
         <v>74</v>
       </c>
       <c r="V2341" s="36" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78758,7 +78758,7 @@
         <v>74</v>
       </c>
       <c r="V2345" s="36" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78811,7 +78811,7 @@
         <v>74</v>
       </c>
       <c r="V2347" s="36" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78864,7 +78864,7 @@
         <v>74</v>
       </c>
       <c r="V2349" s="36" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78941,7 +78941,7 @@
         <v>74</v>
       </c>
       <c r="V2352" s="36" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2353" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79018,7 +79018,7 @@
         <v>74</v>
       </c>
       <c r="V2355" s="36" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2356" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79047,7 +79047,7 @@
         <v>74</v>
       </c>
       <c r="V2356" s="36" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2357" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79076,12 +79076,12 @@
         <v>74</v>
       </c>
       <c r="V2357" s="36" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79102,13 +79102,13 @@
         <v>20</v>
       </c>
       <c r="N2358" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="P2358" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79159,7 +79159,7 @@
         <v>74</v>
       </c>
       <c r="V2360" s="36" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2361" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79188,7 +79188,7 @@
         <v>74</v>
       </c>
       <c r="V2361" s="36" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2362" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79241,7 +79241,7 @@
         <v>74</v>
       </c>
       <c r="V2363" s="36" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2364" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79270,7 +79270,7 @@
         <v>74</v>
       </c>
       <c r="V2364" s="36" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2365" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79323,7 +79323,7 @@
         <v>74</v>
       </c>
       <c r="V2366" s="36" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2367" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79352,7 +79352,7 @@
         <v>74</v>
       </c>
       <c r="V2367" s="36" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2368" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79381,7 +79381,7 @@
         <v>74</v>
       </c>
       <c r="V2368" s="36" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79410,10 +79410,10 @@
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V2369" s="36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79442,7 +79442,7 @@
         <v>76</v>
       </c>
       <c r="V2370" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79471,7 +79471,7 @@
         <v>76</v>
       </c>
       <c r="V2371" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79500,7 +79500,7 @@
         <v>76</v>
       </c>
       <c r="V2372" s="36" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79529,7 +79529,7 @@
         <v>74</v>
       </c>
       <c r="V2373" s="36" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79558,7 +79558,7 @@
         <v>76</v>
       </c>
       <c r="V2374" s="36" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79587,7 +79587,7 @@
         <v>76</v>
       </c>
       <c r="V2375" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79616,7 +79616,7 @@
         <v>76</v>
       </c>
       <c r="V2376" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79645,7 +79645,7 @@
         <v>76</v>
       </c>
       <c r="V2377" s="36" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79674,7 +79674,7 @@
         <v>76</v>
       </c>
       <c r="V2378" s="36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79703,7 +79703,7 @@
         <v>76</v>
       </c>
       <c r="V2379" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79732,7 +79732,7 @@
         <v>76</v>
       </c>
       <c r="V2380" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2381" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79761,7 +79761,7 @@
         <v>76</v>
       </c>
       <c r="V2381" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79790,7 +79790,7 @@
         <v>76</v>
       </c>
       <c r="V2382" s="36" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79843,7 +79843,7 @@
         <v>74</v>
       </c>
       <c r="V2384" s="36" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2385" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79896,7 +79896,7 @@
         <v>76</v>
       </c>
       <c r="V2386" s="36" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2387" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79925,7 +79925,7 @@
         <v>76</v>
       </c>
       <c r="V2387" s="36" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2388" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79954,7 +79954,7 @@
         <v>76</v>
       </c>
       <c r="V2388" s="36" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2389" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79980,7 +79980,7 @@
         <v>1117</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80052,7 +80052,7 @@
         <v>34</v>
       </c>
       <c r="N2392" s="36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>74</v>
@@ -80061,7 +80061,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80490,7 +80490,7 @@
         <v>74</v>
       </c>
       <c r="V2409" s="36" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80567,7 +80567,7 @@
         <v>74</v>
       </c>
       <c r="V2412" s="36" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80638,13 +80638,13 @@
         <v>23</v>
       </c>
       <c r="N2415" s="37" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2415" s="36" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80700,7 +80700,7 @@
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81015,7 +81015,7 @@
         <v>74</v>
       </c>
       <c r="V2430" s="36" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81092,7 +81092,7 @@
         <v>74</v>
       </c>
       <c r="V2433" s="36" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81169,7 +81169,7 @@
         <v>74</v>
       </c>
       <c r="V2436" s="36" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81192,7 +81192,7 @@
         <v>20</v>
       </c>
       <c r="N2437" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="O2437" s="6" t="s">
         <v>74</v>
@@ -81201,7 +81201,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF23DE-FDB3-4397-BF4E-B4784955A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2487A111-4D2D-457F-8589-71E9E70C30DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1524">
   <si>
     <t>Passage</t>
   </si>
@@ -4401,9 +4401,6 @@
     <t>janA#nAqmitiq janA#nAm</t>
   </si>
   <si>
-    <t>Bavaqntvitiq Bava#nti</t>
-  </si>
-  <si>
     <t>maq iti# me</t>
   </si>
   <si>
@@ -4597,6 +4594,12 @@
   </si>
   <si>
     <t>dvAda#SAkShaqretiq dvAda#Sa - aqkShaqrAq</t>
+  </si>
+  <si>
+    <t>BavaqntItiq Bava#nti</t>
+  </si>
+  <si>
+    <t>naq iti# naH</t>
   </si>
 </sst>
 </file>
@@ -5242,9 +5245,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1008" sqref="V1008"/>
+      <selection pane="bottomLeft" activeCell="P212" sqref="P212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6838,7 +6841,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V27" s="36" t="s">
         <v>1147</v>
@@ -6873,7 +6876,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -7570,7 +7573,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7658,8 +7661,8 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="36" t="s">
-        <v>1457</v>
+      <c r="V47" s="37" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8536,7 +8539,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8623,10 +8626,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8672,7 +8675,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V72" s="36" t="s">
         <v>1150</v>
@@ -8997,7 +9000,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9241,7 +9244,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9607,7 +9610,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9833,7 +9836,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10133,7 +10136,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10174,7 +10177,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10376,7 +10379,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10743,7 +10746,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10855,7 +10858,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10973,7 +10976,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11232,7 +11235,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11636,7 +11639,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11791,7 +11794,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V152" s="36" t="s">
         <v>1157</v>
@@ -12038,7 +12041,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12536,7 +12539,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12645,7 +12648,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12840,7 +12843,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12964,10 +12967,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T182" s="6" t="s">
         <v>1501</v>
-      </c>
-      <c r="T182" s="6" t="s">
-        <v>1502</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13168,7 +13171,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13280,7 +13283,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13576,7 +13579,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13689,7 +13692,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13952,7 +13955,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14105,8 +14108,8 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
-      <c r="V212" s="36" t="s">
-        <v>1474</v>
+      <c r="V212" s="37" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14215,7 +14218,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14520,7 +14523,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24436,7 +24439,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24652,7 +24655,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25660,7 +25663,7 @@
         <v>30</v>
       </c>
       <c r="N550" s="37" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O550" s="6" t="s">
         <v>74</v>
@@ -28345,7 +28348,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28908,7 +28911,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -29458,7 +29461,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -31286,7 +31289,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31319,7 +31322,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32550,7 +32553,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -38682,7 +38685,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38715,7 +38718,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38977,7 +38980,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -40510,7 +40513,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="37" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43686,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43717,7 +43720,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47207,7 +47210,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47646,7 +47649,7 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V1223" s="36" t="s">
         <v>1260</v>
@@ -48818,7 +48821,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -50511,7 +50514,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50545,7 +50548,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52684,7 +52687,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52753,7 +52756,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="37" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53596,7 +53599,7 @@
         <v>90</v>
       </c>
       <c r="N1404" s="37" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -56541,7 +56544,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62442,7 +62445,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -64399,7 +64402,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64901,7 +64904,7 @@
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65993,7 +65996,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -69148,7 +69151,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,7 +71197,7 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
@@ -73260,7 +73263,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73287,7 +73290,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73964,7 +73967,7 @@
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,7 +74296,7 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
@@ -74631,7 +74634,7 @@
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75313,7 +75316,7 @@
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75998,7 +76001,7 @@
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76411,7 +76414,7 @@
         <v>1042</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76547,7 +76550,7 @@
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76574,7 +76577,7 @@
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77092,7 +77095,7 @@
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77185,7 +77188,7 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
@@ -77653,7 +77656,7 @@
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78113,7 +78116,7 @@
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78403,7 +78406,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="37" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78582,7 +78585,7 @@
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79081,7 +79084,7 @@
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79108,7 +79111,7 @@
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79410,7 +79413,7 @@
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V2369" s="36" t="s">
         <v>1413</v>
@@ -79980,7 +79983,7 @@
         <v>1117</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80061,7 +80064,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80638,7 +80641,7 @@
         <v>23</v>
       </c>
       <c r="N2415" s="37" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
@@ -80700,7 +80703,7 @@
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81201,7 +81204,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2487A111-4D2D-457F-8589-71E9E70C30DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F9995-4F77-4B1D-9F31-BDC44676F86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1523">
   <si>
     <t>Passage</t>
   </si>
@@ -3988,9 +3988,6 @@
   </si>
   <si>
     <t>treqdhAqviqhiqtA iti# tredhA - viqhiqtAH</t>
-  </si>
-  <si>
-    <t>prAqjAqpaqtyA iti# prAjA - paqtyAqH</t>
   </si>
   <si>
     <t>vaiqSvaqkaqrmaqNIriti# vaiSva - kaqrmaqNIH</t>
@@ -5245,9 +5242,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1889" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P212" sqref="P212"/>
+      <selection pane="bottomLeft" activeCell="V1899" sqref="V1899"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6107,7 +6104,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6542,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -6554,7 +6551,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6841,7 +6838,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V27" s="36" t="s">
         <v>1147</v>
@@ -6876,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -6888,7 +6885,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7284,7 +7281,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="9" t="s">
@@ -7296,7 +7293,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7573,7 +7570,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7650,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="9" t="s">
@@ -7662,7 +7659,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="37" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8089,7 +8086,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
@@ -8101,7 +8098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8539,7 +8536,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="36" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8626,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8675,7 +8672,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V72" s="36" t="s">
         <v>1150</v>
@@ -8988,7 +8985,7 @@
         <v>79</v>
       </c>
       <c r="N80" s="36" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="9" t="s">
@@ -9000,7 +8997,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="36" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9232,7 +9229,7 @@
         <v>85</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="9" t="s">
@@ -9244,7 +9241,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="36" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9598,7 +9595,7 @@
         <v>94</v>
       </c>
       <c r="N95" s="36" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="9" t="s">
@@ -9610,7 +9607,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9822,7 +9819,7 @@
         <v>100</v>
       </c>
       <c r="N101" s="36" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>74</v>
@@ -9836,7 +9833,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="36" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10136,7 +10133,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10165,7 +10162,7 @@
         <v>109</v>
       </c>
       <c r="N110" s="36" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="9" t="s">
@@ -10177,7 +10174,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="36" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10367,7 +10364,7 @@
         <v>114</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="9" t="s">
@@ -10379,7 +10376,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="36" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10734,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="9" t="s">
@@ -10746,7 +10743,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="36" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10858,7 +10855,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -10962,7 +10959,7 @@
         <v>129</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O130" s="6" t="s">
         <v>74</v>
@@ -10976,7 +10973,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11223,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="9" t="s">
@@ -11235,7 +11232,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="36" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11639,7 +11636,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="36" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11794,7 +11791,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V152" s="36" t="s">
         <v>1157</v>
@@ -12029,7 +12026,7 @@
         <v>157</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="9" t="s">
@@ -12041,7 +12038,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="36" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12539,7 +12536,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="36" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12648,7 +12645,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12843,7 +12840,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="36" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12967,10 +12964,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T182" s="6" t="s">
         <v>1500</v>
-      </c>
-      <c r="T182" s="6" t="s">
-        <v>1501</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13159,7 +13156,7 @@
         <v>186</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O187" s="5"/>
       <c r="P187" s="9" t="s">
@@ -13171,7 +13168,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="36" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13271,7 +13268,7 @@
         <v>189</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O190" s="5"/>
       <c r="P190" s="9" t="s">
@@ -13283,7 +13280,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="36" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13579,7 +13576,7 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13680,7 +13677,7 @@
         <v>200</v>
       </c>
       <c r="N201" s="36" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O201" s="5"/>
       <c r="P201" s="9" t="s">
@@ -13692,7 +13689,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13943,7 +13940,7 @@
         <v>207</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O208" s="5"/>
       <c r="P208" s="9" t="s">
@@ -13955,7 +13952,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14109,7 +14106,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="37" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14218,7 +14215,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14523,7 +14520,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24439,7 +24436,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24655,7 +24652,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25663,7 +25660,7 @@
         <v>30</v>
       </c>
       <c r="N550" s="37" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="O550" s="6" t="s">
         <v>74</v>
@@ -28348,7 +28345,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28911,7 +28908,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -29461,7 +29458,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -31289,7 +31286,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31322,7 +31319,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32553,7 +32550,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -38685,7 +38682,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38706,7 +38703,7 @@
         <v>232</v>
       </c>
       <c r="N950" s="36" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="O950" s="5"/>
       <c r="P950" s="9" t="s">
@@ -38718,7 +38715,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38980,7 +38977,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -40513,7 +40510,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="37" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43686,7 +43683,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43720,7 +43717,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46608,7 +46605,7 @@
         <v>87</v>
       </c>
       <c r="N1191" s="36" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="O1191" s="6" t="s">
         <v>74</v>
@@ -47210,7 +47207,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47649,7 +47646,7 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V1223" s="36" t="s">
         <v>1260</v>
@@ -48821,7 +48818,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -50514,7 +50511,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50548,7 +50545,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52687,7 +52684,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52756,7 +52753,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="37" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53599,7 +53596,7 @@
         <v>90</v>
       </c>
       <c r="N1404" s="37" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -56532,7 +56529,7 @@
         <v>178</v>
       </c>
       <c r="N1492" s="36" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="O1492" s="5"/>
       <c r="P1492" s="9" t="s">
@@ -56544,7 +56541,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62445,7 +62442,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -64402,7 +64399,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64898,13 +64895,13 @@
         <v>307</v>
       </c>
       <c r="N1799" s="36" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="P1799" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65996,7 +65993,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -67358,8 +67355,8 @@
       <c r="O1898" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="V1898" s="36" t="s">
-        <v>1320</v>
+      <c r="V1898" s="37" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="1899" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67411,7 +67408,7 @@
         <v>74</v>
       </c>
       <c r="V1900" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67517,7 +67514,7 @@
         <v>74</v>
       </c>
       <c r="V1904" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67618,7 +67615,7 @@
         <v>74</v>
       </c>
       <c r="V1908" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1909" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67770,7 +67767,7 @@
         <v>74</v>
       </c>
       <c r="V1914" s="36" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1915" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67799,7 +67796,7 @@
         <v>74</v>
       </c>
       <c r="V1915" s="36" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68167,7 +68164,7 @@
         <v>74</v>
       </c>
       <c r="V1930" s="36" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1931" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68196,7 +68193,7 @@
         <v>74</v>
       </c>
       <c r="V1931" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1932" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68372,7 +68369,7 @@
         <v>74</v>
       </c>
       <c r="V1938" s="36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1939" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69151,7 +69148,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69255,7 +69252,7 @@
         <v>74</v>
       </c>
       <c r="V1973" s="36" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1974" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69385,7 +69382,7 @@
         <v>74</v>
       </c>
       <c r="V1978" s="36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1979" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69582,7 +69579,7 @@
         <v>74</v>
       </c>
       <c r="V1986" s="36" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1987" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69779,7 +69776,7 @@
         <v>74</v>
       </c>
       <c r="V1994" s="36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1995" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69981,7 +69978,7 @@
         <v>74</v>
       </c>
       <c r="V2002" s="36" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70202,7 +70199,7 @@
         <v>74</v>
       </c>
       <c r="V2011" s="36" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="2012" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71197,13 +71194,13 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2052" s="36" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2053" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71328,7 +71325,7 @@
         <v>74</v>
       </c>
       <c r="V2057" s="36" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="2058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71435,7 +71432,7 @@
         <v>74</v>
       </c>
       <c r="V2061" s="36" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2062" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71655,7 +71652,7 @@
         <v>74</v>
       </c>
       <c r="V2070" s="36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71785,7 +71782,7 @@
         <v>74</v>
       </c>
       <c r="V2075" s="36" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2076" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71838,7 +71835,7 @@
         <v>74</v>
       </c>
       <c r="V2077" s="36" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72131,7 +72128,7 @@
         <v>74</v>
       </c>
       <c r="V2089" s="36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2090" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72316,7 +72313,7 @@
         <v>74</v>
       </c>
       <c r="V2096" s="37" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2097" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72653,7 +72650,7 @@
         <v>74</v>
       </c>
       <c r="V2109" s="36" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72706,7 +72703,7 @@
         <v>74</v>
       </c>
       <c r="V2111" s="36" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73263,7 +73260,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73290,7 +73287,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73341,7 +73338,7 @@
         <v>74</v>
       </c>
       <c r="V2136" s="36" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73370,7 +73367,7 @@
         <v>74</v>
       </c>
       <c r="V2137" s="36" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73423,7 +73420,7 @@
         <v>74</v>
       </c>
       <c r="V2139" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73476,7 +73473,7 @@
         <v>74</v>
       </c>
       <c r="V2141" s="36" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73505,7 +73502,7 @@
         <v>74</v>
       </c>
       <c r="V2142" s="36" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73606,7 +73603,7 @@
         <v>74</v>
       </c>
       <c r="V2146" s="36" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2147" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73635,7 +73632,7 @@
         <v>74</v>
       </c>
       <c r="V2147" s="36" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2148" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73688,7 +73685,7 @@
         <v>74</v>
       </c>
       <c r="V2149" s="36" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2150" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73909,7 +73906,7 @@
         <v>74</v>
       </c>
       <c r="V2158" s="36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2159" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73938,7 +73935,7 @@
         <v>74</v>
       </c>
       <c r="V2159" s="36" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2160" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73961,13 +73958,13 @@
         <v>26</v>
       </c>
       <c r="N2160" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2160" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74018,7 +74015,7 @@
         <v>74</v>
       </c>
       <c r="V2162" s="36" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2163" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74047,7 +74044,7 @@
         <v>74</v>
       </c>
       <c r="V2163" s="36" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2164" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74148,7 +74145,7 @@
         <v>74</v>
       </c>
       <c r="V2167" s="36" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2168" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74267,13 +74264,13 @@
         <v>12</v>
       </c>
       <c r="N2172" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="O2172" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2172" s="36" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74296,13 +74293,13 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2173" s="36" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74355,7 +74352,7 @@
         <v>74</v>
       </c>
       <c r="V2175" s="36" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2176" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74576,7 +74573,7 @@
         <v>74</v>
       </c>
       <c r="V2184" s="36" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2185" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74605,7 +74602,7 @@
         <v>74</v>
       </c>
       <c r="V2185" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74628,13 +74625,13 @@
         <v>26</v>
       </c>
       <c r="N2186" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2186" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74661,7 +74658,7 @@
         <v>74</v>
       </c>
       <c r="V2187" s="36" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74690,7 +74687,7 @@
         <v>74</v>
       </c>
       <c r="V2188" s="36" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74719,7 +74716,7 @@
         <v>74</v>
       </c>
       <c r="V2189" s="36" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74772,7 +74769,7 @@
         <v>74</v>
       </c>
       <c r="V2191" s="36" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74804,7 +74801,7 @@
         <v>74</v>
       </c>
       <c r="V2192" s="36" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74836,7 +74833,7 @@
         <v>74</v>
       </c>
       <c r="V2193" s="36" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2194" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74868,7 +74865,7 @@
         <v>74</v>
       </c>
       <c r="V2194" s="36" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2195" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74921,7 +74918,7 @@
         <v>74</v>
       </c>
       <c r="V2196" s="36" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2197" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74950,7 +74947,7 @@
         <v>74</v>
       </c>
       <c r="V2197" s="36" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2198" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74979,7 +74976,7 @@
         <v>74</v>
       </c>
       <c r="V2198" s="36" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2199" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75008,7 +75005,7 @@
         <v>74</v>
       </c>
       <c r="V2199" s="36" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2200" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75157,7 +75154,7 @@
         <v>74</v>
       </c>
       <c r="V2205" s="36" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2206" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75258,7 +75255,7 @@
         <v>74</v>
       </c>
       <c r="V2209" s="36" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75287,7 +75284,7 @@
         <v>74</v>
       </c>
       <c r="V2210" s="36" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2211" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75310,13 +75307,13 @@
         <v>25</v>
       </c>
       <c r="N2211" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2211" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75343,7 +75340,7 @@
         <v>74</v>
       </c>
       <c r="V2212" s="36" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75444,7 +75441,7 @@
         <v>74</v>
       </c>
       <c r="V2216" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75476,7 +75473,7 @@
         <v>74</v>
       </c>
       <c r="V2217" s="36" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75508,7 +75505,7 @@
         <v>74</v>
       </c>
       <c r="V2218" s="36" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75540,7 +75537,7 @@
         <v>74</v>
       </c>
       <c r="V2219" s="36" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75596,7 +75593,7 @@
         <v>74</v>
       </c>
       <c r="V2221" s="36" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75625,7 +75622,7 @@
         <v>74</v>
       </c>
       <c r="V2222" s="36" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75654,7 +75651,7 @@
         <v>74</v>
       </c>
       <c r="V2223" s="36" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75683,7 +75680,7 @@
         <v>74</v>
       </c>
       <c r="V2224" s="36" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75736,7 +75733,7 @@
         <v>74</v>
       </c>
       <c r="V2226" s="36" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2227" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75837,7 +75834,7 @@
         <v>74</v>
       </c>
       <c r="V2230" s="36" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2231" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75914,7 +75911,7 @@
         <v>74</v>
       </c>
       <c r="V2233" s="36" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2234" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75943,7 +75940,7 @@
         <v>74</v>
       </c>
       <c r="V2234" s="36" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2235" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75972,7 +75969,7 @@
         <v>74</v>
       </c>
       <c r="V2235" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2236" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75995,13 +75992,13 @@
         <v>25</v>
       </c>
       <c r="N2236" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2236" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76316,7 +76313,7 @@
         <v>74</v>
       </c>
       <c r="V2249" s="36" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76414,7 +76411,7 @@
         <v>1042</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76516,7 +76513,7 @@
         <v>74</v>
       </c>
       <c r="V2257" s="36" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2258" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76545,12 +76542,12 @@
         <v>74</v>
       </c>
       <c r="V2258" s="36" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76571,13 +76568,13 @@
         <v>23</v>
       </c>
       <c r="N2259" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2259" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76676,7 +76673,7 @@
         <v>74</v>
       </c>
       <c r="V2263" s="36" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2264" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76753,7 +76750,7 @@
         <v>74</v>
       </c>
       <c r="V2266" s="36" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2267" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76854,7 +76851,7 @@
         <v>74</v>
       </c>
       <c r="V2270" s="36" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2271" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76883,7 +76880,7 @@
         <v>74</v>
       </c>
       <c r="V2271" s="36" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2272" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76960,7 +76957,7 @@
         <v>74</v>
       </c>
       <c r="V2274" s="36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77037,7 +77034,7 @@
         <v>74</v>
       </c>
       <c r="V2277" s="36" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77066,7 +77063,7 @@
         <v>74</v>
       </c>
       <c r="V2278" s="36" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77089,13 +77086,13 @@
         <v>20</v>
       </c>
       <c r="N2279" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2279" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77188,13 +77185,13 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2283" s="36" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2284" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77247,7 +77244,7 @@
         <v>74</v>
       </c>
       <c r="V2285" s="36" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77300,7 +77297,7 @@
         <v>74</v>
       </c>
       <c r="V2287" s="36" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2288" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77353,7 +77350,7 @@
         <v>74</v>
       </c>
       <c r="V2289" s="36" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2290" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77406,7 +77403,7 @@
         <v>74</v>
       </c>
       <c r="V2291" s="36" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77627,7 +77624,7 @@
         <v>74</v>
       </c>
       <c r="V2300" s="36" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2301" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77650,13 +77647,13 @@
         <v>22</v>
       </c>
       <c r="N2301" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2301" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77731,7 +77728,7 @@
         <v>74</v>
       </c>
       <c r="V2304" s="36" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2305" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77808,7 +77805,7 @@
         <v>74</v>
       </c>
       <c r="V2307" s="36" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="2308" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77885,7 +77882,7 @@
         <v>74</v>
       </c>
       <c r="V2310" s="36" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2311" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78058,7 +78055,7 @@
         <v>74</v>
       </c>
       <c r="V2317" s="36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2318" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78087,7 +78084,7 @@
         <v>74</v>
       </c>
       <c r="V2318" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2319" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78110,13 +78107,13 @@
         <v>18</v>
       </c>
       <c r="N2319" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2319" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78335,7 +78332,7 @@
         <v>74</v>
       </c>
       <c r="V2328" s="36" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78406,7 +78403,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="37" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78532,7 +78529,7 @@
         <v>74</v>
       </c>
       <c r="V2336" s="36" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2337" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78579,13 +78576,13 @@
         <v>19</v>
       </c>
       <c r="N2338" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2338" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78660,7 +78657,7 @@
         <v>74</v>
       </c>
       <c r="V2341" s="36" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2342" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78761,7 +78758,7 @@
         <v>74</v>
       </c>
       <c r="V2345" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78814,7 +78811,7 @@
         <v>74</v>
       </c>
       <c r="V2347" s="36" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2348" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78867,7 +78864,7 @@
         <v>74</v>
       </c>
       <c r="V2349" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2350" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78944,7 +78941,7 @@
         <v>74</v>
       </c>
       <c r="V2352" s="36" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2353" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79021,7 +79018,7 @@
         <v>74</v>
       </c>
       <c r="V2355" s="36" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2356" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79050,7 +79047,7 @@
         <v>74</v>
       </c>
       <c r="V2356" s="36" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2357" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79079,12 +79076,12 @@
         <v>74</v>
       </c>
       <c r="V2357" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79105,13 +79102,13 @@
         <v>20</v>
       </c>
       <c r="N2358" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P2358" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79162,7 +79159,7 @@
         <v>74</v>
       </c>
       <c r="V2360" s="36" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2361" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79191,7 +79188,7 @@
         <v>74</v>
       </c>
       <c r="V2361" s="36" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2362" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79244,7 +79241,7 @@
         <v>74</v>
       </c>
       <c r="V2363" s="36" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2364" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79273,7 +79270,7 @@
         <v>74</v>
       </c>
       <c r="V2364" s="36" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2365" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79326,7 +79323,7 @@
         <v>74</v>
       </c>
       <c r="V2366" s="36" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2367" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79355,7 +79352,7 @@
         <v>74</v>
       </c>
       <c r="V2367" s="36" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2368" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79384,7 +79381,7 @@
         <v>74</v>
       </c>
       <c r="V2368" s="36" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79413,10 +79410,10 @@
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V2369" s="36" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2370" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79474,7 +79471,7 @@
         <v>76</v>
       </c>
       <c r="V2371" s="36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2372" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79503,7 +79500,7 @@
         <v>76</v>
       </c>
       <c r="V2372" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79532,7 +79529,7 @@
         <v>74</v>
       </c>
       <c r="V2373" s="36" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2374" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79561,7 +79558,7 @@
         <v>76</v>
       </c>
       <c r="V2374" s="36" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79619,7 +79616,7 @@
         <v>76</v>
       </c>
       <c r="V2376" s="36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2377" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79648,7 +79645,7 @@
         <v>76</v>
       </c>
       <c r="V2377" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2378" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79677,7 +79674,7 @@
         <v>76</v>
       </c>
       <c r="V2378" s="36" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2379" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79706,7 +79703,7 @@
         <v>76</v>
       </c>
       <c r="V2379" s="36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2380" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79764,7 +79761,7 @@
         <v>76</v>
       </c>
       <c r="V2381" s="36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2382" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79793,7 +79790,7 @@
         <v>76</v>
       </c>
       <c r="V2382" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2383" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79846,7 +79843,7 @@
         <v>74</v>
       </c>
       <c r="V2384" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2385" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79899,7 +79896,7 @@
         <v>76</v>
       </c>
       <c r="V2386" s="36" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2387" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79928,7 +79925,7 @@
         <v>76</v>
       </c>
       <c r="V2387" s="36" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2388" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79957,7 +79954,7 @@
         <v>76</v>
       </c>
       <c r="V2388" s="36" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2389" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79983,7 +79980,7 @@
         <v>1117</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80055,7 +80052,7 @@
         <v>34</v>
       </c>
       <c r="N2392" s="36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>74</v>
@@ -80064,7 +80061,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80493,7 +80490,7 @@
         <v>74</v>
       </c>
       <c r="V2409" s="36" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2410" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80570,7 +80567,7 @@
         <v>74</v>
       </c>
       <c r="V2412" s="36" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2413" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80641,13 +80638,13 @@
         <v>23</v>
       </c>
       <c r="N2415" s="37" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V2415" s="36" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2416" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80703,7 +80700,7 @@
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81018,7 +81015,7 @@
         <v>74</v>
       </c>
       <c r="V2430" s="36" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2431" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81095,7 +81092,7 @@
         <v>74</v>
       </c>
       <c r="V2433" s="36" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2434" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81172,7 +81169,7 @@
         <v>74</v>
       </c>
       <c r="V2436" s="36" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2437" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81195,7 +81192,7 @@
         <v>20</v>
       </c>
       <c r="N2437" s="36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="O2437" s="6" t="s">
         <v>74</v>
@@ -81204,7 +81201,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.6 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F9995-4F77-4B1D-9F31-BDC44676F86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B957E6F-15B3-41F2-B039-733504DE5EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1522">
   <si>
     <t>Passage</t>
   </si>
@@ -4444,9 +4444,6 @@
   </si>
   <si>
     <t>cakSha#saq itiq cakSha#se</t>
-  </si>
-  <si>
-    <t>naq iti na#H</t>
   </si>
   <si>
     <t>mAqtaraq iti# mAqtara#H</t>
@@ -5242,9 +5239,9 @@
   <dimension ref="A1:V2728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1889" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1899" sqref="V1899"/>
+      <selection pane="bottomLeft" activeCell="L212" sqref="L212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6838,7 +6835,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V27" s="36" t="s">
         <v>1147</v>
@@ -6873,7 +6870,7 @@
         <v>27</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="9" t="s">
@@ -7570,7 +7567,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="54" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V45" s="36"/>
     </row>
@@ -7659,7 +7656,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="37" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8623,10 +8620,10 @@
         <v>82</v>
       </c>
       <c r="T71" s="48" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V71" s="36"/>
     </row>
@@ -8672,7 +8669,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="54" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V72" s="36" t="s">
         <v>1150</v>
@@ -10133,7 +10130,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V109" s="36"/>
     </row>
@@ -10855,7 +10852,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V127" s="36"/>
     </row>
@@ -11791,7 +11788,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V152" s="36" t="s">
         <v>1157</v>
@@ -12645,7 +12642,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V174" s="36"/>
     </row>
@@ -12964,10 +12961,10 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="T182" s="6" t="s">
         <v>1499</v>
-      </c>
-      <c r="T182" s="6" t="s">
-        <v>1500</v>
       </c>
       <c r="U182" s="6"/>
       <c r="V182" s="36"/>
@@ -13575,8 +13572,8 @@
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
-      <c r="V198" s="36" t="s">
-        <v>1472</v>
+      <c r="V198" s="37" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13689,7 +13686,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13952,7 +13949,7 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="36" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14106,7 +14103,7 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="37" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14215,7 +14212,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V215" s="36"/>
     </row>
@@ -14520,7 +14517,7 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24436,7 +24433,7 @@
         <v>291</v>
       </c>
       <c r="N514" s="36" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="O514" s="6" t="s">
         <v>74</v>
@@ -24652,7 +24649,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25660,7 +25657,7 @@
         <v>30</v>
       </c>
       <c r="N550" s="37" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O550" s="6" t="s">
         <v>74</v>
@@ -28345,7 +28342,7 @@
         <v>108</v>
       </c>
       <c r="N628" s="37" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O628" s="6" t="s">
         <v>74</v>
@@ -28908,7 +28905,7 @@
         <v>124</v>
       </c>
       <c r="N644" s="37" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O644" s="6" t="s">
         <v>74</v>
@@ -29458,7 +29455,7 @@
         <v>140</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O660" s="6" t="s">
         <v>74</v>
@@ -31286,7 +31283,7 @@
     </row>
     <row r="718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I718" s="38" t="s">
         <v>33</v>
@@ -31319,7 +31316,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32550,7 +32547,7 @@
     </row>
     <row r="757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I757" s="38" t="s">
         <v>34</v>
@@ -38682,7 +38679,7 @@
     </row>
     <row r="950" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I950" s="38" t="s">
         <v>38</v>
@@ -38715,7 +38712,7 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="36" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="951" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38977,7 +38974,7 @@
         <v>83</v>
       </c>
       <c r="T958" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="U958" s="6"/>
       <c r="V958" s="36"/>
@@ -40510,7 +40507,7 @@
       <c r="T1005" s="6"/>
       <c r="U1005" s="6"/>
       <c r="V1005" s="37" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1006" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43680,7 @@
     </row>
     <row r="1104" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1104" s="25"/>
       <c r="I1104" s="38" t="s">
@@ -43717,7 +43714,7 @@
       <c r="T1104" s="6"/>
       <c r="U1104" s="6"/>
       <c r="V1104" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47207,7 +47204,7 @@
         <v>106</v>
       </c>
       <c r="N1210" s="36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O1210" s="5"/>
       <c r="P1210" s="6"/>
@@ -47646,7 +47643,7 @@
       <c r="S1223" s="6"/>
       <c r="T1223" s="6"/>
       <c r="U1223" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V1223" s="36" t="s">
         <v>1260</v>
@@ -48818,7 +48815,7 @@
     </row>
     <row r="1261" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="50" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I1261" s="38" t="s">
         <v>45</v>
@@ -50511,7 +50508,7 @@
     </row>
     <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C1314" s="30"/>
       <c r="I1314" s="38" t="s">
@@ -50545,7 +50542,7 @@
       <c r="T1314" s="6"/>
       <c r="U1314" s="6"/>
       <c r="V1314" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52684,7 +52681,7 @@
       <c r="T1377" s="6"/>
       <c r="U1377" s="6"/>
       <c r="V1377" s="37" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52753,7 +52750,7 @@
       <c r="T1379" s="6"/>
       <c r="U1379" s="6"/>
       <c r="V1379" s="37" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53596,7 +53593,7 @@
         <v>90</v>
       </c>
       <c r="N1404" s="37" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="O1404" s="6" t="s">
         <v>74</v>
@@ -56541,7 +56538,7 @@
       <c r="T1492" s="6"/>
       <c r="U1492" s="6"/>
       <c r="V1492" s="36" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62442,7 +62439,7 @@
         <v>110</v>
       </c>
       <c r="T1700" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V1700" s="36"/>
     </row>
@@ -64399,7 +64396,7 @@
     </row>
     <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1780" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I1780" s="38" t="s">
         <v>54</v>
@@ -64901,7 +64898,7 @@
         <v>75</v>
       </c>
       <c r="V1799" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65993,7 +65990,7 @@
         <v>83</v>
       </c>
       <c r="T1843" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="V1843" s="36"/>
     </row>
@@ -69148,7 +69145,7 @@
         <v>75</v>
       </c>
       <c r="V1969" s="36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1970" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71194,7 +71191,7 @@
         <v>83</v>
       </c>
       <c r="N2052" s="37" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O2052" s="6" t="s">
         <v>74</v>
@@ -73260,7 +73257,7 @@
     </row>
     <row r="2134" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2134" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I2134" s="38" t="s">
         <v>60</v>
@@ -73287,7 +73284,7 @@
         <v>75</v>
       </c>
       <c r="V2134" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2135" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73964,7 +73961,7 @@
         <v>75</v>
       </c>
       <c r="V2160" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74293,7 +74290,7 @@
         <v>13</v>
       </c>
       <c r="N2173" s="37" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O2173" s="6" t="s">
         <v>74</v>
@@ -74631,7 +74628,7 @@
         <v>75</v>
       </c>
       <c r="V2186" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2187" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75313,7 +75310,7 @@
         <v>75</v>
       </c>
       <c r="V2211" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2212" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75998,7 +75995,7 @@
         <v>75</v>
       </c>
       <c r="V2236" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2237" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76411,7 +76408,7 @@
         <v>1042</v>
       </c>
       <c r="U2253" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V2253" s="36"/>
     </row>
@@ -76547,7 +76544,7 @@
     </row>
     <row r="2259" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I2259" s="38" t="s">
         <v>65</v>
@@ -76574,7 +76571,7 @@
         <v>75</v>
       </c>
       <c r="V2259" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2260" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77092,7 +77089,7 @@
         <v>75</v>
       </c>
       <c r="V2279" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77185,7 +77182,7 @@
         <v>4</v>
       </c>
       <c r="N2283" s="36" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="O2283" s="6" t="s">
         <v>74</v>
@@ -77653,7 +77650,7 @@
         <v>75</v>
       </c>
       <c r="V2301" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2302" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78113,7 +78110,7 @@
         <v>75</v>
       </c>
       <c r="V2319" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2320" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78403,7 +78400,7 @@
         <v>12</v>
       </c>
       <c r="N2331" s="37" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="V2331" s="36"/>
     </row>
@@ -78582,7 +78579,7 @@
         <v>75</v>
       </c>
       <c r="V2338" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2339" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79081,7 +79078,7 @@
     </row>
     <row r="2358" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2358" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I2358" s="38" t="s">
         <v>70</v>
@@ -79108,7 +79105,7 @@
         <v>75</v>
       </c>
       <c r="V2358" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2359" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79410,7 +79407,7 @@
         <v>76</v>
       </c>
       <c r="U2369" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V2369" s="36" t="s">
         <v>1412</v>
@@ -79980,7 +79977,7 @@
         <v>1117</v>
       </c>
       <c r="U2389" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V2389" s="36"/>
     </row>
@@ -80061,7 +80058,7 @@
         <v>75</v>
       </c>
       <c r="V2392" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80638,7 +80635,7 @@
         <v>23</v>
       </c>
       <c r="N2415" s="37" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="O2415" s="6" t="s">
         <v>74</v>
@@ -80700,7 +80697,7 @@
         <v>75</v>
       </c>
       <c r="V2417" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2418" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81201,7 +81198,7 @@
         <v>75</v>
       </c>
       <c r="V2437" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2438" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
